--- a/data/qcd_testcases.xlsx
+++ b/data/qcd_testcases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="775" visibility="visible" windowHeight="15024" windowWidth="0" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="775" visibility="visible" windowHeight="15024" windowWidth="0" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="getFinanceLogList" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -136,15 +136,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -165,13 +156,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -201,17 +200,9 @@
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -228,15 +219,8 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -246,16 +230,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -530,602 +517,603 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="G19" pane="bottomLeft" sqref="G19"/>
+      <selection activeCell="G29" pane="bottomLeft" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="17.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="19" width="8.109375"/>
-    <col customWidth="1" max="2" min="2" style="19" width="10.77734375"/>
-    <col customWidth="1" max="3" min="3" style="16" width="41.5546875"/>
-    <col customWidth="1" max="4" min="4" style="16" width="13.6640625"/>
-    <col customWidth="1" max="5" min="5" style="16" width="9.33203125"/>
-    <col customWidth="1" max="6" min="6" style="19" width="20.109375"/>
-    <col customWidth="1" max="7" min="7" style="19" width="92.109375"/>
-    <col customWidth="1" max="8" min="8" style="19" width="83.44140625"/>
-    <col customWidth="1" max="9" min="9" style="19" width="10.33203125"/>
-    <col customWidth="1" max="16384" min="10" style="19" width="8.88671875"/>
+    <col customWidth="1" max="1" min="1" style="14" width="8.109375"/>
+    <col customWidth="1" max="2" min="2" style="14" width="10.77734375"/>
+    <col customWidth="1" max="3" min="3" style="12" width="41.5546875"/>
+    <col customWidth="1" max="4" min="4" style="12" width="13.6640625"/>
+    <col customWidth="1" max="5" min="5" style="12" width="9.33203125"/>
+    <col customWidth="1" max="6" min="6" style="14" width="20.109375"/>
+    <col customWidth="1" max="7" min="7" style="14" width="92.109375"/>
+    <col customWidth="1" max="8" min="8" style="14" width="83.44140625"/>
+    <col customWidth="1" max="9" min="9" style="14" width="10.33203125"/>
+    <col customWidth="1" max="15" min="10" style="14" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="16" style="14" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>api_name</t>
         </is>
       </c>
-      <c r="E1" s="12" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>request_data</t>
         </is>
       </c>
-      <c r="H1" s="11" t="inlineStr">
+      <c r="H1" s="10" t="inlineStr">
         <is>
           <t>expected_data</t>
         </is>
       </c>
-      <c r="I1" s="11" t="inlineStr">
+      <c r="I1" s="10" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="n">
+      <c r="A2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="inlineStr">
+      <c r="B2" s="24" t="inlineStr">
         <is>
           <t>注册</t>
         </is>
       </c>
-      <c r="C2" s="31" t="inlineStr">
+      <c r="C2" s="24" t="inlineStr">
         <is>
           <t>正常注册, 6位密码</t>
         </is>
       </c>
-      <c r="D2" s="31" t="inlineStr">
+      <c r="D2" s="24" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="E2" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F2" s="31" t="inlineStr">
+      <c r="E2" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="24" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="G2" s="18" t="inlineStr">
+      <c r="G2" s="13" t="inlineStr">
         <is>
           <t>{'mobilephone':'#register_phone#', 'pwd':'123456', 'regname':'baozi'}</t>
         </is>
       </c>
-      <c r="H2" s="18" t="inlineStr">
+      <c r="H2" s="13" t="inlineStr">
         <is>
           <t>{'status':1,  'code':'10001', 'data':None, 'msg':'注册成功'}</t>
         </is>
       </c>
-      <c r="I2" s="18" t="inlineStr">
+      <c r="I2" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="n">
+      <c r="A3" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="n"/>
-      <c r="C3" s="31" t="inlineStr">
+      <c r="B3" s="25" t="n"/>
+      <c r="C3" s="24" t="inlineStr">
         <is>
           <t>正常注册, 18位密码</t>
         </is>
       </c>
-      <c r="D3" s="31" t="inlineStr">
+      <c r="D3" s="24" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="E3" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F3" s="31" t="inlineStr">
+      <c r="E3" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F3" s="24" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="G3" s="18" t="inlineStr">
+      <c r="G3" s="13" t="inlineStr">
         <is>
           <t>{'mobilephone':'#register_phone#', 'pwd':'abc123456789012300', 'regname':'张三'}</t>
         </is>
       </c>
-      <c r="H3" s="18" t="inlineStr">
+      <c r="H3" s="13" t="inlineStr">
         <is>
           <t>{'status':1,  'code':'10001', 'data':None, 'msg':'注册成功'}</t>
         </is>
       </c>
-      <c r="I3" s="18" t="inlineStr">
+      <c r="I3" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="18" t="n">
+      <c r="A4" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="n"/>
-      <c r="C4" s="31" t="inlineStr">
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="24" t="inlineStr">
         <is>
           <t>regname为空</t>
         </is>
       </c>
-      <c r="D4" s="31" t="inlineStr">
+      <c r="D4" s="24" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="E4" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F4" s="31" t="inlineStr">
+      <c r="E4" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F4" s="24" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="G4" s="18" t="inlineStr">
+      <c r="G4" s="13" t="inlineStr">
         <is>
           <t>{'mobilephone':'#register_phone#', 'pwd':'abc123456789012300', 'regname':' '}</t>
         </is>
       </c>
-      <c r="H4" s="18" t="inlineStr">
+      <c r="H4" s="13" t="inlineStr">
         <is>
           <t>{'status':1,  'code':'10001', 'data':None, 'msg':'注册成功'}</t>
         </is>
       </c>
-      <c r="I4" s="18" t="inlineStr">
+      <c r="I4" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="18" t="n">
+      <c r="A5" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="n"/>
-      <c r="C5" s="31" t="inlineStr">
+      <c r="B5" s="25" t="n"/>
+      <c r="C5" s="24" t="inlineStr">
         <is>
           <t>手机号为空</t>
         </is>
       </c>
-      <c r="D5" s="31" t="inlineStr">
+      <c r="D5" s="24" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="E5" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F5" s="31" t="inlineStr">
+      <c r="E5" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F5" s="24" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="G5" s="18" t="inlineStr">
+      <c r="G5" s="13" t="inlineStr">
         <is>
           <t>{'mobilephone':'', 'pwd':'abc123', 'regname':'baozi'}</t>
         </is>
       </c>
-      <c r="H5" s="18" t="inlineStr">
+      <c r="H5" s="13" t="inlineStr">
         <is>
           <t>{'status':0,  'code':'20103', 'data':None, 'msg':'手机号不能为空'}</t>
         </is>
       </c>
-      <c r="I5" s="18" t="inlineStr">
+      <c r="I5" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="18" t="n">
+      <c r="A6" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="n"/>
-      <c r="C6" s="31" t="inlineStr">
+      <c r="B6" s="25" t="n"/>
+      <c r="C6" s="24" t="inlineStr">
         <is>
           <t>密码为空</t>
         </is>
       </c>
-      <c r="D6" s="31" t="inlineStr">
+      <c r="D6" s="24" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="E6" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F6" s="31" t="inlineStr">
+      <c r="E6" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F6" s="24" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="G6" s="18" t="inlineStr">
-        <is>
-          <t>{'mobilephone':'15071369972', 'pwd':'', 'regname':'baozi'}</t>
-        </is>
-      </c>
-      <c r="H6" s="18" t="inlineStr">
+      <c r="G6" s="13" t="inlineStr">
+        <is>
+          <t>{'mobilephone':'#register_phone#', 'pwd':'', 'regname':'baozi'}</t>
+        </is>
+      </c>
+      <c r="H6" s="13" t="inlineStr">
         <is>
           <t>{'status':0,  'code':'20103', 'data':None, 'msg':'密码不能为空'}</t>
         </is>
       </c>
-      <c r="I6" s="18" t="inlineStr">
+      <c r="I6" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="18" t="n">
+      <c r="A7" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="34" t="n"/>
-      <c r="C7" s="31" t="inlineStr">
+      <c r="B7" s="25" t="n"/>
+      <c r="C7" s="24" t="inlineStr">
         <is>
           <t>5位密码</t>
         </is>
       </c>
-      <c r="D7" s="31" t="inlineStr">
+      <c r="D7" s="24" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="E7" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F7" s="31" t="inlineStr">
+      <c r="E7" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F7" s="24" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="G7" s="18" t="inlineStr">
-        <is>
-          <t>{'mobilephone':'15071369972', 'pwd':'ab123', 'regname':'baozi'}</t>
-        </is>
-      </c>
-      <c r="H7" s="18" t="inlineStr">
+      <c r="G7" s="13" t="inlineStr">
+        <is>
+          <t>{'mobilephone':'#register_phone#', 'pwd':'ab123', 'regname':'baozi'}</t>
+        </is>
+      </c>
+      <c r="H7" s="13" t="inlineStr">
         <is>
           <t>{'status':0,  'code':'20108', 'data':None, 'msg':'密码长度必须为6~18'}</t>
         </is>
       </c>
-      <c r="I7" s="18" t="inlineStr">
+      <c r="I7" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="18" t="n">
+      <c r="A8" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="n"/>
-      <c r="C8" s="31" t="inlineStr">
+      <c r="B8" s="25" t="n"/>
+      <c r="C8" s="24" t="inlineStr">
         <is>
           <t>19位密码</t>
         </is>
       </c>
-      <c r="D8" s="31" t="inlineStr">
+      <c r="D8" s="24" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="E8" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F8" s="31" t="inlineStr">
+      <c r="E8" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F8" s="24" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="G8" s="18" t="inlineStr">
-        <is>
-          <t>{'mobilephone':'15071369972', 'pwd':'abc1234567890123001', 'regname':'baozi'}</t>
-        </is>
-      </c>
-      <c r="H8" s="18" t="inlineStr">
+      <c r="G8" s="13" t="inlineStr">
+        <is>
+          <t>{'mobilephone':'#register_phone#', 'pwd':'abc1234567890123001', 'regname':'baozi'}</t>
+        </is>
+      </c>
+      <c r="H8" s="13" t="inlineStr">
         <is>
           <t>{'status':0,  'code':'20108', 'data':None, 'msg':'密码长度必须为6~18'}</t>
         </is>
       </c>
-      <c r="I8" s="18" t="inlineStr">
+      <c r="I8" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="18" t="n">
+      <c r="A9" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="n"/>
-      <c r="C9" s="31" t="inlineStr">
+      <c r="B9" s="25" t="n"/>
+      <c r="C9" s="24" t="inlineStr">
         <is>
           <t>手机号有非数字</t>
         </is>
       </c>
-      <c r="D9" s="31" t="inlineStr">
+      <c r="D9" s="24" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="E9" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F9" s="31" t="inlineStr">
+      <c r="E9" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F9" s="24" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="G9" s="18" t="inlineStr">
+      <c r="G9" s="13" t="inlineStr">
         <is>
           <t>{'mobilephone':'a5071369972', 'pwd':'abc123', 'regname':'baozi'}</t>
         </is>
       </c>
-      <c r="H9" s="18" t="inlineStr">
+      <c r="H9" s="13" t="inlineStr">
         <is>
           <t>{'status':0,  'code':'20109', 'data':None, 'msg':'手机号码格式不正确'}</t>
         </is>
       </c>
-      <c r="I9" s="18" t="inlineStr">
+      <c r="I9" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="18" t="n">
+      <c r="A10" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="n"/>
-      <c r="C10" s="31" t="inlineStr">
+      <c r="B10" s="25" t="n"/>
+      <c r="C10" s="24" t="inlineStr">
         <is>
           <t>手机号中间有空格</t>
         </is>
       </c>
-      <c r="D10" s="31" t="inlineStr">
+      <c r="D10" s="24" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="E10" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F10" s="31" t="inlineStr">
+      <c r="E10" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F10" s="24" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="G10" s="18" t="inlineStr">
+      <c r="G10" s="13" t="inlineStr">
         <is>
           <t>{'mobilephone':'150 71369971', 'pwd':'abc123456789012300', 'regname':'张三'}</t>
         </is>
       </c>
-      <c r="H10" s="18" t="inlineStr">
+      <c r="H10" s="13" t="inlineStr">
         <is>
           <t>{'status':0,  'code':'20109', 'data':None, 'msg':'手机号码格式不正确'}</t>
         </is>
       </c>
-      <c r="I10" s="18" t="inlineStr">
+      <c r="I10" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="18" t="n">
+      <c r="A11" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="34" t="n"/>
-      <c r="C11" s="31" t="inlineStr">
+      <c r="B11" s="25" t="n"/>
+      <c r="C11" s="24" t="inlineStr">
         <is>
           <t>手机号段非法</t>
         </is>
       </c>
-      <c r="D11" s="31" t="inlineStr">
+      <c r="D11" s="24" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="E11" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F11" s="31" t="inlineStr">
+      <c r="E11" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F11" s="24" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="G11" s="18" t="inlineStr">
+      <c r="G11" s="13" t="inlineStr">
         <is>
           <t>{'mobilephone':'10071369972', 'pwd':'abc123', 'regname':'baozi'}</t>
         </is>
       </c>
-      <c r="H11" s="18" t="inlineStr">
+      <c r="H11" s="13" t="inlineStr">
         <is>
           <t>{'status':0,  'code':'20109', 'data':None, 'msg':'手机号码格式不正确'}</t>
         </is>
       </c>
-      <c r="I11" s="18" t="inlineStr">
+      <c r="I11" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="18" t="n">
+      <c r="A12" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="34" t="n"/>
-      <c r="C12" s="31" t="inlineStr">
+      <c r="B12" s="25" t="n"/>
+      <c r="C12" s="24" t="inlineStr">
         <is>
           <t>10位手机号</t>
         </is>
       </c>
-      <c r="D12" s="31" t="inlineStr">
+      <c r="D12" s="24" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="E12" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F12" s="31" t="inlineStr">
+      <c r="E12" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F12" s="24" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="G12" s="18" t="inlineStr">
+      <c r="G12" s="13" t="inlineStr">
         <is>
           <t>{'mobilephone':'1507136997', 'pwd':'123456', 'regname':'baozi'}</t>
         </is>
       </c>
-      <c r="H12" s="18" t="inlineStr">
+      <c r="H12" s="13" t="inlineStr">
         <is>
           <t>{'status':0,  'code':'20109', 'data':None, 'msg':'手机号码格式不正确'}</t>
         </is>
       </c>
-      <c r="I12" s="18" t="inlineStr">
+      <c r="I12" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="18" t="n">
+      <c r="A13" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="34" t="n"/>
-      <c r="C13" s="31" t="inlineStr">
+      <c r="B13" s="25" t="n"/>
+      <c r="C13" s="24" t="inlineStr">
         <is>
           <t>12位手机号</t>
         </is>
       </c>
-      <c r="D13" s="31" t="inlineStr">
+      <c r="D13" s="24" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="E13" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F13" s="31" t="inlineStr">
+      <c r="E13" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F13" s="24" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="G13" s="18" t="inlineStr">
+      <c r="G13" s="13" t="inlineStr">
         <is>
           <t>{'mobilephone':'150713699701', 'pwd':'123456', 'regname':'baozi'}</t>
         </is>
       </c>
-      <c r="H13" s="18" t="inlineStr">
+      <c r="H13" s="13" t="inlineStr">
         <is>
           <t>{'status':0,  'code':'20109', 'data':None, 'msg':'手机号码格式不正确'}</t>
         </is>
       </c>
-      <c r="I13" s="18" t="inlineStr">
+      <c r="I13" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="18" t="n">
+      <c r="A14" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="35" t="n"/>
-      <c r="C14" s="31" t="inlineStr">
+      <c r="B14" s="26" t="n"/>
+      <c r="C14" s="24" t="inlineStr">
         <is>
           <t>手机号已被注册</t>
         </is>
       </c>
-      <c r="D14" s="31" t="inlineStr">
+      <c r="D14" s="24" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="E14" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F14" s="31" t="inlineStr">
+      <c r="E14" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F14" s="24" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
       </c>
-      <c r="G14" s="18" t="inlineStr">
+      <c r="G14" s="13" t="inlineStr">
         <is>
           <t>{'mobilephone':'#exists_phone#', 'pwd':'123456', 'regname':'王五'}</t>
         </is>
       </c>
-      <c r="H14" s="18" t="inlineStr">
+      <c r="H14" s="13" t="inlineStr">
         <is>
           <t>{'status':0,  'code':'20110', 'data':None, 'msg':'手机号码已被注册'}</t>
         </is>
       </c>
-      <c r="I14" s="18" t="inlineStr">
+      <c r="I14" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -1154,216 +1142,217 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="17.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="19" width="9.21875"/>
-    <col customWidth="1" max="2" min="2" style="19" width="15.5546875"/>
-    <col customWidth="1" max="3" min="3" style="16" width="42.33203125"/>
-    <col customWidth="1" max="4" min="4" style="16" width="27.21875"/>
-    <col customWidth="1" max="5" min="5" style="16" width="13.44140625"/>
-    <col customWidth="1" max="6" min="6" style="19" width="34.44140625"/>
-    <col customWidth="1" max="7" min="7" style="19" width="15.88671875"/>
-    <col customWidth="1" max="8" min="8" style="19" width="108.21875"/>
-    <col customWidth="1" max="9" min="9" style="19" width="10.33203125"/>
-    <col customWidth="1" max="16384" min="10" style="19" width="8.88671875"/>
+    <col customWidth="1" max="1" min="1" style="14" width="9.21875"/>
+    <col customWidth="1" max="2" min="2" style="14" width="15.5546875"/>
+    <col customWidth="1" max="3" min="3" style="12" width="42.33203125"/>
+    <col customWidth="1" max="4" min="4" style="12" width="27.21875"/>
+    <col customWidth="1" max="5" min="5" style="12" width="13.44140625"/>
+    <col customWidth="1" max="6" min="6" style="14" width="34.44140625"/>
+    <col customWidth="1" max="7" min="7" style="14" width="15.88671875"/>
+    <col customWidth="1" max="8" min="8" style="14" width="108.21875"/>
+    <col customWidth="1" max="9" min="9" style="14" width="10.33203125"/>
+    <col customWidth="1" max="15" min="10" style="14" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="16" style="14" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>api_name</t>
         </is>
       </c>
-      <c r="E1" s="12" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>request_data</t>
         </is>
       </c>
-      <c r="H1" s="11" t="inlineStr">
+      <c r="H1" s="10" t="inlineStr">
         <is>
           <t>expected_data</t>
         </is>
       </c>
-      <c r="I1" s="11" t="inlineStr">
+      <c r="I1" s="10" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="n">
+      <c r="A2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="inlineStr">
+      <c r="B2" s="24" t="inlineStr">
         <is>
           <t>生成回款计划</t>
         </is>
       </c>
-      <c r="C2" s="31" t="inlineStr">
+      <c r="C2" s="24" t="inlineStr">
         <is>
           <t>正常生成回款计划</t>
         </is>
       </c>
-      <c r="D2" s="31" t="inlineStr">
+      <c r="D2" s="24" t="inlineStr">
         <is>
           <t>generateRepayments</t>
         </is>
       </c>
-      <c r="E2" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F2" s="31" t="inlineStr">
+      <c r="E2" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="24" t="inlineStr">
         <is>
           <t>/loan//generateRepayments</t>
         </is>
       </c>
-      <c r="G2" s="18" t="inlineStr">
+      <c r="G2" s="13" t="inlineStr">
         <is>
           <t>{"id":2002}</t>
         </is>
       </c>
-      <c r="H2" s="18" t="inlineStr">
+      <c r="H2" s="13" t="inlineStr">
         <is>
           <t>{"status":1,  "code":"10001", "data":None, "msg":"生成回款计划成功"}</t>
         </is>
       </c>
-      <c r="I2" s="29" t="n"/>
+      <c r="I2" s="21" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="n">
+      <c r="A3" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="n"/>
-      <c r="C3" s="31" t="inlineStr">
+      <c r="B3" s="25" t="n"/>
+      <c r="C3" s="24" t="inlineStr">
         <is>
           <t>id不存在</t>
         </is>
       </c>
-      <c r="D3" s="31" t="inlineStr">
+      <c r="D3" s="24" t="inlineStr">
         <is>
           <t>generateRepayments</t>
         </is>
       </c>
-      <c r="E3" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F3" s="31" t="inlineStr">
+      <c r="E3" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F3" s="24" t="inlineStr">
         <is>
           <t>/loan//generateRepayments</t>
         </is>
       </c>
-      <c r="G3" s="18" t="inlineStr">
+      <c r="G3" s="13" t="inlineStr">
         <is>
           <t>{"id":0002}</t>
         </is>
       </c>
-      <c r="H3" s="18" t="inlineStr">
+      <c r="H3" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20404", "data":None, "msg":"不存在该项目, 生成回款计划失败"}</t>
         </is>
       </c>
-      <c r="I3" s="29" t="n"/>
+      <c r="I3" s="21" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="18" t="n">
+      <c r="A4" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="n"/>
-      <c r="C4" s="31" t="inlineStr">
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="24" t="inlineStr">
         <is>
           <t>id状态不是核保审批或终审状态</t>
         </is>
       </c>
-      <c r="D4" s="31" t="inlineStr">
+      <c r="D4" s="24" t="inlineStr">
         <is>
           <t>generateRepayments</t>
         </is>
       </c>
-      <c r="E4" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F4" s="31" t="inlineStr">
+      <c r="E4" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F4" s="24" t="inlineStr">
         <is>
           <t>/loan//generateRepayments</t>
         </is>
       </c>
-      <c r="G4" s="18" t="inlineStr">
+      <c r="G4" s="13" t="inlineStr">
         <is>
           <t>{"id":2003}</t>
         </is>
       </c>
-      <c r="H4" s="18" t="inlineStr">
+      <c r="H4" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20405", "data":None, "msg":"该项目不在核保审批或终审状态, 无法生成回款计划"}</t>
         </is>
       </c>
-      <c r="I4" s="29" t="n"/>
+      <c r="I4" s="21" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="18" t="n">
+      <c r="A5" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="35" t="n"/>
-      <c r="C5" s="31" t="inlineStr">
+      <c r="B5" s="26" t="n"/>
+      <c r="C5" s="24" t="inlineStr">
         <is>
           <t>id数据类型错误</t>
         </is>
       </c>
-      <c r="D5" s="31" t="inlineStr">
+      <c r="D5" s="24" t="inlineStr">
         <is>
           <t>generateRepayments</t>
         </is>
       </c>
-      <c r="E5" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F5" s="31" t="inlineStr">
+      <c r="E5" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F5" s="24" t="inlineStr">
         <is>
           <t>/loan//generateRepayments</t>
         </is>
       </c>
-      <c r="G5" s="18" t="inlineStr">
+      <c r="G5" s="13" t="inlineStr">
         <is>
           <t>{"id":"2002"}</t>
         </is>
       </c>
-      <c r="H5" s="18" t="inlineStr">
+      <c r="H5" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20406", "data":None, "msg":"请根据参数类型对应输入, 数值类型只能输入数字"}</t>
         </is>
       </c>
-      <c r="I5" s="29" t="n"/>
+      <c r="I5" s="21" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1387,179 +1376,180 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="22.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="2" width="13.6640625"/>
-    <col customWidth="1" max="2" min="2" style="2" width="33.44140625"/>
-    <col customWidth="1" max="3" min="3" style="2" width="44.109375"/>
-    <col customWidth="1" max="4" min="4" style="2" width="38.6640625"/>
-    <col customWidth="1" max="5" min="5" style="2" width="13.44140625"/>
-    <col customWidth="1" max="6" min="6" style="2" width="54.109375"/>
-    <col customWidth="1" max="7" min="7" style="2" width="34"/>
-    <col customWidth="1" max="8" min="8" style="2" width="128.33203125"/>
-    <col customWidth="1" max="9" min="9" style="2" width="10.33203125"/>
-    <col customWidth="1" max="16384" min="10" style="2" width="8.88671875"/>
+    <col customWidth="1" max="1" min="1" style="1" width="13.6640625"/>
+    <col customWidth="1" max="2" min="2" style="1" width="33.44140625"/>
+    <col customWidth="1" max="3" min="3" style="1" width="44.109375"/>
+    <col customWidth="1" max="4" min="4" style="1" width="38.6640625"/>
+    <col customWidth="1" max="5" min="5" style="1" width="13.44140625"/>
+    <col customWidth="1" max="6" min="6" style="1" width="54.109375"/>
+    <col customWidth="1" max="7" min="7" style="1" width="34"/>
+    <col customWidth="1" max="8" min="8" style="1" width="128.33203125"/>
+    <col customWidth="1" max="9" min="9" style="1" width="10.33203125"/>
+    <col customWidth="1" max="15" min="10" style="1" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="16" style="1" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>api_name</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>request_data</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>expected_data</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="n">
+      <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="inlineStr">
+      <c r="B2" s="28" t="inlineStr">
         <is>
           <t>获取用户所有投资记录</t>
         </is>
       </c>
-      <c r="C2" s="7" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>正常获取用户所有投资记录</t>
         </is>
       </c>
-      <c r="D2" s="7" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>getInvestsByMemberId</t>
         </is>
       </c>
-      <c r="E2" s="7" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F2" s="7" t="inlineStr">
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
         <is>
           <t>//invest/getInvestsByMemberId</t>
         </is>
       </c>
-      <c r="G2" s="7" t="inlineStr">
+      <c r="G2" s="6" t="inlineStr">
         <is>
           <t>{"memberId":1001}</t>
         </is>
       </c>
-      <c r="H2" s="7" t="inlineStr">
+      <c r="H2" s="6" t="inlineStr">
         <is>
           <t>{"status":1,  "code":"10001", "data":None, "msg":"获取用户投资列表成功"}</t>
         </is>
       </c>
-      <c r="I2" s="7" t="n"/>
+      <c r="I2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="n"/>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="B3" s="25" t="n"/>
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>memberId为空</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>getInvestsByMemberId</t>
         </is>
       </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>//invest/getInvestsByMemberId</t>
         </is>
       </c>
-      <c r="G3" s="7" t="inlineStr">
+      <c r="G3" s="6" t="inlineStr">
         <is>
           <t>{"memberId":}</t>
         </is>
       </c>
-      <c r="H3" s="7" t="inlineStr">
+      <c r="H3" s="6" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"30103", "data":None, "msg":"参数错误：参数不能为空"}</t>
         </is>
       </c>
-      <c r="I3" s="7" t="n"/>
+      <c r="I3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="n">
+      <c r="A4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="35" t="n"/>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="B4" s="26" t="n"/>
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>memberId数据类型非法</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>getInvestsByMemberId</t>
         </is>
       </c>
-      <c r="E4" s="7" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F4" s="7" t="inlineStr">
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
         <is>
           <t>//invest/getInvestsByMemberId</t>
         </is>
       </c>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="G4" s="6" t="inlineStr">
         <is>
           <t>{"memberId":"1001"}</t>
         </is>
       </c>
-      <c r="H4" s="7" t="inlineStr">
+      <c r="H4" s="6" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"30104", "data":None, "msg":"参数错误, 参数必须是数字"}</t>
         </is>
       </c>
-      <c r="I4" s="7" t="n"/>
+      <c r="I4" s="6" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1583,179 +1573,180 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="22.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="13.6640625"/>
-    <col customWidth="1" max="2" min="2" style="3" width="33.44140625"/>
-    <col customWidth="1" max="3" min="3" style="2" width="44.109375"/>
-    <col customWidth="1" max="4" min="4" style="2" width="33.33203125"/>
-    <col customWidth="1" max="5" min="5" style="2" width="13.44140625"/>
-    <col customWidth="1" max="6" min="6" style="2" width="46.77734375"/>
-    <col customWidth="1" max="7" min="7" style="3" width="29"/>
-    <col customWidth="1" max="8" min="8" style="3" width="128.33203125"/>
-    <col customWidth="1" max="9" min="9" style="3" width="10.33203125"/>
-    <col customWidth="1" max="16384" min="10" style="3" width="8.88671875"/>
+    <col customWidth="1" max="1" min="1" style="2" width="13.6640625"/>
+    <col customWidth="1" max="2" min="2" style="2" width="33.44140625"/>
+    <col customWidth="1" max="3" min="3" style="1" width="44.109375"/>
+    <col customWidth="1" max="4" min="4" style="1" width="33.33203125"/>
+    <col customWidth="1" max="5" min="5" style="1" width="13.44140625"/>
+    <col customWidth="1" max="6" min="6" style="1" width="46.77734375"/>
+    <col customWidth="1" max="7" min="7" style="2" width="29"/>
+    <col customWidth="1" max="8" min="8" style="2" width="128.33203125"/>
+    <col customWidth="1" max="9" min="9" style="2" width="10.33203125"/>
+    <col customWidth="1" max="15" min="10" style="2" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="16" style="2" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>api_name</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>request_data</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>expected_data</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="5" t="n">
         <v>135</v>
       </c>
-      <c r="B2" s="33" t="inlineStr">
+      <c r="B2" s="28" t="inlineStr">
         <is>
           <t>获取标的所有投资记录</t>
         </is>
       </c>
-      <c r="C2" s="7" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>正常获取标的所有投资记录</t>
         </is>
       </c>
-      <c r="D2" s="7" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>getInvestsByLoanId</t>
         </is>
       </c>
-      <c r="E2" s="9" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F2" s="7" t="inlineStr">
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
         <is>
           <t>/invest/getInvestsByLoanId</t>
         </is>
       </c>
-      <c r="G2" s="10" t="inlineStr">
+      <c r="G2" s="9" t="inlineStr">
         <is>
           <t>{"loanId":2002}</t>
         </is>
       </c>
-      <c r="H2" s="6" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>{"status":1,  "code":"10001", "data":None, "msg":"获取记录成功"}</t>
         </is>
       </c>
-      <c r="I2" s="8" t="n"/>
+      <c r="I2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="5" t="n">
         <v>136</v>
       </c>
-      <c r="B3" s="34" t="n"/>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="B3" s="25" t="n"/>
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>loanId为空</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>getInvestsByLoanId</t>
         </is>
       </c>
-      <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>/invest/getInvestsByLoanId</t>
         </is>
       </c>
-      <c r="G3" s="10" t="inlineStr">
+      <c r="G3" s="9" t="inlineStr">
         <is>
           <t>{"loanId":}</t>
         </is>
       </c>
-      <c r="H3" s="6" t="inlineStr">
+      <c r="H3" s="5" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"30103", "data":None, "msg":"参数错误：参数不能为空"}</t>
         </is>
       </c>
-      <c r="I3" s="8" t="n"/>
+      <c r="I3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="5" t="n">
         <v>137</v>
       </c>
-      <c r="B4" s="35" t="n"/>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="B4" s="26" t="n"/>
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>loanId数据类型非法</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>getInvestsByLoanId</t>
         </is>
       </c>
-      <c r="E4" s="9" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F4" s="7" t="inlineStr">
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
         <is>
           <t>/invest/getInvestsByLoanId</t>
         </is>
       </c>
-      <c r="G4" s="10" t="inlineStr">
+      <c r="G4" s="9" t="inlineStr">
         <is>
           <t>{"loanId":"2002"}</t>
         </is>
       </c>
-      <c r="H4" s="6" t="inlineStr">
+      <c r="H4" s="5" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"30104", "data":None, "msg":"参数错误, 参数必须是数字"}</t>
         </is>
       </c>
-      <c r="I4" s="8" t="n"/>
+      <c r="I4" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1779,253 +1770,254 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="22.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="13.6640625"/>
-    <col customWidth="1" max="2" min="2" style="3" width="27"/>
-    <col customWidth="1" max="3" min="3" style="2" width="46.109375"/>
-    <col customWidth="1" max="4" min="4" style="2" width="31.88671875"/>
-    <col customWidth="1" max="5" min="5" style="2" width="13.44140625"/>
-    <col customWidth="1" max="6" min="6" style="3" width="53"/>
-    <col customWidth="1" max="7" min="7" style="3" width="34"/>
-    <col customWidth="1" max="8" min="8" style="3" width="128.33203125"/>
-    <col customWidth="1" max="9" min="9" style="3" width="10.33203125"/>
-    <col customWidth="1" max="16384" min="10" style="3" width="8.88671875"/>
+    <col customWidth="1" max="1" min="1" style="2" width="13.6640625"/>
+    <col customWidth="1" max="2" min="2" style="2" width="27"/>
+    <col customWidth="1" max="3" min="3" style="1" width="46.109375"/>
+    <col customWidth="1" max="4" min="4" style="1" width="31.88671875"/>
+    <col customWidth="1" max="5" min="5" style="1" width="13.44140625"/>
+    <col customWidth="1" max="6" min="6" style="2" width="53"/>
+    <col customWidth="1" max="7" min="7" style="2" width="34"/>
+    <col customWidth="1" max="8" min="8" style="2" width="128.33203125"/>
+    <col customWidth="1" max="9" min="9" style="2" width="10.33203125"/>
+    <col customWidth="1" max="15" min="10" style="2" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="16" style="2" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>api_name</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>request_data</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>expected_data</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="inlineStr">
+      <c r="B2" s="28" t="inlineStr">
         <is>
           <t>获取用户流水记录</t>
         </is>
       </c>
-      <c r="C2" s="7" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>正常获取用户流水记录</t>
         </is>
       </c>
-      <c r="D2" s="7" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>getFinanceLogList</t>
         </is>
       </c>
-      <c r="E2" s="7" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F2" s="7" t="inlineStr">
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
         <is>
           <t>/financelog/getFinanceLogList</t>
         </is>
       </c>
-      <c r="G2" s="6" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>{"memberId":1001}</t>
         </is>
       </c>
-      <c r="H2" s="6" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>{"status":1,  "code":"10001", "data":None, "msg":"获取用户流水记录成功"}</t>
         </is>
       </c>
-      <c r="I2" s="8" t="n"/>
+      <c r="I2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="n"/>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="B3" s="25" t="n"/>
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>memberId为空</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>getFinanceLogList</t>
         </is>
       </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>/financelog/getFinanceLogList</t>
         </is>
       </c>
-      <c r="G3" s="6" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>{"memberId":}</t>
         </is>
       </c>
-      <c r="H3" s="6" t="inlineStr">
+      <c r="H3" s="5" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"50103", "data":None, "msg":"参数错误：参数不能为空"}</t>
         </is>
       </c>
-      <c r="I3" s="8" t="n"/>
+      <c r="I3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="n"/>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>memberId数据类型非法</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>getFinanceLogList</t>
         </is>
       </c>
-      <c r="E4" s="7" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F4" s="7" t="inlineStr">
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
         <is>
           <t>/financelog/getFinanceLogList</t>
         </is>
       </c>
-      <c r="G4" s="6" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>{"memberId":"1001"}</t>
         </is>
       </c>
-      <c r="H4" s="6" t="inlineStr">
+      <c r="H4" s="5" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"50104", "data":None, "msg":"参数错误, 参数必须是数字"}</t>
         </is>
       </c>
-      <c r="I4" s="8" t="n"/>
+      <c r="I4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="n">
+      <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="n"/>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="B5" s="25" t="n"/>
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>memberId为负数</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>getFinanceLogList</t>
         </is>
       </c>
-      <c r="E5" s="7" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>/financelog/getFinanceLogList</t>
         </is>
       </c>
-      <c r="G5" s="6" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>{"memberId":-1001}</t>
         </is>
       </c>
-      <c r="H5" s="6" t="inlineStr">
+      <c r="H5" s="5" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"50105", "data":None, "msg":"用户 id 必须大于 0"}</t>
         </is>
       </c>
-      <c r="I5" s="8" t="n"/>
+      <c r="I5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="n">
+      <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="35" t="n"/>
-      <c r="C6" s="7" t="inlineStr">
+      <c r="B6" s="26" t="n"/>
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>memberId不存在（未注册）</t>
         </is>
       </c>
-      <c r="D6" s="7" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>getFinanceLogList</t>
         </is>
       </c>
-      <c r="E6" s="7" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F6" s="7" t="inlineStr">
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>/financelog/getFinanceLogList</t>
         </is>
       </c>
-      <c r="G6" s="6" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>{"memberId":0001}</t>
         </is>
       </c>
-      <c r="H6" s="6" t="inlineStr">
+      <c r="H6" s="5" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"50106", "data":None, "msg":"不存在该用户"}</t>
         </is>
       </c>
-      <c r="I6" s="8" t="n"/>
+      <c r="I6" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2045,478 +2037,479 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G15" activeCellId="1" sqref="G5 G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="17.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="19" width="8.88671875"/>
-    <col customWidth="1" max="2" min="2" style="19" width="11.88671875"/>
-    <col customWidth="1" max="3" min="3" style="19" width="31.6640625"/>
-    <col customWidth="1" max="4" min="4" style="19" width="12"/>
-    <col customWidth="1" max="5" min="5" style="19" width="10.21875"/>
-    <col customWidth="1" max="6" min="6" style="19" width="24.6640625"/>
-    <col customWidth="1" max="7" min="7" style="19" width="73.6640625"/>
-    <col customWidth="1" max="8" min="8" style="19" width="96.5546875"/>
-    <col customWidth="1" max="16384" min="9" style="19" width="8.88671875"/>
+    <col customWidth="1" max="1" min="1" style="14" width="8.88671875"/>
+    <col customWidth="1" max="2" min="2" style="14" width="11.88671875"/>
+    <col customWidth="1" max="3" min="3" style="14" width="31.6640625"/>
+    <col customWidth="1" max="4" min="4" style="14" width="12"/>
+    <col customWidth="1" max="5" min="5" style="14" width="10.21875"/>
+    <col customWidth="1" max="6" min="6" style="14" width="24.6640625"/>
+    <col customWidth="1" max="7" min="7" style="14" width="73.6640625"/>
+    <col customWidth="1" max="8" min="8" style="14" width="96.5546875"/>
+    <col customWidth="1" max="14" min="9" style="14" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="15" style="14" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>api_name</t>
         </is>
       </c>
-      <c r="E1" s="12" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>request_data</t>
         </is>
       </c>
-      <c r="H1" s="11" t="inlineStr">
+      <c r="H1" s="10" t="inlineStr">
         <is>
           <t>expected_data</t>
         </is>
       </c>
-      <c r="I1" s="11" t="inlineStr">
+      <c r="I1" s="10" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="n">
+      <c r="A2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="inlineStr">
+      <c r="B2" s="24" t="inlineStr">
         <is>
           <t>登录</t>
         </is>
       </c>
-      <c r="C2" s="31" t="inlineStr">
+      <c r="C2" s="24" t="inlineStr">
         <is>
           <t>正常登录</t>
         </is>
       </c>
-      <c r="D2" s="31" t="inlineStr">
+      <c r="D2" s="24" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="E2" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F2" s="31" t="inlineStr">
+      <c r="E2" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="24" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="G2" s="18" t="inlineStr">
+      <c r="G2" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"#login_phone#", "pwd":"#pwd#"}</t>
         </is>
       </c>
-      <c r="H2" s="18" t="inlineStr">
+      <c r="H2" s="13" t="inlineStr">
         <is>
           <t>{"status":1,  "code":"10001", "data":None, "msg":"登录成功"}</t>
         </is>
       </c>
-      <c r="I2" s="18" t="inlineStr">
+      <c r="I2" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="n">
+      <c r="A3" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="n"/>
-      <c r="C3" s="31" t="inlineStr">
+      <c r="B3" s="25" t="n"/>
+      <c r="C3" s="24" t="inlineStr">
         <is>
           <t>手机号中包含空格</t>
         </is>
       </c>
-      <c r="D3" s="31" t="inlineStr">
+      <c r="D3" s="24" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="E3" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F3" s="31" t="inlineStr">
+      <c r="E3" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F3" s="24" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="G3" s="18" t="inlineStr">
+      <c r="G3" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"150 71369970", "pwd":"123456"}</t>
         </is>
       </c>
-      <c r="H3" s="18" t="inlineStr">
+      <c r="H3" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20111", "data":None, "msg":"用户名或密码错误"}</t>
         </is>
       </c>
-      <c r="I3" s="18" t="inlineStr">
+      <c r="I3" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="18" t="n">
+      <c r="A4" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="n"/>
-      <c r="C4" s="31" t="inlineStr">
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="24" t="inlineStr">
         <is>
           <t>手机号为空</t>
         </is>
       </c>
-      <c r="D4" s="31" t="inlineStr">
+      <c r="D4" s="24" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="E4" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F4" s="31" t="inlineStr">
+      <c r="E4" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F4" s="24" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="G4" s="18" t="inlineStr">
+      <c r="G4" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":" ", "pwd":"abc123"}</t>
         </is>
       </c>
-      <c r="H4" s="18" t="inlineStr">
+      <c r="H4" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20103", "data":None, "msg":"手机号不能为空"}</t>
         </is>
       </c>
-      <c r="I4" s="18" t="inlineStr">
+      <c r="I4" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="18" t="n">
+      <c r="A5" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="n"/>
-      <c r="C5" s="31" t="inlineStr">
+      <c r="B5" s="25" t="n"/>
+      <c r="C5" s="24" t="inlineStr">
         <is>
           <t>手机号未注册</t>
         </is>
       </c>
-      <c r="D5" s="31" t="inlineStr">
+      <c r="D5" s="24" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="E5" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F5" s="31" t="inlineStr">
+      <c r="E5" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F5" s="24" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="G5" s="18" t="inlineStr">
+      <c r="G5" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"#register_phone#", "pwd":"abc123"}</t>
         </is>
       </c>
-      <c r="H5" s="18" t="inlineStr">
+      <c r="H5" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20111", "data":None, "msg":"用户名或密码错误"}</t>
         </is>
       </c>
-      <c r="I5" s="18" t="inlineStr">
+      <c r="I5" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="18" t="n">
+      <c r="A6" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="n"/>
-      <c r="C6" s="31" t="inlineStr">
+      <c r="B6" s="25" t="n"/>
+      <c r="C6" s="24" t="inlineStr">
         <is>
           <t>手机号中有非数字</t>
         </is>
       </c>
-      <c r="D6" s="31" t="inlineStr">
+      <c r="D6" s="24" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="E6" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F6" s="31" t="inlineStr">
+      <c r="E6" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F6" s="24" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="G6" s="18" t="inlineStr">
+      <c r="G6" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"a1507133990", "pwd":"abc123"}</t>
         </is>
       </c>
-      <c r="H6" s="18" t="inlineStr">
+      <c r="H6" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20111", "data":None, "msg":"用户名或密码错误"}</t>
         </is>
       </c>
-      <c r="I6" s="18" t="inlineStr">
+      <c r="I6" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="18" t="n">
+      <c r="A7" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="34" t="n"/>
-      <c r="C7" s="31" t="inlineStr">
+      <c r="B7" s="25" t="n"/>
+      <c r="C7" s="24" t="inlineStr">
         <is>
           <t>密码为空</t>
         </is>
       </c>
-      <c r="D7" s="31" t="inlineStr">
+      <c r="D7" s="24" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="E7" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F7" s="31" t="inlineStr">
+      <c r="E7" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F7" s="24" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="G7" s="18" t="inlineStr">
+      <c r="G7" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"#exists_phone#", "pwd":" "}</t>
         </is>
       </c>
-      <c r="H7" s="18" t="inlineStr">
+      <c r="H7" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20103", "data":None, "msg":"密码不能为空"}</t>
         </is>
       </c>
-      <c r="I7" s="18" t="inlineStr">
+      <c r="I7" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="18" t="n">
+      <c r="A8" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="n"/>
-      <c r="C8" s="31" t="inlineStr">
+      <c r="B8" s="25" t="n"/>
+      <c r="C8" s="24" t="inlineStr">
         <is>
           <t>5位密码</t>
         </is>
       </c>
-      <c r="D8" s="31" t="inlineStr">
+      <c r="D8" s="24" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="E8" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F8" s="31" t="inlineStr">
+      <c r="E8" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F8" s="24" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="G8" s="18" t="inlineStr">
+      <c r="G8" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"#exists_phone#", "pwd":"12345"}</t>
         </is>
       </c>
-      <c r="H8" s="18" t="inlineStr">
+      <c r="H8" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20111", "data":None, "msg":"用户名或密码错误"}</t>
         </is>
       </c>
-      <c r="I8" s="18" t="inlineStr">
+      <c r="I8" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="18" t="n">
+      <c r="A9" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="n"/>
-      <c r="C9" s="31" t="inlineStr">
+      <c r="B9" s="25" t="n"/>
+      <c r="C9" s="24" t="inlineStr">
         <is>
           <t>19位密码</t>
         </is>
       </c>
-      <c r="D9" s="31" t="inlineStr">
+      <c r="D9" s="24" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="E9" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F9" s="31" t="inlineStr">
+      <c r="E9" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F9" s="24" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="G9" s="18" t="inlineStr">
+      <c r="G9" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"#exists_phone#", "pwd":"1234567890123456789"}</t>
         </is>
       </c>
-      <c r="H9" s="18" t="inlineStr">
+      <c r="H9" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20111", "data":None, "msg":"用户名或密码错误"}</t>
         </is>
       </c>
-      <c r="I9" s="18" t="inlineStr">
+      <c r="I9" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="18" t="n">
+      <c r="A10" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="n"/>
-      <c r="C10" s="31" t="inlineStr">
+      <c r="B10" s="25" t="n"/>
+      <c r="C10" s="24" t="inlineStr">
         <is>
           <t>密码不区分大小写</t>
         </is>
       </c>
-      <c r="D10" s="31" t="inlineStr">
+      <c r="D10" s="24" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="E10" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F10" s="31" t="inlineStr">
+      <c r="E10" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F10" s="24" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="G10" s="18" t="inlineStr">
+      <c r="G10" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"#login_phone#", "pwd":"ABC123456"}</t>
         </is>
       </c>
-      <c r="H10" s="18" t="inlineStr">
+      <c r="H10" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20111", "data":None, "msg":"用户名或密码错误"}</t>
         </is>
       </c>
-      <c r="I10" s="18" t="inlineStr">
+      <c r="I10" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="18" t="n">
+      <c r="A11" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="35" t="n"/>
-      <c r="C11" s="31" t="inlineStr">
+      <c r="B11" s="26" t="n"/>
+      <c r="C11" s="24" t="inlineStr">
         <is>
           <t>密码错误（与账号不匹配）</t>
         </is>
       </c>
-      <c r="D11" s="31" t="inlineStr">
+      <c r="D11" s="24" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="E11" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F11" s="31" t="inlineStr">
+      <c r="E11" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F11" s="24" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="G11" s="18" t="inlineStr">
+      <c r="G11" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"#login_phone#", "pwd":"ac1234567"}</t>
         </is>
       </c>
-      <c r="H11" s="18" t="inlineStr">
+      <c r="H11" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20111", "data":None, "msg":"用户名或密码错误"}</t>
         </is>
       </c>
-      <c r="I11" s="18" t="inlineStr">
+      <c r="I11" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -2539,764 +2532,765 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="17.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="19" width="9.77734375"/>
-    <col customWidth="1" max="2" min="2" style="19" width="11.33203125"/>
-    <col customWidth="1" max="3" min="3" style="16" width="22.21875"/>
-    <col customWidth="1" max="4" min="4" style="16" width="14"/>
-    <col customWidth="1" max="5" min="5" style="16" width="10"/>
-    <col customWidth="1" max="6" min="6" style="16" width="23"/>
-    <col customWidth="1" max="7" min="7" style="19" width="63.6640625"/>
-    <col customWidth="1" max="8" min="8" style="19" width="44.44140625"/>
-    <col customWidth="1" max="9" min="9" style="19" width="82.44140625"/>
-    <col customWidth="1" max="10" min="10" style="19" width="10.33203125"/>
-    <col customWidth="1" max="16384" min="11" style="19" width="8.88671875"/>
+    <col customWidth="1" max="1" min="1" style="14" width="9.77734375"/>
+    <col customWidth="1" max="2" min="2" style="14" width="11.33203125"/>
+    <col customWidth="1" max="3" min="3" style="12" width="22.21875"/>
+    <col customWidth="1" max="4" min="4" style="12" width="14"/>
+    <col customWidth="1" max="5" min="5" style="12" width="10"/>
+    <col customWidth="1" max="6" min="6" style="12" width="23"/>
+    <col customWidth="1" max="7" min="7" style="14" width="63.6640625"/>
+    <col customWidth="1" max="8" min="8" style="14" width="44.44140625"/>
+    <col customWidth="1" max="9" min="9" style="14" width="82.44140625"/>
+    <col customWidth="1" max="10" min="10" style="14" width="10.33203125"/>
+    <col customWidth="1" max="16" min="11" style="14" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="17" style="14" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>api_name</t>
         </is>
       </c>
-      <c r="E1" s="12" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="12" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>request_data</t>
         </is>
       </c>
-      <c r="H1" s="11" t="inlineStr">
+      <c r="H1" s="10" t="inlineStr">
         <is>
           <t>check_mysql</t>
         </is>
       </c>
-      <c r="I1" s="11" t="inlineStr">
+      <c r="I1" s="10" t="inlineStr">
         <is>
           <t>expected_data</t>
         </is>
       </c>
-      <c r="J1" s="11" t="inlineStr">
+      <c r="J1" s="10" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
-    <row customFormat="1" r="2" s="19">
-      <c r="A2" s="18" t="n">
+    <row r="2">
+      <c r="A2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="inlineStr">
+      <c r="B2" s="13" t="inlineStr">
         <is>
           <t>登录</t>
         </is>
       </c>
-      <c r="C2" s="31" t="inlineStr">
+      <c r="C2" s="24" t="inlineStr">
         <is>
           <t>正常登录</t>
         </is>
       </c>
-      <c r="D2" s="31" t="inlineStr">
+      <c r="D2" s="24" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="E2" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F2" s="31" t="inlineStr">
+      <c r="E2" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="24" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="G2" s="18" t="inlineStr">
+      <c r="G2" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"#login_phone#", "pwd":"#pwd#"}</t>
         </is>
       </c>
-      <c r="H2" s="18" t="n"/>
-      <c r="I2" s="18" t="inlineStr">
+      <c r="H2" s="13" t="n"/>
+      <c r="I2" s="13" t="inlineStr">
         <is>
           <t>{"status":1,  "code":"10001", "msg":"登录成功"}</t>
         </is>
       </c>
-      <c r="J2" s="18" t="inlineStr">
+      <c r="J2" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="n">
+      <c r="A3" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="31" t="inlineStr">
+      <c r="B3" s="24" t="inlineStr">
         <is>
           <t>充值</t>
         </is>
       </c>
-      <c r="C3" s="31" t="inlineStr">
+      <c r="C3" s="24" t="inlineStr">
         <is>
           <t>正常充值50万</t>
         </is>
       </c>
-      <c r="D3" s="31" t="inlineStr">
+      <c r="D3" s="24" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="E3" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F3" s="31" t="inlineStr">
+      <c r="E3" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F3" s="24" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="G3" s="18" t="inlineStr">
+      <c r="G3" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"#login_phone#", "amount":500000}</t>
         </is>
       </c>
-      <c r="H3" s="18" t="inlineStr">
+      <c r="H3" s="13" t="inlineStr">
         <is>
           <t>SELECT LeaveAmount FROM member WHERE MobilePhone=${login_phone}</t>
         </is>
       </c>
-      <c r="I3" s="18" t="inlineStr">
+      <c r="I3" s="13" t="inlineStr">
         <is>
           <t>{"status":1,  "code":"10001", "msg":"充值成功"}</t>
         </is>
       </c>
-      <c r="J3" s="18" t="inlineStr">
+      <c r="J3" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="18" t="n">
+      <c r="A4" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="n"/>
-      <c r="C4" s="31" t="inlineStr">
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="24" t="inlineStr">
         <is>
           <t>正常充值200000.5</t>
         </is>
       </c>
-      <c r="D4" s="31" t="inlineStr">
+      <c r="D4" s="24" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="E4" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F4" s="18" t="inlineStr">
+      <c r="E4" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F4" s="13" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="G4" s="18" t="inlineStr">
+      <c r="G4" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"#login_phone#", "amount":200000.5}</t>
         </is>
       </c>
-      <c r="H4" s="18" t="inlineStr">
+      <c r="H4" s="13" t="inlineStr">
         <is>
           <t>SELECT LeaveAmount FROM member WHERE MobilePhone=${login_phone}</t>
         </is>
       </c>
-      <c r="I4" s="18" t="inlineStr">
+      <c r="I4" s="13" t="inlineStr">
         <is>
           <t>{"status":1,  "code":"10001", "msg":"充值成功"}</t>
         </is>
       </c>
-      <c r="J4" s="18" t="inlineStr">
+      <c r="J4" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="18" t="n">
+      <c r="A5" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="n"/>
-      <c r="C5" s="31" t="inlineStr">
+      <c r="B5" s="25" t="n"/>
+      <c r="C5" s="24" t="inlineStr">
         <is>
           <t>正常充值0.01</t>
         </is>
       </c>
-      <c r="D5" s="31" t="inlineStr">
+      <c r="D5" s="24" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="E5" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F5" s="18" t="inlineStr">
+      <c r="E5" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F5" s="13" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="G5" s="18" t="inlineStr">
+      <c r="G5" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"#login_phone#", "amount":0.01}</t>
         </is>
       </c>
-      <c r="H5" s="18" t="inlineStr">
+      <c r="H5" s="13" t="inlineStr">
         <is>
           <t>SELECT LeaveAmount FROM member WHERE MobilePhone=${login_phone}</t>
         </is>
       </c>
-      <c r="I5" s="18" t="inlineStr">
+      <c r="I5" s="13" t="inlineStr">
         <is>
           <t>{"status":1,  "code":"10001", "msg":"充值成功"}</t>
         </is>
       </c>
-      <c r="J5" s="18" t="inlineStr">
+      <c r="J5" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="18" t="n">
+      <c r="A6" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="n"/>
-      <c r="C6" s="31" t="inlineStr">
+      <c r="B6" s="25" t="n"/>
+      <c r="C6" s="24" t="inlineStr">
         <is>
           <t>手机号为空</t>
         </is>
       </c>
-      <c r="D6" s="31" t="inlineStr">
+      <c r="D6" s="24" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="E6" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F6" s="18" t="inlineStr">
+      <c r="E6" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F6" s="13" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="G6" s="18" t="inlineStr">
+      <c r="G6" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"", "amount":100.99}</t>
         </is>
       </c>
-      <c r="H6" s="18" t="n"/>
-      <c r="I6" s="18" t="inlineStr">
+      <c r="H6" s="13" t="n"/>
+      <c r="I6" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20103", "msg":"手机号不能为空"}</t>
         </is>
       </c>
-      <c r="J6" s="18" t="inlineStr">
+      <c r="J6" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="18" t="n">
+      <c r="A7" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="34" t="n"/>
-      <c r="C7" s="31" t="inlineStr">
+      <c r="B7" s="25" t="n"/>
+      <c r="C7" s="24" t="inlineStr">
         <is>
           <t>充值金额为空</t>
         </is>
       </c>
-      <c r="D7" s="31" t="inlineStr">
+      <c r="D7" s="24" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="E7" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F7" s="18" t="inlineStr">
+      <c r="E7" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F7" s="13" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="G7" s="18" t="inlineStr">
+      <c r="G7" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"#login_phone#", "amount":None}</t>
         </is>
       </c>
-      <c r="H7" s="18" t="n"/>
-      <c r="I7" s="18" t="inlineStr">
+      <c r="H7" s="13" t="n"/>
+      <c r="I7" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20115", "msg":"请输入金额"}</t>
         </is>
       </c>
-      <c r="J7" s="18" t="inlineStr">
+      <c r="J7" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="18" t="n">
+      <c r="A8" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="n"/>
-      <c r="C8" s="31" t="inlineStr">
+      <c r="B8" s="25" t="n"/>
+      <c r="C8" s="24" t="inlineStr">
         <is>
           <t>手机号未注册</t>
         </is>
       </c>
-      <c r="D8" s="31" t="inlineStr">
+      <c r="D8" s="24" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="E8" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F8" s="31" t="inlineStr">
+      <c r="E8" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F8" s="24" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="G8" s="18" t="inlineStr">
-        <is>
-          <t>{"mobilephone":"15071360000", "amount":1000}</t>
-        </is>
-      </c>
-      <c r="H8" s="18" t="n"/>
-      <c r="I8" s="18" t="inlineStr">
+      <c r="G8" s="13" t="inlineStr">
+        <is>
+          <t>{"mobilephone":"#register_phone#", "amount":1000}</t>
+        </is>
+      </c>
+      <c r="H8" s="13" t="n"/>
+      <c r="I8" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20104", "msg":"此手机号对应的会员不存在"}</t>
         </is>
       </c>
-      <c r="J8" s="18" t="inlineStr">
+      <c r="J8" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="18" t="n">
+      <c r="A9" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="n"/>
-      <c r="C9" s="31" t="inlineStr">
+      <c r="B9" s="25" t="n"/>
+      <c r="C9" s="24" t="inlineStr">
         <is>
           <t>手机号有非数字</t>
         </is>
       </c>
-      <c r="D9" s="31" t="inlineStr">
+      <c r="D9" s="24" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="E9" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F9" s="18" t="inlineStr">
+      <c r="E9" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F9" s="13" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="G9" s="18" t="inlineStr">
+      <c r="G9" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"a5071369971", "amount":5000}</t>
         </is>
       </c>
-      <c r="H9" s="18" t="n"/>
-      <c r="I9" s="18" t="inlineStr">
+      <c r="H9" s="13" t="n"/>
+      <c r="I9" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20109", "msg":"手机号码格式不正确"}</t>
         </is>
       </c>
-      <c r="J9" s="18" t="inlineStr">
+      <c r="J9" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="18" t="n">
+      <c r="A10" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="n"/>
-      <c r="C10" s="31" t="inlineStr">
+      <c r="B10" s="25" t="n"/>
+      <c r="C10" s="24" t="inlineStr">
         <is>
           <t>手机号段非法</t>
         </is>
       </c>
-      <c r="D10" s="31" t="inlineStr">
+      <c r="D10" s="24" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="E10" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F10" s="18" t="inlineStr">
+      <c r="E10" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F10" s="13" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="G10" s="18" t="inlineStr">
+      <c r="G10" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"10071369971", "amount":5000}</t>
         </is>
       </c>
-      <c r="H10" s="18" t="n"/>
-      <c r="I10" s="18" t="inlineStr">
+      <c r="H10" s="13" t="n"/>
+      <c r="I10" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20109", "msg":"手机号码格式不正确"}</t>
         </is>
       </c>
-      <c r="J10" s="18" t="inlineStr">
+      <c r="J10" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="18" t="n">
+      <c r="A11" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="34" t="n"/>
-      <c r="C11" s="31" t="inlineStr">
+      <c r="B11" s="25" t="n"/>
+      <c r="C11" s="24" t="inlineStr">
         <is>
           <t>10位手机号</t>
         </is>
       </c>
-      <c r="D11" s="31" t="inlineStr">
+      <c r="D11" s="24" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="E11" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F11" s="18" t="inlineStr">
+      <c r="E11" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F11" s="13" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="G11" s="18" t="inlineStr">
+      <c r="G11" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"1507136997", "amount":5000}</t>
         </is>
       </c>
-      <c r="H11" s="18" t="n"/>
-      <c r="I11" s="18" t="inlineStr">
+      <c r="H11" s="13" t="n"/>
+      <c r="I11" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20109", "msg":"手机号码格式不正确"}</t>
         </is>
       </c>
-      <c r="J11" s="18" t="inlineStr">
+      <c r="J11" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="18" t="n">
+      <c r="A12" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="34" t="n"/>
-      <c r="C12" s="31" t="inlineStr">
+      <c r="B12" s="25" t="n"/>
+      <c r="C12" s="24" t="inlineStr">
         <is>
           <t>12位手机号</t>
         </is>
       </c>
-      <c r="D12" s="31" t="inlineStr">
+      <c r="D12" s="24" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="E12" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F12" s="18" t="inlineStr">
+      <c r="E12" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F12" s="13" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="G12" s="18" t="inlineStr">
+      <c r="G12" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"150713699711", "amount":5000}</t>
         </is>
       </c>
-      <c r="H12" s="18" t="n"/>
-      <c r="I12" s="18" t="inlineStr">
+      <c r="H12" s="13" t="n"/>
+      <c r="I12" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20109", "msg":"手机号码格式不正确"}</t>
         </is>
       </c>
-      <c r="J12" s="18" t="inlineStr">
+      <c r="J12" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="18" t="n">
+      <c r="A13" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="34" t="n"/>
-      <c r="C13" s="31" t="inlineStr">
+      <c r="B13" s="25" t="n"/>
+      <c r="C13" s="24" t="inlineStr">
         <is>
           <t>充值2000.999</t>
         </is>
       </c>
-      <c r="D13" s="31" t="inlineStr">
+      <c r="D13" s="24" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="E13" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F13" s="18" t="inlineStr">
+      <c r="E13" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F13" s="13" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="G13" s="18" t="inlineStr">
+      <c r="G13" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"#login_phone#", "amount":2000.999}</t>
         </is>
       </c>
-      <c r="H13" s="18" t="n"/>
-      <c r="I13" s="18" t="inlineStr">
+      <c r="H13" s="13" t="n"/>
+      <c r="I13" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20116", "msg":"输入金额的金额小数不能超过两位"}</t>
         </is>
       </c>
-      <c r="J13" s="18" t="inlineStr">
+      <c r="J13" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="18" t="n">
+      <c r="A14" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="34" t="n"/>
-      <c r="C14" s="31" t="inlineStr">
+      <c r="B14" s="25" t="n"/>
+      <c r="C14" s="24" t="inlineStr">
         <is>
           <t>充值0</t>
         </is>
       </c>
-      <c r="D14" s="31" t="inlineStr">
+      <c r="D14" s="24" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="E14" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F14" s="18" t="inlineStr">
+      <c r="E14" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F14" s="13" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="G14" s="18" t="inlineStr">
+      <c r="G14" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"#login_phone#", "amount":0}</t>
         </is>
       </c>
-      <c r="H14" s="18" t="n"/>
-      <c r="I14" s="18" t="inlineStr">
+      <c r="H14" s="13" t="n"/>
+      <c r="I14" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20117", "msg":"请输入范围在0到50万之间的正数金额"}</t>
         </is>
       </c>
-      <c r="J14" s="18" t="inlineStr">
+      <c r="J14" s="13" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="18" t="n">
+      <c r="A15" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="34" t="n"/>
-      <c r="C15" s="31" t="inlineStr">
+      <c r="B15" s="25" t="n"/>
+      <c r="C15" s="24" t="inlineStr">
         <is>
           <t>充值-1</t>
         </is>
       </c>
-      <c r="D15" s="31" t="inlineStr">
+      <c r="D15" s="24" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="E15" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F15" s="18" t="inlineStr">
+      <c r="E15" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F15" s="13" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="G15" s="18" t="inlineStr">
+      <c r="G15" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"#login_phone#", "amount":-1}</t>
         </is>
       </c>
-      <c r="H15" s="18" t="n"/>
-      <c r="I15" s="18" t="inlineStr">
+      <c r="H15" s="13" t="n"/>
+      <c r="I15" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20117", "msg":"请输入范围在0到50万之间的正数金额"}</t>
         </is>
       </c>
-      <c r="J15" s="18" t="inlineStr">
+      <c r="J15" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="18" t="n">
+      <c r="A16" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="34" t="n"/>
-      <c r="C16" s="31" t="inlineStr">
+      <c r="B16" s="25" t="n"/>
+      <c r="C16" s="24" t="inlineStr">
         <is>
           <t>充值500000.01</t>
         </is>
       </c>
-      <c r="D16" s="31" t="inlineStr">
+      <c r="D16" s="24" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="E16" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F16" s="18" t="inlineStr">
+      <c r="E16" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F16" s="13" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="G16" s="18" t="inlineStr">
+      <c r="G16" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"#login_phone#", "amount":500000.01}</t>
         </is>
       </c>
-      <c r="H16" s="18" t="n"/>
-      <c r="I16" s="18" t="inlineStr">
+      <c r="H16" s="13" t="n"/>
+      <c r="I16" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20117", "msg":"请输入范围在0到50万之间的正数金额"}</t>
         </is>
       </c>
-      <c r="J16" s="18" t="inlineStr">
+      <c r="J16" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="18" t="n">
+      <c r="A17" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="35" t="n"/>
-      <c r="C17" s="31" t="inlineStr">
+      <c r="B17" s="26" t="n"/>
+      <c r="C17" s="24" t="inlineStr">
         <is>
           <t>充值a1000</t>
         </is>
       </c>
-      <c r="D17" s="31" t="inlineStr">
+      <c r="D17" s="24" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="E17" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F17" s="18" t="inlineStr">
+      <c r="E17" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F17" s="13" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="G17" s="18" t="inlineStr">
+      <c r="G17" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"#login_phone#", "amount":500000.01}</t>
         </is>
       </c>
-      <c r="H17" s="18" t="n"/>
-      <c r="I17" s="18" t="inlineStr">
+      <c r="H17" s="13" t="n"/>
+      <c r="I17" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20117", "msg":"请输入范围在0到50万之间的正数金额"}</t>
         </is>
       </c>
-      <c r="J17" s="18" t="inlineStr">
+      <c r="J17" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -3319,842 +3313,843 @@
   </sheetPr>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="C8" pane="bottomLeft" sqref="A8:XFD8"/>
+      <selection activeCell="G28" pane="bottomLeft" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="17.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="19" width="9.21875"/>
-    <col customWidth="1" max="2" min="2" style="19" width="11.33203125"/>
-    <col customWidth="1" max="3" min="3" style="16" width="28.88671875"/>
-    <col customWidth="1" max="4" min="4" style="16" width="12.77734375"/>
-    <col customWidth="1" max="5" min="5" style="16" width="9.6640625"/>
-    <col customWidth="1" max="6" min="6" style="16" width="24.21875"/>
-    <col customWidth="1" max="7" min="7" style="19" width="65.21875"/>
-    <col customWidth="1" max="8" min="8" style="19" width="28.33203125"/>
-    <col customWidth="1" max="9" min="9" style="19" width="83.5546875"/>
-    <col customWidth="1" max="10" min="10" style="19" width="10.33203125"/>
-    <col customWidth="1" max="11" min="11" style="21" width="29.44140625"/>
-    <col customWidth="1" max="16384" min="12" style="19" width="8.88671875"/>
+    <col customWidth="1" max="1" min="1" style="14" width="9.21875"/>
+    <col customWidth="1" max="2" min="2" style="14" width="11.33203125"/>
+    <col customWidth="1" max="3" min="3" style="12" width="28.88671875"/>
+    <col customWidth="1" max="4" min="4" style="12" width="12.77734375"/>
+    <col customWidth="1" max="5" min="5" style="12" width="9.6640625"/>
+    <col customWidth="1" max="6" min="6" style="12" width="24.21875"/>
+    <col customWidth="1" max="7" min="7" style="14" width="65.21875"/>
+    <col customWidth="1" max="8" min="8" style="14" width="28.33203125"/>
+    <col customWidth="1" max="9" min="9" style="14" width="83.5546875"/>
+    <col customWidth="1" max="10" min="10" style="14" width="10.33203125"/>
+    <col customWidth="1" max="11" min="11" style="16" width="29.44140625"/>
+    <col customWidth="1" max="17" min="12" style="14" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="18" style="14" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>api_name</t>
         </is>
       </c>
-      <c r="E1" s="12" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="12" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>request_data</t>
         </is>
       </c>
-      <c r="H1" s="11" t="inlineStr">
+      <c r="H1" s="10" t="inlineStr">
         <is>
           <t>check_mysql</t>
         </is>
       </c>
-      <c r="I1" s="11" t="inlineStr">
+      <c r="I1" s="10" t="inlineStr">
         <is>
           <t>expected_data</t>
         </is>
       </c>
-      <c r="J1" s="11" t="inlineStr">
+      <c r="J1" s="10" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="K1" s="18" t="inlineStr">
+      <c r="K1" s="13" t="inlineStr">
         <is>
           <t>note</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="n">
+      <c r="A2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="inlineStr">
+      <c r="B2" s="13" t="inlineStr">
         <is>
           <t>登录</t>
         </is>
       </c>
-      <c r="C2" s="31" t="inlineStr">
+      <c r="C2" s="24" t="inlineStr">
         <is>
           <t>正常登录</t>
         </is>
       </c>
-      <c r="D2" s="31" t="inlineStr">
+      <c r="D2" s="24" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="E2" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F2" s="31" t="inlineStr">
+      <c r="E2" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="24" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="G2" s="18" t="inlineStr">
+      <c r="G2" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"#login_phone#", "pwd":"#pwd#"}</t>
         </is>
       </c>
-      <c r="H2" s="18" t="n"/>
-      <c r="I2" s="18" t="inlineStr">
+      <c r="H2" s="13" t="n"/>
+      <c r="I2" s="13" t="inlineStr">
         <is>
           <t>{"status":1,  "code":"10001", "msg":"登录成功"}</t>
         </is>
       </c>
-      <c r="J2" s="18" t="inlineStr">
+      <c r="J2" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="K2" s="18" t="n"/>
+      <c r="K2" s="13" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="n">
+      <c r="A3" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="31" t="inlineStr">
+      <c r="B3" s="24" t="inlineStr">
         <is>
           <t>取现</t>
         </is>
       </c>
-      <c r="C3" s="31" t="inlineStr">
+      <c r="C3" s="24" t="inlineStr">
         <is>
           <t>正常取现50万</t>
         </is>
       </c>
-      <c r="D3" s="31" t="inlineStr">
+      <c r="D3" s="24" t="inlineStr">
         <is>
           <t>withdraw</t>
         </is>
       </c>
-      <c r="E3" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F3" s="31" t="inlineStr">
+      <c r="E3" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F3" s="24" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="G3" s="18" t="inlineStr">
+      <c r="G3" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"#login_phone#", "amount":500000}</t>
         </is>
       </c>
-      <c r="H3" s="18" t="inlineStr">
+      <c r="H3" s="13" t="inlineStr">
         <is>
           <t>SELECT LeaveAmount FROM member WHERE MobilePhone=${login_phone}</t>
         </is>
       </c>
-      <c r="I3" s="18" t="inlineStr">
+      <c r="I3" s="13" t="inlineStr">
         <is>
           <t>{"status":1,  "code":"10001", "msg":"取现成功"}</t>
         </is>
       </c>
-      <c r="J3" s="18" t="inlineStr">
+      <c r="J3" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="K3" s="18" t="n"/>
+      <c r="K3" s="13" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="18" t="n">
+      <c r="A4" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="n"/>
-      <c r="C4" s="31" t="inlineStr">
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="24" t="inlineStr">
         <is>
           <t>正常取现200000.3</t>
         </is>
       </c>
-      <c r="D4" s="31" t="inlineStr">
+      <c r="D4" s="24" t="inlineStr">
         <is>
           <t>withdraw</t>
         </is>
       </c>
-      <c r="E4" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F4" s="31" t="inlineStr">
+      <c r="E4" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F4" s="24" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="G4" s="18" t="inlineStr">
+      <c r="G4" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"#login_phone#", "amount":20000.8}</t>
         </is>
       </c>
-      <c r="H4" s="18" t="inlineStr">
+      <c r="H4" s="13" t="inlineStr">
         <is>
           <t>SELECT LeaveAmount FROM member WHERE MobilePhone=${login_phone}</t>
         </is>
       </c>
-      <c r="I4" s="18" t="inlineStr">
+      <c r="I4" s="13" t="inlineStr">
         <is>
           <t>{"status":1,  "code":"10001", "msg":"取现成功"}</t>
         </is>
       </c>
-      <c r="J4" s="18" t="inlineStr">
+      <c r="J4" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="K4" s="18" t="n"/>
+      <c r="K4" s="13" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="18" t="n">
+      <c r="A5" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="n"/>
-      <c r="C5" s="31" t="inlineStr">
+      <c r="B5" s="25" t="n"/>
+      <c r="C5" s="24" t="inlineStr">
         <is>
           <t>正常取现0.01</t>
         </is>
       </c>
-      <c r="D5" s="31" t="inlineStr">
+      <c r="D5" s="24" t="inlineStr">
         <is>
           <t>withdraw</t>
         </is>
       </c>
-      <c r="E5" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F5" s="18" t="inlineStr">
+      <c r="E5" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F5" s="13" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="G5" s="18" t="inlineStr">
+      <c r="G5" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"#login_phone#", "amount":0.01}</t>
         </is>
       </c>
-      <c r="H5" s="18" t="inlineStr">
+      <c r="H5" s="13" t="inlineStr">
         <is>
           <t>SELECT LeaveAmount FROM member WHERE MobilePhone=${login_phone}</t>
         </is>
       </c>
-      <c r="I5" s="18" t="inlineStr">
+      <c r="I5" s="13" t="inlineStr">
         <is>
           <t>{"status":1,  "code":"10001", "msg":"取现成功"}</t>
         </is>
       </c>
-      <c r="J5" s="18" t="inlineStr">
+      <c r="J5" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="K5" s="18" t="n"/>
+      <c r="K5" s="13" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="18" t="n">
+      <c r="A6" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="n"/>
-      <c r="C6" s="31" t="inlineStr">
+      <c r="B6" s="25" t="n"/>
+      <c r="C6" s="24" t="inlineStr">
         <is>
           <t>手机号为空</t>
         </is>
       </c>
-      <c r="D6" s="31" t="inlineStr">
+      <c r="D6" s="24" t="inlineStr">
         <is>
           <t>withdraw</t>
         </is>
       </c>
-      <c r="E6" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F6" s="18" t="inlineStr">
+      <c r="E6" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F6" s="13" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="G6" s="18" t="inlineStr">
+      <c r="G6" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"", "amount":100.99}</t>
         </is>
       </c>
-      <c r="H6" s="18" t="n"/>
-      <c r="I6" s="18" t="inlineStr">
+      <c r="H6" s="13" t="n"/>
+      <c r="I6" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20103", "msg":"手机号不能为空"}</t>
         </is>
       </c>
-      <c r="J6" s="18" t="inlineStr">
+      <c r="J6" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="K6" s="18" t="n"/>
+      <c r="K6" s="13" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="18" t="n">
+      <c r="A7" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="34" t="n"/>
-      <c r="C7" s="31" t="inlineStr">
+      <c r="B7" s="25" t="n"/>
+      <c r="C7" s="24" t="inlineStr">
         <is>
           <t>取现金额为空</t>
         </is>
       </c>
-      <c r="D7" s="31" t="inlineStr">
+      <c r="D7" s="24" t="inlineStr">
         <is>
           <t>withdraw</t>
         </is>
       </c>
-      <c r="E7" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F7" s="18" t="inlineStr">
+      <c r="E7" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F7" s="13" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="G7" s="18" t="inlineStr">
+      <c r="G7" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"#login_phone#", "amount":None}</t>
         </is>
       </c>
-      <c r="H7" s="18" t="n"/>
-      <c r="I7" s="18" t="inlineStr">
+      <c r="H7" s="13" t="n"/>
+      <c r="I7" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20115", "msg":"请输入金额"}</t>
         </is>
       </c>
-      <c r="J7" s="18" t="inlineStr">
+      <c r="J7" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="K7" s="18" t="n"/>
+      <c r="K7" s="13" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="18" t="n">
+      <c r="A8" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="n"/>
-      <c r="C8" s="31" t="inlineStr">
+      <c r="B8" s="25" t="n"/>
+      <c r="C8" s="24" t="inlineStr">
         <is>
           <t>手机号未注册</t>
         </is>
       </c>
-      <c r="D8" s="31" t="inlineStr">
+      <c r="D8" s="24" t="inlineStr">
         <is>
           <t>withdraw</t>
         </is>
       </c>
-      <c r="E8" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F8" s="18" t="inlineStr">
+      <c r="E8" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F8" s="13" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="G8" s="18" t="inlineStr">
+      <c r="G8" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"#register_phone#", "amount":1000}</t>
         </is>
       </c>
-      <c r="H8" s="18" t="n"/>
-      <c r="I8" s="18" t="inlineStr">
+      <c r="H8" s="13" t="n"/>
+      <c r="I8" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20104", "msg":"此手机号对应的会员不存在"}</t>
         </is>
       </c>
-      <c r="J8" s="18" t="inlineStr">
+      <c r="J8" s="13" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
-      <c r="K8" s="20" t="inlineStr">
+      <c r="K8" s="15" t="inlineStr">
         <is>
           <t>BUG,返回status:1</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="18" t="n">
+      <c r="A9" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="n"/>
-      <c r="C9" s="31" t="inlineStr">
+      <c r="B9" s="25" t="n"/>
+      <c r="C9" s="24" t="inlineStr">
         <is>
           <t>手机号有非数字</t>
         </is>
       </c>
-      <c r="D9" s="31" t="inlineStr">
+      <c r="D9" s="24" t="inlineStr">
         <is>
           <t>withdraw</t>
         </is>
       </c>
-      <c r="E9" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F9" s="18" t="inlineStr">
+      <c r="E9" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F9" s="13" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="G9" s="18" t="inlineStr">
+      <c r="G9" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"a5071369971", "amount":5000}</t>
         </is>
       </c>
-      <c r="H9" s="18" t="n"/>
-      <c r="I9" s="18" t="inlineStr">
+      <c r="H9" s="13" t="n"/>
+      <c r="I9" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20109", "msg":"手机号码格式不正确"}</t>
         </is>
       </c>
-      <c r="J9" s="18" t="inlineStr">
+      <c r="J9" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="K9" s="18" t="n"/>
+      <c r="K9" s="13" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="18" t="n">
+      <c r="A10" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="n"/>
-      <c r="C10" s="31" t="inlineStr">
+      <c r="B10" s="25" t="n"/>
+      <c r="C10" s="24" t="inlineStr">
         <is>
           <t>手机号段非法</t>
         </is>
       </c>
-      <c r="D10" s="31" t="inlineStr">
+      <c r="D10" s="24" t="inlineStr">
         <is>
           <t>withdraw</t>
         </is>
       </c>
-      <c r="E10" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F10" s="18" t="inlineStr">
+      <c r="E10" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F10" s="13" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="G10" s="18" t="inlineStr">
+      <c r="G10" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"10071369971", "amount":5000}</t>
         </is>
       </c>
-      <c r="H10" s="18" t="n"/>
-      <c r="I10" s="18" t="inlineStr">
+      <c r="H10" s="13" t="n"/>
+      <c r="I10" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20109", "msg":"手机号码格式不正确"}</t>
         </is>
       </c>
-      <c r="J10" s="18" t="inlineStr">
+      <c r="J10" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="K10" s="18" t="n"/>
+      <c r="K10" s="13" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="18" t="n">
+      <c r="A11" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="34" t="n"/>
-      <c r="C11" s="31" t="inlineStr">
+      <c r="B11" s="25" t="n"/>
+      <c r="C11" s="24" t="inlineStr">
         <is>
           <t>10位手机号</t>
         </is>
       </c>
-      <c r="D11" s="31" t="inlineStr">
+      <c r="D11" s="24" t="inlineStr">
         <is>
           <t>withdraw</t>
         </is>
       </c>
-      <c r="E11" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F11" s="18" t="inlineStr">
+      <c r="E11" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F11" s="13" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="G11" s="18" t="inlineStr">
+      <c r="G11" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"1507136997", "amount":5000}</t>
         </is>
       </c>
-      <c r="H11" s="18" t="n"/>
-      <c r="I11" s="18" t="inlineStr">
+      <c r="H11" s="13" t="n"/>
+      <c r="I11" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20109", "msg":"手机号码格式不正确"}</t>
         </is>
       </c>
-      <c r="J11" s="18" t="inlineStr">
+      <c r="J11" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="K11" s="18" t="n"/>
+      <c r="K11" s="13" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="18" t="n">
+      <c r="A12" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="34" t="n"/>
-      <c r="C12" s="31" t="inlineStr">
+      <c r="B12" s="25" t="n"/>
+      <c r="C12" s="24" t="inlineStr">
         <is>
           <t>12位手机号</t>
         </is>
       </c>
-      <c r="D12" s="31" t="inlineStr">
+      <c r="D12" s="24" t="inlineStr">
         <is>
           <t>withdraw</t>
         </is>
       </c>
-      <c r="E12" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F12" s="18" t="inlineStr">
+      <c r="E12" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F12" s="13" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="G12" s="18" t="inlineStr">
+      <c r="G12" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"150713699711", "amount":5000}</t>
         </is>
       </c>
-      <c r="H12" s="18" t="n"/>
-      <c r="I12" s="18" t="inlineStr">
+      <c r="H12" s="13" t="n"/>
+      <c r="I12" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20109", "msg":"手机号码格式不正确"}</t>
         </is>
       </c>
-      <c r="J12" s="18" t="inlineStr">
+      <c r="J12" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="K12" s="18" t="n"/>
+      <c r="K12" s="13" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="18" t="n">
+      <c r="A13" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="34" t="n"/>
-      <c r="C13" s="31" t="inlineStr">
+      <c r="B13" s="25" t="n"/>
+      <c r="C13" s="24" t="inlineStr">
         <is>
           <t>取现2000.999</t>
         </is>
       </c>
-      <c r="D13" s="31" t="inlineStr">
+      <c r="D13" s="24" t="inlineStr">
         <is>
           <t>withdraw</t>
         </is>
       </c>
-      <c r="E13" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F13" s="18" t="inlineStr">
+      <c r="E13" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F13" s="13" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="G13" s="18" t="inlineStr">
+      <c r="G13" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"#login_phone#", "amount":2000.999}</t>
         </is>
       </c>
-      <c r="H13" s="18" t="n"/>
-      <c r="I13" s="18" t="inlineStr">
+      <c r="H13" s="13" t="n"/>
+      <c r="I13" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20116", "msg":"输入金额的金额小数不能超过两位"}</t>
         </is>
       </c>
-      <c r="J13" s="18" t="inlineStr">
+      <c r="J13" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="K13" s="18" t="n"/>
+      <c r="K13" s="13" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="18" t="n">
+      <c r="A14" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="34" t="n"/>
-      <c r="C14" s="31" t="inlineStr">
+      <c r="B14" s="25" t="n"/>
+      <c r="C14" s="24" t="inlineStr">
         <is>
           <t>取现0</t>
         </is>
       </c>
-      <c r="D14" s="31" t="inlineStr">
+      <c r="D14" s="24" t="inlineStr">
         <is>
           <t>withdraw</t>
         </is>
       </c>
-      <c r="E14" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F14" s="18" t="inlineStr">
+      <c r="E14" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F14" s="13" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="G14" s="18" t="inlineStr">
+      <c r="G14" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"#login_phone#", "amount":0}</t>
         </is>
       </c>
-      <c r="H14" s="18" t="n"/>
-      <c r="I14" s="18" t="inlineStr">
+      <c r="H14" s="13" t="n"/>
+      <c r="I14" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20117", "msg":"请输入范围在0到50万之间的正数金额"}</t>
         </is>
       </c>
-      <c r="J14" s="18" t="inlineStr">
+      <c r="J14" s="13" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
-      <c r="K14" s="18" t="n"/>
+      <c r="K14" s="13" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="18" t="n">
+      <c r="A15" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="34" t="n"/>
-      <c r="C15" s="31" t="inlineStr">
+      <c r="B15" s="25" t="n"/>
+      <c r="C15" s="24" t="inlineStr">
         <is>
           <t>取现-1</t>
         </is>
       </c>
-      <c r="D15" s="31" t="inlineStr">
+      <c r="D15" s="24" t="inlineStr">
         <is>
           <t>withdraw</t>
         </is>
       </c>
-      <c r="E15" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F15" s="18" t="inlineStr">
+      <c r="E15" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F15" s="13" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="G15" s="18" t="inlineStr">
+      <c r="G15" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"#login_phone#", "amount":-1}</t>
         </is>
       </c>
-      <c r="H15" s="18" t="n"/>
-      <c r="I15" s="18" t="inlineStr">
+      <c r="H15" s="13" t="n"/>
+      <c r="I15" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20117", "msg":"请输入范围在0到50万之间的正数金额"}</t>
         </is>
       </c>
-      <c r="J15" s="18" t="inlineStr">
+      <c r="J15" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="K15" s="18" t="n"/>
+      <c r="K15" s="13" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="18" t="n">
+      <c r="A16" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="34" t="n"/>
-      <c r="C16" s="31" t="inlineStr">
+      <c r="B16" s="25" t="n"/>
+      <c r="C16" s="24" t="inlineStr">
         <is>
           <t>取现500000.01</t>
         </is>
       </c>
-      <c r="D16" s="31" t="inlineStr">
+      <c r="D16" s="24" t="inlineStr">
         <is>
           <t>withdraw</t>
         </is>
       </c>
-      <c r="E16" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F16" s="18" t="inlineStr">
+      <c r="E16" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F16" s="13" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="G16" s="18" t="inlineStr">
+      <c r="G16" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"#login_phone#", "amount":500000.01}</t>
         </is>
       </c>
-      <c r="H16" s="18" t="n"/>
-      <c r="I16" s="18" t="inlineStr">
+      <c r="H16" s="13" t="n"/>
+      <c r="I16" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20117", "msg":"请输入范围在0到50万之间的正数金额"}</t>
         </is>
       </c>
-      <c r="J16" s="18" t="inlineStr">
+      <c r="J16" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="K16" s="18" t="n"/>
+      <c r="K16" s="13" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="18" t="n">
+      <c r="A17" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="34" t="n"/>
-      <c r="C17" s="31" t="inlineStr">
+      <c r="B17" s="25" t="n"/>
+      <c r="C17" s="24" t="inlineStr">
         <is>
           <t>取现a1000</t>
         </is>
       </c>
-      <c r="D17" s="31" t="inlineStr">
+      <c r="D17" s="24" t="inlineStr">
         <is>
           <t>withdraw</t>
         </is>
       </c>
-      <c r="E17" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F17" s="18" t="inlineStr">
+      <c r="E17" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F17" s="13" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="G17" s="18" t="inlineStr">
+      <c r="G17" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"#login_phone#", "amount":500000.01}</t>
         </is>
       </c>
-      <c r="H17" s="18" t="n"/>
-      <c r="I17" s="18" t="inlineStr">
+      <c r="H17" s="13" t="n"/>
+      <c r="I17" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20117", "msg":"请输入范围在0到50万之间的正数金额"}</t>
         </is>
       </c>
-      <c r="J17" s="18" t="inlineStr">
+      <c r="J17" s="13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="K17" s="20" t="inlineStr">
+      <c r="K17" s="15" t="inlineStr">
         <is>
           <t>BUG,返回status:1</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="18" t="n">
+      <c r="A18" s="13" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="35" t="n"/>
-      <c r="C18" s="31" t="inlineStr">
+      <c r="B18" s="26" t="n"/>
+      <c r="C18" s="24" t="inlineStr">
         <is>
           <t>取现金额超过余额（余额不足）</t>
         </is>
       </c>
-      <c r="D18" s="31" t="inlineStr">
+      <c r="D18" s="24" t="inlineStr">
         <is>
           <t>withdraw</t>
         </is>
       </c>
-      <c r="E18" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F18" s="18" t="inlineStr">
+      <c r="E18" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F18" s="13" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="G18" s="18" t="inlineStr">
+      <c r="G18" s="13" t="inlineStr">
         <is>
           <t>{"mobilephone":"#login_phone#", "amount":500000}</t>
         </is>
       </c>
-      <c r="H18" s="18" t="n"/>
-      <c r="I18" s="18" t="inlineStr">
+      <c r="H18" s="13" t="n"/>
+      <c r="I18" s="13" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20119", "msg":"余额不足, 请修改提现额度"}</t>
         </is>
       </c>
-      <c r="J18" s="18" t="inlineStr">
+      <c r="J18" s="13" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
-      <c r="K18" s="18" t="n"/>
+      <c r="K18" s="13" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4174,106 +4169,107 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="17.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="19" width="13.6640625"/>
-    <col customWidth="1" max="2" min="2" style="19" width="15.88671875"/>
-    <col customWidth="1" max="3" min="3" style="16" width="34.109375"/>
-    <col customWidth="1" max="4" min="4" style="16" width="16.88671875"/>
-    <col customWidth="1" max="5" min="5" style="16" width="13.44140625"/>
-    <col customWidth="1" max="6" min="6" style="19" width="41.44140625"/>
-    <col customWidth="1" max="7" min="7" style="19" width="31"/>
-    <col customWidth="1" max="8" min="8" style="19" width="72.6640625"/>
-    <col customWidth="1" max="9" min="9" style="19" width="10.33203125"/>
-    <col customWidth="1" max="16384" min="10" style="19" width="8.88671875"/>
+    <col customWidth="1" max="1" min="1" style="14" width="13.6640625"/>
+    <col customWidth="1" max="2" min="2" style="14" width="15.88671875"/>
+    <col customWidth="1" max="3" min="3" style="12" width="34.109375"/>
+    <col customWidth="1" max="4" min="4" style="12" width="16.88671875"/>
+    <col customWidth="1" max="5" min="5" style="12" width="13.44140625"/>
+    <col customWidth="1" max="6" min="6" style="14" width="41.44140625"/>
+    <col customWidth="1" max="7" min="7" style="14" width="31"/>
+    <col customWidth="1" max="8" min="8" style="14" width="72.6640625"/>
+    <col customWidth="1" max="9" min="9" style="14" width="10.33203125"/>
+    <col customWidth="1" max="15" min="10" style="14" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="16" style="14" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>api_name</t>
         </is>
       </c>
-      <c r="E1" s="12" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>request_data</t>
         </is>
       </c>
-      <c r="H1" s="11" t="inlineStr">
+      <c r="H1" s="10" t="inlineStr">
         <is>
           <t>expected_data</t>
         </is>
       </c>
-      <c r="I1" s="11" t="inlineStr">
+      <c r="I1" s="10" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
-    <row customFormat="1" r="2" s="16">
-      <c r="A2" s="18" t="n">
+    <row customFormat="1" r="2" s="12">
+      <c r="A2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="inlineStr">
+      <c r="B2" s="17" t="inlineStr">
         <is>
           <t>获取用户列表</t>
         </is>
       </c>
-      <c r="C2" s="31" t="inlineStr">
+      <c r="C2" s="24" t="inlineStr">
         <is>
           <t>正常获取用户列表</t>
         </is>
       </c>
-      <c r="D2" s="31" t="inlineStr">
+      <c r="D2" s="24" t="inlineStr">
         <is>
           <t>list</t>
         </is>
       </c>
-      <c r="E2" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F2" s="31" t="inlineStr">
+      <c r="E2" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="24" t="inlineStr">
         <is>
           <t>/member/list</t>
         </is>
       </c>
-      <c r="G2" s="31" t="n"/>
-      <c r="H2" s="31" t="inlineStr">
+      <c r="G2" s="24" t="n"/>
+      <c r="H2" s="24" t="inlineStr">
         <is>
           <t>{"status":1,  "code":"10001", "msg":"获取用户列表成功"}</t>
         </is>
       </c>
-      <c r="I2" s="31" t="n"/>
+      <c r="I2" s="24" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
@@ -4286,858 +4282,1020 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="C1" pane="bottomLeft" sqref="C1"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A8" ySplit="1"/>
+      <selection activeCell="G26" pane="bottomLeft" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="17.4"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="8.88671875" defaultRowHeight="21"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="19" width="9.5546875"/>
-    <col customWidth="1" max="2" min="2" style="19" width="12"/>
-    <col customWidth="1" max="3" min="3" style="16" width="30.6640625"/>
-    <col customWidth="1" max="4" min="4" style="16" width="11"/>
-    <col customWidth="1" max="5" min="5" style="16" width="9.6640625"/>
-    <col customWidth="1" max="6" min="6" style="19" width="26.21875"/>
-    <col customWidth="1" max="7" min="7" style="19" width="80.33203125"/>
-    <col customWidth="1" max="8" min="8" style="19" width="78.6640625"/>
-    <col customWidth="1" max="9" min="9" style="19" width="10.33203125"/>
-    <col customWidth="1" max="16384" min="10" style="19" width="8.88671875"/>
+    <col customWidth="1" max="1" min="1" style="14" width="9.5546875"/>
+    <col customWidth="1" max="2" min="2" style="14" width="12"/>
+    <col customWidth="1" max="3" min="3" style="12" width="26.5546875"/>
+    <col customWidth="1" max="4" min="4" style="12" width="11"/>
+    <col customWidth="1" max="5" min="5" style="12" width="9.6640625"/>
+    <col customWidth="1" max="6" min="6" style="14" width="18.77734375"/>
+    <col customWidth="1" max="7" min="7" style="14" width="105.21875"/>
+    <col customWidth="1" max="8" min="8" style="14" width="20.77734375"/>
+    <col customWidth="1" max="9" min="9" style="14" width="93.109375"/>
+    <col customWidth="1" max="10" min="10" style="14" width="10.33203125"/>
+    <col customWidth="1" max="16" min="11" style="14" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="17" style="14" width="8.88671875"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="11" t="inlineStr">
+    <row customHeight="1" ht="21" r="1">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>api_name</t>
         </is>
       </c>
-      <c r="E1" s="12" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>request_data</t>
         </is>
       </c>
-      <c r="H1" s="11" t="inlineStr">
+      <c r="H1" s="10" t="inlineStr">
+        <is>
+          <t>check_mysql</t>
+        </is>
+      </c>
+      <c r="I1" s="10" t="inlineStr">
         <is>
           <t>expected_data</t>
         </is>
       </c>
-      <c r="I1" s="11" t="inlineStr">
+      <c r="J1" s="10" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
-    <row customFormat="1" r="2" s="16">
-      <c r="A2" s="18" t="n">
+    <row customHeight="1" ht="21" r="2">
+      <c r="A2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="inlineStr">
+      <c r="B2" s="13" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C2" s="24" t="inlineStr">
+        <is>
+          <t>正常登录</t>
+        </is>
+      </c>
+      <c r="D2" s="24" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="E2" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="24" t="inlineStr">
+        <is>
+          <t>/member/login</t>
+        </is>
+      </c>
+      <c r="G2" s="13" t="inlineStr">
+        <is>
+          <t>{'mobilephone':'#login_phone#', 'pwd':'#lpwd#'}</t>
+        </is>
+      </c>
+      <c r="H2" s="13" t="n"/>
+      <c r="I2" s="13" t="inlineStr">
+        <is>
+          <t>{'status':1,  'code':'10001', 'msg':'登录成功'}</t>
+        </is>
+      </c>
+      <c r="J2" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="21" r="3" s="12">
+      <c r="A3" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24" t="inlineStr">
         <is>
           <t>竞标</t>
         </is>
       </c>
-      <c r="C2" s="31" t="inlineStr">
+      <c r="C3" s="24" t="inlineStr">
         <is>
           <t>正常竞标</t>
         </is>
       </c>
-      <c r="D2" s="31" t="inlineStr">
+      <c r="D3" s="24" t="inlineStr">
         <is>
           <t>bidLoan</t>
         </is>
       </c>
-      <c r="E2" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F2" s="31" t="inlineStr">
+      <c r="E3" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F3" s="24" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
       </c>
-      <c r="G2" s="18" t="inlineStr">
-        <is>
-          <t>{"memberId":1001, "password ":"123456", "loanId ":2001, "amount":2000}</t>
-        </is>
-      </c>
-      <c r="H2" s="18" t="inlineStr">
-        <is>
-          <t>{"status":1,  "code":"10001", "data":None, "msg":"竞标成功"}</t>
-        </is>
-      </c>
-      <c r="I2" s="31" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="34.8" r="3" s="16">
-      <c r="A3" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="34" t="n"/>
-      <c r="C3" s="31" t="inlineStr">
+      <c r="G3" s="13" t="inlineStr">
+        <is>
+          <t>{'memberId':#memberid#, 'password':'#pwd#', 'loanId':#loanid#, 'amount':2000}</t>
+        </is>
+      </c>
+      <c r="H3" s="13" t="inlineStr">
+        <is>
+          <t>SELECT LeaveAmount FROM member WHERE Id=#memberid#</t>
+        </is>
+      </c>
+      <c r="I3" s="13" t="inlineStr">
+        <is>
+          <t>{'status':1,  'code':'10001',  'msg':'竞标成功'}</t>
+        </is>
+      </c>
+      <c r="J3" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="21" r="4" s="12">
+      <c r="A4" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="24" t="inlineStr">
         <is>
           <t>memberId为空</t>
         </is>
       </c>
-      <c r="D3" s="31" t="inlineStr">
+      <c r="D4" s="24" t="inlineStr">
         <is>
           <t>bidLoan</t>
         </is>
       </c>
-      <c r="E3" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F3" s="31" t="inlineStr">
+      <c r="E4" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F4" s="24" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
       </c>
-      <c r="G3" s="18" t="inlineStr">
-        <is>
-          <t>{"memberId":, "password ":"123456", "loanId ":2001, "amount":2000}</t>
-        </is>
-      </c>
-      <c r="H3" s="23" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"11003", "data":None, "msg":"参数错误:所有参数都不能为空"}</t>
-        </is>
-      </c>
-      <c r="I3" s="31" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="34.8" r="4" s="16">
-      <c r="A4" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="34" t="n"/>
-      <c r="C4" s="31" t="inlineStr">
+      <c r="G4" s="13" t="inlineStr">
+        <is>
+          <t>{'memberId': None, 'password':'#pwd#', 'loanId':#loanid#, 'amount':2000}</t>
+        </is>
+      </c>
+      <c r="H4" s="13" t="n"/>
+      <c r="I4" s="18" t="inlineStr">
+        <is>
+          <t>{'status':0,  'code':'11003',  'msg':'参数错误:所有参数都不能为空'}</t>
+        </is>
+      </c>
+      <c r="J4" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="21" r="5" s="12">
+      <c r="A5" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="n"/>
+      <c r="C5" s="24" t="inlineStr">
         <is>
           <t>password为空</t>
         </is>
       </c>
-      <c r="D4" s="31" t="inlineStr">
+      <c r="D5" s="24" t="inlineStr">
         <is>
           <t>bidLoan</t>
         </is>
       </c>
-      <c r="E4" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F4" s="31" t="inlineStr">
+      <c r="E5" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F5" s="24" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
       </c>
-      <c r="G4" s="18" t="inlineStr">
-        <is>
-          <t>{"memberId":1001, "password ":" ", "loanId ":2001, "amount":2000}</t>
-        </is>
-      </c>
-      <c r="H4" s="23" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"11003", "data":None, "msg":"参数错误:所有参数都不能为空"}</t>
-        </is>
-      </c>
-      <c r="I4" s="31" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="34.8" r="5" s="16">
-      <c r="A5" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="34" t="n"/>
-      <c r="C5" s="31" t="inlineStr">
+      <c r="G5" s="13" t="inlineStr">
+        <is>
+          <t>{'memberId':#memberid#, 'password':'', 'loanId':#loanid#, 'amount':2000}</t>
+        </is>
+      </c>
+      <c r="H5" s="13" t="n"/>
+      <c r="I5" s="18" t="inlineStr">
+        <is>
+          <t>{'status':0,  'code':'11003',  'msg':'参数错误:所有参数都不能为空'}</t>
+        </is>
+      </c>
+      <c r="J5" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="21" r="6" s="12">
+      <c r="A6" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25" t="n"/>
+      <c r="C6" s="24" t="inlineStr">
         <is>
           <t>loanId为空</t>
         </is>
       </c>
-      <c r="D5" s="31" t="inlineStr">
+      <c r="D6" s="24" t="inlineStr">
         <is>
           <t>bidLoan</t>
         </is>
       </c>
-      <c r="E5" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F5" s="31" t="inlineStr">
+      <c r="E6" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F6" s="24" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
       </c>
-      <c r="G5" s="18" t="inlineStr">
-        <is>
-          <t>{"memberId":1001, "password ":"123456", "loanId ":, "amount":2000}</t>
-        </is>
-      </c>
-      <c r="H5" s="23" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"11003", "data":None, "msg":"参数错误:所有参数都不能为空"}</t>
-        </is>
-      </c>
-      <c r="I5" s="31" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="34.8" r="6" s="16">
-      <c r="A6" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="34" t="n"/>
-      <c r="C6" s="31" t="inlineStr">
+      <c r="G6" s="13" t="inlineStr">
+        <is>
+          <t>{'memberId':#memberid#, 'password':'#pwd#', 'loanId':None, 'amount':2000}</t>
+        </is>
+      </c>
+      <c r="H6" s="13" t="n"/>
+      <c r="I6" s="18" t="inlineStr">
+        <is>
+          <t>{'status':0,  'code':'11003',  'msg':'参数错误:所有参数都不能为空'}</t>
+        </is>
+      </c>
+      <c r="J6" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="21" r="7" s="12">
+      <c r="A7" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25" t="n"/>
+      <c r="C7" s="24" t="inlineStr">
         <is>
           <t>amount为空</t>
         </is>
       </c>
-      <c r="D6" s="31" t="inlineStr">
+      <c r="D7" s="24" t="inlineStr">
         <is>
           <t>bidLoan</t>
         </is>
       </c>
-      <c r="E6" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F6" s="31" t="inlineStr">
+      <c r="E7" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F7" s="24" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
       </c>
-      <c r="G6" s="18" t="inlineStr">
-        <is>
-          <t>{"memberId":1001, "password ":"123456", "loanId ":2001, "amount":}</t>
-        </is>
-      </c>
-      <c r="H6" s="23" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"11003", "data":None, "msg":"参数错误:所有参数都不能为空"}</t>
-        </is>
-      </c>
-      <c r="I6" s="31" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="34.8" r="7" s="16">
-      <c r="A7" s="18" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="34" t="n"/>
-      <c r="C7" s="31" t="inlineStr">
+      <c r="G7" s="13" t="inlineStr">
+        <is>
+          <t>{'memberId':#memberid#, 'password':'#pwd#', 'loanId':#loanid#, 'amount':None}</t>
+        </is>
+      </c>
+      <c r="H7" s="13" t="n"/>
+      <c r="I7" s="18" t="inlineStr">
+        <is>
+          <t>{'status':0,  'code':'11003',  'msg':'参数错误:所有参数都不能为空'}</t>
+        </is>
+      </c>
+      <c r="J7" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="21" r="8" s="12">
+      <c r="A8" s="13" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="25" t="n"/>
+      <c r="C8" s="24" t="inlineStr">
         <is>
           <t>memberId为0</t>
         </is>
       </c>
-      <c r="D7" s="31" t="inlineStr">
+      <c r="D8" s="24" t="inlineStr">
         <is>
           <t>bidLoan</t>
         </is>
       </c>
-      <c r="E7" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F7" s="31" t="inlineStr">
+      <c r="E8" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F8" s="24" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
       </c>
-      <c r="G7" s="18" t="inlineStr">
-        <is>
-          <t>{"memberId":0, "password ":"123456", "loanId ":2001, "amount":2000}</t>
-        </is>
-      </c>
-      <c r="H7" s="23" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"11004", "data":None, "msg":"参数错误, memberId 必须是大于 0的正整数"}</t>
-        </is>
-      </c>
-      <c r="I7" s="31" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="34.8" r="8" s="16">
-      <c r="A8" s="18" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="34" t="n"/>
-      <c r="C8" s="31" t="inlineStr">
+      <c r="G8" s="13" t="inlineStr">
+        <is>
+          <t>{'memberId':0, 'password':'#pwd#', 'loanId':#loanid#, 'amount':2000}</t>
+        </is>
+      </c>
+      <c r="H8" s="13" t="n"/>
+      <c r="I8" s="18" t="inlineStr">
+        <is>
+          <t>{'status':0,  'code':'11004',  'msg': '参数错误，memberId必须是大于0的正整数'}</t>
+        </is>
+      </c>
+      <c r="J8" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="21" r="9" s="12">
+      <c r="A9" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="25" t="n"/>
+      <c r="C9" s="24" t="inlineStr">
         <is>
           <t>memberId为负数</t>
         </is>
       </c>
-      <c r="D8" s="31" t="inlineStr">
+      <c r="D9" s="24" t="inlineStr">
         <is>
           <t>bidLoan</t>
         </is>
       </c>
-      <c r="E8" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F8" s="31" t="inlineStr">
+      <c r="E9" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F9" s="24" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
       </c>
-      <c r="G8" s="18" t="inlineStr">
-        <is>
-          <t>{"memberId":-1001, "password ":"123456", "loanId ":2001, "amount":2000}</t>
-        </is>
-      </c>
-      <c r="H8" s="23" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"11004", "data":None, "msg":"参数错误, memberId 必须是大于 0的正整数"}</t>
-        </is>
-      </c>
-      <c r="I8" s="31" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="34.8" r="9" s="16">
-      <c r="A9" s="18" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="34" t="n"/>
-      <c r="C9" s="31" t="inlineStr">
+      <c r="G9" s="13" t="inlineStr">
+        <is>
+          <t>{'memberId':-1001, 'password':'#pwd#', 'loanId':#loanid#, 'amount':2000}</t>
+        </is>
+      </c>
+      <c r="H9" s="13" t="n"/>
+      <c r="I9" s="18" t="inlineStr">
+        <is>
+          <t>{'status':0,  'code':'11004',  'msg': '参数错误，memberId必须是大于0的正整数'}</t>
+        </is>
+      </c>
+      <c r="J9" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="21" r="10" s="12">
+      <c r="A10" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="n"/>
+      <c r="C10" s="24" t="inlineStr">
         <is>
           <t>loanId为0</t>
         </is>
       </c>
-      <c r="D9" s="31" t="inlineStr">
+      <c r="D10" s="24" t="inlineStr">
         <is>
           <t>bidLoan</t>
         </is>
       </c>
-      <c r="E9" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F9" s="31" t="inlineStr">
+      <c r="E10" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F10" s="24" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
       </c>
-      <c r="G9" s="18" t="inlineStr">
-        <is>
-          <t>{"memberId":1001, "password ":"123456", "loanId ":0, "amount":2000}</t>
-        </is>
-      </c>
-      <c r="H9" s="23" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"11005", "data":None, "msg":"参数错误, loanId 必须是大于 0 的正整数"}</t>
-        </is>
-      </c>
-      <c r="I9" s="31" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="34.8" r="10" s="16">
-      <c r="A10" s="18" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="34" t="n"/>
-      <c r="C10" s="31" t="inlineStr">
+      <c r="G10" s="13" t="inlineStr">
+        <is>
+          <t>{'memberId':#memberid#, 'password':'#pwd#', 'loanId':0, 'amount':2000}</t>
+        </is>
+      </c>
+      <c r="H10" s="13" t="n"/>
+      <c r="I10" s="18" t="inlineStr">
+        <is>
+          <t>{'status':0,  'code':'11009',  'msg':'不存在该标的'}</t>
+        </is>
+      </c>
+      <c r="J10" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="21" r="11" s="12">
+      <c r="A11" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="25" t="n"/>
+      <c r="C11" s="24" t="inlineStr">
         <is>
           <t>loanId为负数</t>
         </is>
       </c>
-      <c r="D10" s="31" t="inlineStr">
+      <c r="D11" s="24" t="inlineStr">
         <is>
           <t>bidLoan</t>
         </is>
       </c>
-      <c r="E10" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F10" s="31" t="inlineStr">
+      <c r="E11" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F11" s="24" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
       </c>
-      <c r="G10" s="18" t="inlineStr">
-        <is>
-          <t>{"memberId":1001, "password ":"123456", "loanId ":-2001, "amount":2000}</t>
-        </is>
-      </c>
-      <c r="H10" s="23" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"11005", "data":None, "msg":"参数错误, loanId 必须是大于 0 的正整数"}</t>
-        </is>
-      </c>
-      <c r="I10" s="31" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="34.8" r="11" s="16">
-      <c r="A11" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="34" t="n"/>
-      <c r="C11" s="31" t="inlineStr">
+      <c r="G11" s="13" t="inlineStr">
+        <is>
+          <t>{'memberId':#memberid#, 'password':'#pwd#', 'loanId':-1001, 'amount':2000}</t>
+        </is>
+      </c>
+      <c r="H11" s="13" t="n"/>
+      <c r="I11" s="18" t="inlineStr">
+        <is>
+          <t>{'status':0,  'code':'11009',  'msg':'不存在该标的'}</t>
+        </is>
+      </c>
+      <c r="J11" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="21" r="12" s="12">
+      <c r="A12" s="13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="25" t="n"/>
+      <c r="C12" s="24" t="inlineStr">
         <is>
           <t>password长度小于6</t>
         </is>
       </c>
-      <c r="D11" s="31" t="inlineStr">
+      <c r="D12" s="24" t="inlineStr">
         <is>
           <t>bidLoan</t>
         </is>
       </c>
-      <c r="E11" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F11" s="31" t="inlineStr">
+      <c r="E12" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F12" s="24" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
       </c>
-      <c r="G11" s="18" t="inlineStr">
-        <is>
-          <t>{"memberId":1001, "password ":"12345", "loanId ":-2001, "amount":2000}</t>
-        </is>
-      </c>
-      <c r="H11" s="23" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"11006", "data":None, "msg":"参数错误, password 长度必须大于6 位且小于 18 位"}</t>
-        </is>
-      </c>
-      <c r="I11" s="31" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="34.8" r="12" s="16">
-      <c r="A12" s="18" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="34" t="n"/>
-      <c r="C12" s="31" t="inlineStr">
+      <c r="G12" s="13" t="inlineStr">
+        <is>
+          <t>{'memberId':#memberid#, 'password':'12345', 'loanId':#loanid#, 'amount':2000}</t>
+        </is>
+      </c>
+      <c r="H12" s="13" t="n"/>
+      <c r="I12" s="18" t="inlineStr">
+        <is>
+          <t>{'status':0,  'code':'11006',  'msg':'参数错误，password长度必须大于6位且小于18位'}</t>
+        </is>
+      </c>
+      <c r="J12" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="21" r="13" s="12">
+      <c r="A13" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="25" t="n"/>
+      <c r="C13" s="24" t="inlineStr">
         <is>
           <t>password长度大于18</t>
         </is>
       </c>
-      <c r="D12" s="31" t="inlineStr">
+      <c r="D13" s="24" t="inlineStr">
         <is>
           <t>bidLoan</t>
         </is>
       </c>
-      <c r="E12" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F12" s="31" t="inlineStr">
+      <c r="E13" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F13" s="24" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
       </c>
-      <c r="G12" s="18" t="inlineStr">
-        <is>
-          <t>{"memberId":1001, "password ":"1234567890123456789", "loanId ":-2001, "amount":2000}</t>
-        </is>
-      </c>
-      <c r="H12" s="23" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"11006", "data":None, "msg":"参数错误, password 长度必须大于6 位且小于 18 位"}</t>
-        </is>
-      </c>
-      <c r="I12" s="31" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="34.8" r="13" s="16">
-      <c r="A13" s="18" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="34" t="n"/>
-      <c r="C13" s="31" t="inlineStr">
+      <c r="G13" s="13" t="inlineStr">
+        <is>
+          <t>{'memberId':#memberid#, 'password':'1234567890123456789', 'loanId':#loanid#, 'amount':2000}</t>
+        </is>
+      </c>
+      <c r="H13" s="13" t="n"/>
+      <c r="I13" s="18" t="inlineStr">
+        <is>
+          <t>{'status':0,  'code':'11006',  'msg':'参数错误，password长度必须大于6位且小于18位'}</t>
+        </is>
+      </c>
+      <c r="J13" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="21" r="14" s="12">
+      <c r="A14" s="13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="25" t="n"/>
+      <c r="C14" s="24" t="inlineStr">
         <is>
           <t>amount非100整数</t>
         </is>
       </c>
-      <c r="D13" s="31" t="inlineStr">
+      <c r="D14" s="24" t="inlineStr">
         <is>
           <t>bidLoan</t>
         </is>
       </c>
-      <c r="E13" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F13" s="31" t="inlineStr">
+      <c r="E14" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F14" s="24" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
       </c>
-      <c r="G13" s="18" t="inlineStr">
-        <is>
-          <t>{"memberId":1001, "password ":"123456", "loanId ":2001, "amount":990}</t>
-        </is>
-      </c>
-      <c r="H13" s="23" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"11007", "data":None, "msg":"参数错误, 投资金额必须是能被 100整除的正整数"}</t>
-        </is>
-      </c>
-      <c r="I13" s="31" t="n"/>
-    </row>
-    <row customFormat="1" r="14" s="16">
-      <c r="A14" s="18" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="34" t="n"/>
-      <c r="C14" s="31" t="inlineStr">
+      <c r="G14" s="13" t="inlineStr">
+        <is>
+          <t>{'memberId':#memberid#, 'password':'#pwd#', 'loanId':#loanid#, 'amount':990}</t>
+        </is>
+      </c>
+      <c r="H14" s="13" t="n"/>
+      <c r="I14" s="18" t="inlineStr">
+        <is>
+          <t>{'status':0,  'code':'11007',  'msg':'参数错误，投资金额必须是能被100整除的正整数'}</t>
+        </is>
+      </c>
+      <c r="J14" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="21" r="15" s="12">
+      <c r="A15" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="25" t="n"/>
+      <c r="C15" s="24" t="inlineStr">
         <is>
           <t>memberId不存在（未注册）</t>
         </is>
       </c>
-      <c r="D14" s="31" t="inlineStr">
+      <c r="D15" s="24" t="inlineStr">
         <is>
           <t>bidLoan</t>
         </is>
       </c>
-      <c r="E14" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F14" s="31" t="inlineStr">
+      <c r="E15" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F15" s="24" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
       </c>
-      <c r="G14" s="18" t="inlineStr">
-        <is>
-          <t>{"memberId":0001, "password ":"123456", "loanId ":2001, "amount":2000}</t>
-        </is>
-      </c>
-      <c r="H14" s="23" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"11008", "data":None, "msg":"不存在该用户"}</t>
-        </is>
-      </c>
-      <c r="I14" s="31" t="n"/>
-    </row>
-    <row customFormat="1" r="15" s="16">
-      <c r="A15" s="18" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="34" t="n"/>
-      <c r="C15" s="31" t="inlineStr">
+      <c r="G15" s="13" t="inlineStr">
+        <is>
+          <t>{'memberId':'#nomemberid#', 'password':'#pwd#', 'loanId':#loanid#, 'amount':2000}</t>
+        </is>
+      </c>
+      <c r="H15" s="13" t="n"/>
+      <c r="I15" s="18" t="inlineStr">
+        <is>
+          <t>{'status':0,  'code':'11008',  'msg':'不存在该用户'}</t>
+        </is>
+      </c>
+      <c r="J15" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="21" r="16" s="12">
+      <c r="A16" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="25" t="n"/>
+      <c r="C16" s="24" t="inlineStr">
         <is>
           <t>loanId不存在</t>
         </is>
       </c>
-      <c r="D15" s="31" t="inlineStr">
+      <c r="D16" s="24" t="inlineStr">
         <is>
           <t>bidLoan</t>
         </is>
       </c>
-      <c r="E15" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F15" s="31" t="inlineStr">
+      <c r="E16" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F16" s="24" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
       </c>
-      <c r="G15" s="18" t="inlineStr">
-        <is>
-          <t>{"memberId":1001, "password ":"123456", "loanId ":0001, "amount":2000}</t>
-        </is>
-      </c>
-      <c r="H15" s="23" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"11009", "data":None, "msg":"不存在该标"}</t>
-        </is>
-      </c>
-      <c r="I15" s="31" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="34.8" r="16" s="16">
-      <c r="A16" s="18" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="34" t="n"/>
-      <c r="C16" s="31" t="inlineStr">
+      <c r="G16" s="13" t="inlineStr">
+        <is>
+          <t>{'memberId':#memberid#, 'password':'#pwd#', 'loanId':'#noloanid#', 'amount':2000}</t>
+        </is>
+      </c>
+      <c r="H16" s="13" t="n"/>
+      <c r="I16" s="18" t="inlineStr">
+        <is>
+          <t>{'status':0,  'code':'11009',  'msg':'不存在该标的'}</t>
+        </is>
+      </c>
+      <c r="J16" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="21" r="17" s="12">
+      <c r="A17" s="13" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="25" t="n"/>
+      <c r="C17" s="24" t="inlineStr">
         <is>
           <t>非竞标状态</t>
         </is>
       </c>
-      <c r="D16" s="31" t="inlineStr">
+      <c r="D17" s="24" t="inlineStr">
         <is>
           <t>bidLoan</t>
         </is>
       </c>
-      <c r="E16" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F16" s="31" t="inlineStr">
+      <c r="E17" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F17" s="24" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
       </c>
-      <c r="G16" s="18" t="inlineStr">
-        <is>
-          <t>{"memberId":1001, "password ":"123456", "loanId ":1101, "amount":2000}</t>
-        </is>
-      </c>
-      <c r="H16" s="23" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"11010", "data":None, "msg":"该标不在竞标中状态, 无法完成投标"}</t>
-        </is>
-      </c>
-      <c r="I16" s="31" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="34.8" r="17" s="16">
-      <c r="A17" s="18" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="34" t="n"/>
-      <c r="C17" s="31" t="inlineStr">
+      <c r="G17" s="13" t="inlineStr">
+        <is>
+          <t>{'memberId':#memberid#, 'password':'#pwd#', 'loanId':'#floanid#', 'amount':2000}</t>
+        </is>
+      </c>
+      <c r="H17" s="13" t="n"/>
+      <c r="I17" s="18" t="inlineStr">
+        <is>
+          <t>{'status':0,  'code':'11010',  'msg':'该标不在竞标中状态, 无法完成投标'}</t>
+        </is>
+      </c>
+      <c r="J17" s="24" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="21" r="18" s="12">
+      <c r="A18" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="25" t="n"/>
+      <c r="C18" s="24" t="inlineStr">
         <is>
           <t>已经满标</t>
         </is>
       </c>
-      <c r="D17" s="31" t="inlineStr">
+      <c r="D18" s="24" t="inlineStr">
         <is>
           <t>bidLoan</t>
         </is>
       </c>
-      <c r="E17" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F17" s="31" t="inlineStr">
+      <c r="E18" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F18" s="24" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
       </c>
-      <c r="G17" s="18" t="inlineStr">
-        <is>
-          <t>{"memberId":1001, "password ":"123456", "loanId ":1002, "amount":2000}</t>
-        </is>
-      </c>
-      <c r="H17" s="23" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"11011", "data":None, "msg":"该标已经满标, 无法进行投资"}</t>
-        </is>
-      </c>
-      <c r="I17" s="31" t="n"/>
-    </row>
-    <row customFormat="1" r="18" s="16">
-      <c r="A18" s="18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="34" t="n"/>
-      <c r="C18" s="31" t="inlineStr">
+      <c r="G18" s="13" t="inlineStr">
+        <is>
+          <t>{'memberId':#memberid#, 'password':'#pwd#', 'loanId':#mloanid#, 'amount':2000}</t>
+        </is>
+      </c>
+      <c r="H18" s="13" t="n"/>
+      <c r="I18" s="18" t="inlineStr">
+        <is>
+          <t>{'status':0,  'code':'11011',  'msg':'该标已经满标, 无法进行投资'}</t>
+        </is>
+      </c>
+      <c r="J18" s="24" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="21" r="19" s="12">
+      <c r="A19" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="25" t="n"/>
+      <c r="C19" s="24" t="inlineStr">
         <is>
           <t>余额不足</t>
         </is>
       </c>
-      <c r="D18" s="31" t="inlineStr">
+      <c r="D19" s="24" t="inlineStr">
         <is>
           <t>bidLoan</t>
         </is>
       </c>
-      <c r="E18" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F18" s="31" t="inlineStr">
+      <c r="E19" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F19" s="24" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
       </c>
-      <c r="G18" s="18" t="inlineStr">
-        <is>
-          <t>{"memberId":1003, "password ":"123456", "loanId ":1002, "amount":20000}</t>
-        </is>
-      </c>
-      <c r="H18" s="23" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"11012", "data":None, "msg":"该标可投金额不足"}</t>
-        </is>
-      </c>
-      <c r="I18" s="31" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="34.8" r="19" s="16">
-      <c r="A19" s="18" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="34" t="n"/>
-      <c r="C19" s="31" t="inlineStr">
+      <c r="G19" s="13" t="inlineStr">
+        <is>
+          <t>{'memberId':'#lmemberid#', 'password':'#lpwd#', 'loanId':#loanid#, 'amount':20000}</t>
+        </is>
+      </c>
+      <c r="H19" s="13" t="n"/>
+      <c r="I19" s="18" t="inlineStr">
+        <is>
+          <t>{'status':0,  'code':'11012',  'msg':'该标可投金额不足'}</t>
+        </is>
+      </c>
+      <c r="J19" s="24" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="21" r="20" s="12">
+      <c r="A20" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="24" t="inlineStr">
         <is>
           <t>memberId数据类型非法</t>
         </is>
       </c>
-      <c r="D19" s="31" t="inlineStr">
+      <c r="D20" s="24" t="inlineStr">
         <is>
           <t>bidLoan</t>
         </is>
       </c>
-      <c r="E19" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F19" s="31" t="inlineStr">
+      <c r="E20" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F20" s="24" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
       </c>
-      <c r="G19" s="18" t="inlineStr">
-        <is>
-          <t>{"memberId":"1001", "password ":"123456", "loanId ":2001, "amount":2000}</t>
-        </is>
-      </c>
-      <c r="H19" s="23" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"11013", "data":None, "msg":"请根据数值参数的类型对应输入合法的数字"}</t>
-        </is>
-      </c>
-      <c r="I19" s="31" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="34.8" r="20" s="16">
-      <c r="A20" s="18" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="34" t="n"/>
-      <c r="C20" s="31" t="inlineStr">
+      <c r="G20" s="13" t="inlineStr">
+        <is>
+          <t>{'memberId':'abc', 'password':'#pwd#', 'loanId':#loanid#, 'amount':2000}</t>
+        </is>
+      </c>
+      <c r="H20" s="13" t="n"/>
+      <c r="I20" s="18" t="inlineStr">
+        <is>
+          <t>{'status':0,  'code':'11013',  'msg':'请根据数值参数的类型对应输入合法的数字'}</t>
+        </is>
+      </c>
+      <c r="J20" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="21" r="21" s="12">
+      <c r="A21" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="25" t="n"/>
+      <c r="C21" s="24" t="inlineStr">
         <is>
           <t>password数据类型非法</t>
         </is>
       </c>
-      <c r="D20" s="31" t="inlineStr">
+      <c r="D21" s="24" t="inlineStr">
         <is>
           <t>bidLoan</t>
         </is>
       </c>
-      <c r="E20" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F20" s="31" t="inlineStr">
+      <c r="E21" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F21" s="24" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
       </c>
-      <c r="G20" s="18" t="inlineStr">
-        <is>
-          <t>{"memberId":1001, "password ":123456, "loanId ":2001, "amount":2000}</t>
-        </is>
-      </c>
-      <c r="H20" s="23" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"11013", "data":None, "msg":"请根据数值参数的类型对应输入合法的数字"}</t>
-        </is>
-      </c>
-      <c r="I20" s="31" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="34.8" r="21" s="16">
-      <c r="A21" s="18" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="34" t="n"/>
-      <c r="C21" s="31" t="inlineStr">
+      <c r="G21" s="13" t="inlineStr">
+        <is>
+          <t>{'memberId':#memberid#, 'password':100, 'loanId':#loanid#, 'amount':2000}</t>
+        </is>
+      </c>
+      <c r="H21" s="13" t="n"/>
+      <c r="I21" s="18" t="inlineStr">
+        <is>
+          <t>{'status':0,  'code':'11013',  'msg':'请根据数值参数的类型对应输入合法的数字'}</t>
+        </is>
+      </c>
+      <c r="J21" s="24" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="21" r="22" s="12">
+      <c r="A22" s="13" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="25" t="n"/>
+      <c r="C22" s="24" t="inlineStr">
         <is>
           <t>loanId数据类型非法</t>
         </is>
       </c>
-      <c r="D21" s="31" t="inlineStr">
+      <c r="D22" s="24" t="inlineStr">
         <is>
           <t>bidLoan</t>
         </is>
       </c>
-      <c r="E21" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F21" s="31" t="inlineStr">
+      <c r="E22" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F22" s="24" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
       </c>
-      <c r="G21" s="18" t="inlineStr">
-        <is>
-          <t>{"memberId":1001, "password ":"123456", "loanId ":"2001", "amount":2000}</t>
-        </is>
-      </c>
-      <c r="H21" s="23" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"11013", "data":None, "msg":"请根据数值参数的类型对应输入合法的数字"}</t>
-        </is>
-      </c>
-      <c r="I21" s="31" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="34.8" r="22" s="16">
-      <c r="A22" s="18" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="35" t="n"/>
-      <c r="C22" s="31" t="inlineStr">
+      <c r="G22" s="13" t="inlineStr">
+        <is>
+          <t>{'memberId':#memberid#, 'password':'#pwd#', 'loanId':'abc', 'amount':2000}</t>
+        </is>
+      </c>
+      <c r="H22" s="13" t="n"/>
+      <c r="I22" s="18" t="inlineStr">
+        <is>
+          <t>{'status':0,  'code':'11013',  'msg':'请根据数值参数的类型对应输入合法的数字'}</t>
+        </is>
+      </c>
+      <c r="J22" s="24" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="21" r="23" s="12">
+      <c r="A23" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="26" t="n"/>
+      <c r="C23" s="24" t="inlineStr">
         <is>
           <t>amount数据类型非法</t>
         </is>
       </c>
-      <c r="D22" s="31" t="inlineStr">
+      <c r="D23" s="24" t="inlineStr">
         <is>
           <t>bidLoan</t>
         </is>
       </c>
-      <c r="E22" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F22" s="31" t="inlineStr">
+      <c r="E23" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F23" s="24" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
       </c>
-      <c r="G22" s="18" t="inlineStr">
-        <is>
-          <t>{"memberId":1001, "password ":"123456", "loanId ":2001, "amount":"2000"}</t>
-        </is>
-      </c>
-      <c r="H22" s="23" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"11013", "data":None, "msg":"请根据数值参数的类型对应输入合法的数字"}</t>
-        </is>
-      </c>
-      <c r="I22" s="31" t="n"/>
+      <c r="G23" s="13" t="inlineStr">
+        <is>
+          <t>{'memberId':#memberid#, 'password':'#pwd#', 'loanId':#loanid#, 'amount':'abc'}</t>
+        </is>
+      </c>
+      <c r="H23" s="13" t="n"/>
+      <c r="I23" s="18" t="inlineStr">
+        <is>
+          <t>{'status':0,  'code':'11013',  'msg':'请根据数值参数的类型对应输入合法的数字'}</t>
+        </is>
+      </c>
+      <c r="J23" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:B22"/>
+    <mergeCell ref="B3:B23"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
 </worksheet>
@@ -5153,1145 +5311,1146 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="C1" pane="bottomLeft" sqref="C1"/>
+      <selection activeCell="F32" pane="bottomLeft" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="17.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="16" width="13.6640625"/>
-    <col customWidth="1" max="2" min="2" style="19" width="12.5546875"/>
-    <col customWidth="1" max="3" min="3" style="26" width="34.109375"/>
-    <col customWidth="1" max="4" min="4" style="16" width="10.109375"/>
-    <col customWidth="1" max="5" min="5" style="26" width="9.77734375"/>
-    <col customWidth="1" max="6" min="6" style="19" width="20.5546875"/>
-    <col customWidth="1" max="7" min="7" style="19" width="74"/>
-    <col customWidth="1" max="8" min="8" style="19" width="86.44140625"/>
-    <col customWidth="1" max="16384" min="9" style="19" width="8.88671875"/>
+    <col customWidth="1" max="1" min="1" style="12" width="13.6640625"/>
+    <col customWidth="1" max="2" min="2" style="14" width="12.5546875"/>
+    <col customWidth="1" max="3" min="3" style="19" width="34.109375"/>
+    <col customWidth="1" max="4" min="4" style="12" width="10.109375"/>
+    <col customWidth="1" max="5" min="5" style="19" width="9.77734375"/>
+    <col customWidth="1" max="6" min="6" style="14" width="20.5546875"/>
+    <col customWidth="1" max="7" min="7" style="14" width="74"/>
+    <col customWidth="1" max="8" min="8" style="14" width="86.44140625"/>
+    <col customWidth="1" max="14" min="9" style="14" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="15" style="14" width="8.88671875"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="16">
-      <c r="A1" s="12" t="inlineStr">
+    <row customFormat="1" r="1" s="12">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>api_name</t>
         </is>
       </c>
-      <c r="E1" s="12" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="12" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G1" s="12" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>request_data</t>
         </is>
       </c>
-      <c r="H1" s="12" t="inlineStr">
+      <c r="H1" s="11" t="inlineStr">
         <is>
           <t>expected_data</t>
         </is>
       </c>
-      <c r="I1" s="12" t="inlineStr">
+      <c r="I1" s="11" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
-    <row customFormat="1" r="2" s="26">
-      <c r="A2" s="31" t="n">
+    <row customFormat="1" r="2" s="19">
+      <c r="A2" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="inlineStr">
+      <c r="B2" s="27" t="inlineStr">
         <is>
           <t>新增项目</t>
         </is>
       </c>
-      <c r="C2" s="32" t="inlineStr">
+      <c r="C2" s="27" t="inlineStr">
         <is>
           <t>正常新增, 期限类型0, 还款方式4</t>
         </is>
       </c>
-      <c r="D2" s="31" t="inlineStr">
+      <c r="D2" s="24" t="inlineStr">
         <is>
           <t>add</t>
         </is>
       </c>
-      <c r="E2" s="32" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F2" s="31" t="inlineStr">
+      <c r="E2" s="27" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="24" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="G2" s="29" t="inlineStr">
+      <c r="G2" s="21" t="inlineStr">
         <is>
           <t>{"memberId":1001, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
         </is>
       </c>
-      <c r="H2" s="29" t="inlineStr">
+      <c r="H2" s="21" t="inlineStr">
         <is>
           <t>{"status":1,  "code":"10001", "data":None, "msg":"加标成功"}</t>
         </is>
       </c>
-      <c r="I2" s="32" t="n"/>
-    </row>
-    <row customFormat="1" r="3" s="26">
-      <c r="A3" s="31" t="n">
+      <c r="I2" s="27" t="n"/>
+    </row>
+    <row customFormat="1" r="3" s="19">
+      <c r="A3" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="n"/>
-      <c r="C3" s="32" t="inlineStr">
+      <c r="B3" s="25" t="n"/>
+      <c r="C3" s="27" t="inlineStr">
         <is>
           <t>正常新增, 期限类型2, 还款方式5</t>
         </is>
       </c>
-      <c r="D3" s="31" t="inlineStr">
+      <c r="D3" s="24" t="inlineStr">
         <is>
           <t>add</t>
         </is>
       </c>
-      <c r="E3" s="32" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F3" s="31" t="inlineStr">
+      <c r="E3" s="27" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F3" s="24" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="G3" s="29" t="inlineStr">
+      <c r="G3" s="21" t="inlineStr">
         <is>
           <t>{"memberId":1001, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":2, "repaymemtWay":5, "biddingDays":5}</t>
         </is>
       </c>
-      <c r="H3" s="29" t="inlineStr">
+      <c r="H3" s="21" t="inlineStr">
         <is>
           <t>{"status":1,  "code":"10001", "data":None, "msg":"加标成功"}</t>
         </is>
       </c>
-      <c r="I3" s="32" t="n"/>
-    </row>
-    <row customFormat="1" r="4" s="26">
-      <c r="A4" s="31" t="n">
+      <c r="I3" s="27" t="n"/>
+    </row>
+    <row customFormat="1" r="4" s="19">
+      <c r="A4" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="n"/>
-      <c r="C4" s="32" t="inlineStr">
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="27" t="inlineStr">
         <is>
           <t>正常新增, 期限类型4, 还款方式10</t>
         </is>
       </c>
-      <c r="D4" s="31" t="inlineStr">
+      <c r="D4" s="24" t="inlineStr">
         <is>
           <t>add</t>
         </is>
       </c>
-      <c r="E4" s="32" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F4" s="31" t="inlineStr">
+      <c r="E4" s="27" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F4" s="24" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="G4" s="29" t="inlineStr">
+      <c r="G4" s="21" t="inlineStr">
         <is>
           <t>{"memberId":1001, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":4, "repaymemtWay":10, "biddingDays":5}</t>
         </is>
       </c>
-      <c r="H4" s="29" t="inlineStr">
+      <c r="H4" s="21" t="inlineStr">
         <is>
           <t>{"status":1,  "code":"10001", "data":None, "msg":"加标成功"}</t>
         </is>
       </c>
-      <c r="I4" s="32" t="n"/>
-    </row>
-    <row customFormat="1" r="5" s="26">
-      <c r="A5" s="31" t="n">
+      <c r="I4" s="27" t="n"/>
+    </row>
+    <row customFormat="1" r="5" s="19">
+      <c r="A5" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="n"/>
-      <c r="C5" s="32" t="inlineStr">
+      <c r="B5" s="25" t="n"/>
+      <c r="C5" s="27" t="inlineStr">
         <is>
           <t>正常新增, 期限类型0, 还款方式11</t>
         </is>
       </c>
-      <c r="D5" s="31" t="inlineStr">
+      <c r="D5" s="24" t="inlineStr">
         <is>
           <t>add</t>
         </is>
       </c>
-      <c r="E5" s="32" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F5" s="31" t="inlineStr">
+      <c r="E5" s="27" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F5" s="24" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="G5" s="29" t="inlineStr">
+      <c r="G5" s="21" t="inlineStr">
         <is>
           <t>{"memberId":1001, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":11, "biddingDays":5}</t>
         </is>
       </c>
-      <c r="H5" s="29" t="inlineStr">
+      <c r="H5" s="21" t="inlineStr">
         <is>
           <t>{"status":1,  "code":"10001", "data":None, "msg":"加标成功"}</t>
         </is>
       </c>
-      <c r="I5" s="32" t="n"/>
-    </row>
-    <row customFormat="1" r="6" s="26">
-      <c r="A6" s="31" t="n">
+      <c r="I5" s="27" t="n"/>
+    </row>
+    <row customFormat="1" r="6" s="19">
+      <c r="A6" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="n"/>
-      <c r="C6" s="32" t="inlineStr">
+      <c r="B6" s="25" t="n"/>
+      <c r="C6" s="27" t="inlineStr">
         <is>
           <t>memberId为空</t>
         </is>
       </c>
-      <c r="D6" s="31" t="inlineStr">
+      <c r="D6" s="24" t="inlineStr">
         <is>
           <t>add</t>
         </is>
       </c>
-      <c r="E6" s="32" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F6" s="31" t="inlineStr">
+      <c r="E6" s="27" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F6" s="24" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="G6" s="29" t="inlineStr">
+      <c r="G6" s="21" t="inlineStr">
         <is>
           <t>{"memberId":, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
         </is>
       </c>
-      <c r="H6" s="29" t="inlineStr">
+      <c r="H6" s="21" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20103", "data":None, "msg":"参数错误:参数不能为空"}</t>
         </is>
       </c>
-      <c r="I6" s="32" t="n"/>
-    </row>
-    <row customFormat="1" r="7" s="26">
-      <c r="A7" s="31" t="n">
+      <c r="I6" s="27" t="n"/>
+    </row>
+    <row customFormat="1" r="7" s="19">
+      <c r="A7" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="34" t="n"/>
-      <c r="C7" s="32" t="inlineStr">
+      <c r="B7" s="25" t="n"/>
+      <c r="C7" s="27" t="inlineStr">
         <is>
           <t>title为空</t>
         </is>
       </c>
-      <c r="D7" s="31" t="inlineStr">
+      <c r="D7" s="24" t="inlineStr">
         <is>
           <t>add</t>
         </is>
       </c>
-      <c r="E7" s="32" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F7" s="31" t="inlineStr">
+      <c r="E7" s="27" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F7" s="24" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="G7" s="29" t="inlineStr">
+      <c r="G7" s="21" t="inlineStr">
         <is>
           <t>{"memberId":1001, "title":" ", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
         </is>
       </c>
-      <c r="H7" s="29" t="inlineStr">
+      <c r="H7" s="21" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20103", "data":None, "msg":"参数错误:参数不能为空"}</t>
         </is>
       </c>
-      <c r="I7" s="32" t="n"/>
-    </row>
-    <row customFormat="1" r="8" s="26">
-      <c r="A8" s="31" t="n">
+      <c r="I7" s="27" t="n"/>
+    </row>
+    <row customFormat="1" r="8" s="19">
+      <c r="A8" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="n"/>
-      <c r="C8" s="32" t="inlineStr">
+      <c r="B8" s="25" t="n"/>
+      <c r="C8" s="27" t="inlineStr">
         <is>
           <t>amount为空</t>
         </is>
       </c>
-      <c r="D8" s="31" t="inlineStr">
+      <c r="D8" s="24" t="inlineStr">
         <is>
           <t>add</t>
         </is>
       </c>
-      <c r="E8" s="32" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F8" s="31" t="inlineStr">
+      <c r="E8" s="27" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F8" s="24" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="G8" s="29" t="inlineStr">
+      <c r="G8" s="21" t="inlineStr">
         <is>
           <t>{"memberId":1001, "title":"借款开公司", "amount":, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
         </is>
       </c>
-      <c r="H8" s="29" t="inlineStr">
+      <c r="H8" s="21" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20103", "data":None, "msg":"参数错误:参数不能为空"}</t>
         </is>
       </c>
-      <c r="I8" s="32" t="n"/>
-    </row>
-    <row customFormat="1" r="9" s="26">
-      <c r="A9" s="31" t="n">
+      <c r="I8" s="27" t="n"/>
+    </row>
+    <row customFormat="1" r="9" s="19">
+      <c r="A9" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="n"/>
-      <c r="C9" s="32" t="inlineStr">
+      <c r="B9" s="25" t="n"/>
+      <c r="C9" s="27" t="inlineStr">
         <is>
           <t>loanRate为空</t>
         </is>
       </c>
-      <c r="D9" s="31" t="inlineStr">
+      <c r="D9" s="24" t="inlineStr">
         <is>
           <t>add</t>
         </is>
       </c>
-      <c r="E9" s="32" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F9" s="31" t="inlineStr">
+      <c r="E9" s="27" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F9" s="24" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="G9" s="29" t="inlineStr">
+      <c r="G9" s="21" t="inlineStr">
         <is>
           <t>{"memberId":1001, "title":"借款开公司", "amount":200000, "loanRate":, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
         </is>
       </c>
-      <c r="H9" s="29" t="inlineStr">
+      <c r="H9" s="21" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20103", "data":None, "msg":"参数错误:参数不能为空"}</t>
         </is>
       </c>
-      <c r="I9" s="32" t="n"/>
-    </row>
-    <row customFormat="1" r="10" s="26">
-      <c r="A10" s="31" t="n">
+      <c r="I9" s="27" t="n"/>
+    </row>
+    <row customFormat="1" r="10" s="19">
+      <c r="A10" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="n"/>
-      <c r="C10" s="32" t="inlineStr">
+      <c r="B10" s="25" t="n"/>
+      <c r="C10" s="27" t="inlineStr">
         <is>
           <t>loanRTerm为空</t>
         </is>
       </c>
-      <c r="D10" s="31" t="inlineStr">
+      <c r="D10" s="24" t="inlineStr">
         <is>
           <t>add</t>
         </is>
       </c>
-      <c r="E10" s="32" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F10" s="31" t="inlineStr">
+      <c r="E10" s="27" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F10" s="24" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="G10" s="29" t="inlineStr">
+      <c r="G10" s="21" t="inlineStr">
         <is>
           <t>{"memberId":1001, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
         </is>
       </c>
-      <c r="H10" s="29" t="inlineStr">
+      <c r="H10" s="21" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20103", "data":None, "msg":"参数错误:参数不能为空"}</t>
         </is>
       </c>
-      <c r="I10" s="32" t="n"/>
-    </row>
-    <row customFormat="1" r="11" s="26">
-      <c r="A11" s="31" t="n">
+      <c r="I10" s="27" t="n"/>
+    </row>
+    <row customFormat="1" r="11" s="19">
+      <c r="A11" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="34" t="n"/>
-      <c r="C11" s="32" t="inlineStr">
+      <c r="B11" s="25" t="n"/>
+      <c r="C11" s="27" t="inlineStr">
         <is>
           <t>loanDateType为空</t>
         </is>
       </c>
-      <c r="D11" s="31" t="inlineStr">
+      <c r="D11" s="24" t="inlineStr">
         <is>
           <t>add</t>
         </is>
       </c>
-      <c r="E11" s="32" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F11" s="31" t="inlineStr">
+      <c r="E11" s="27" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F11" s="24" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="G11" s="29" t="inlineStr">
+      <c r="G11" s="21" t="inlineStr">
         <is>
           <t>{"memberId":1001, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":, "repaymemtWay":4, "biddingDays":5}</t>
         </is>
       </c>
-      <c r="H11" s="29" t="inlineStr">
+      <c r="H11" s="21" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20103", "data":None, "msg":"参数错误:参数不能为空"}</t>
         </is>
       </c>
-      <c r="I11" s="32" t="n"/>
-    </row>
-    <row customFormat="1" r="12" s="26">
-      <c r="A12" s="31" t="n">
+      <c r="I11" s="27" t="n"/>
+    </row>
+    <row customFormat="1" r="12" s="19">
+      <c r="A12" s="24" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="34" t="n"/>
-      <c r="C12" s="32" t="inlineStr">
+      <c r="B12" s="25" t="n"/>
+      <c r="C12" s="27" t="inlineStr">
         <is>
           <t>repaymemtWay为空</t>
         </is>
       </c>
-      <c r="D12" s="31" t="inlineStr">
+      <c r="D12" s="24" t="inlineStr">
         <is>
           <t>add</t>
         </is>
       </c>
-      <c r="E12" s="32" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F12" s="31" t="inlineStr">
+      <c r="E12" s="27" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F12" s="24" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="G12" s="29" t="inlineStr">
+      <c r="G12" s="21" t="inlineStr">
         <is>
           <t>{"memberId":1001, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":, "biddingDays":}</t>
         </is>
       </c>
-      <c r="H12" s="29" t="inlineStr">
+      <c r="H12" s="21" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20103", "data":None, "msg":"参数错误:参数不能为空"}</t>
         </is>
       </c>
-      <c r="I12" s="32" t="n"/>
-    </row>
-    <row customFormat="1" r="13" s="26">
-      <c r="A13" s="31" t="n">
+      <c r="I12" s="27" t="n"/>
+    </row>
+    <row customFormat="1" r="13" s="19">
+      <c r="A13" s="24" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="34" t="n"/>
-      <c r="C13" s="32" t="inlineStr">
+      <c r="B13" s="25" t="n"/>
+      <c r="C13" s="27" t="inlineStr">
         <is>
           <t>biddingDays为空</t>
         </is>
       </c>
-      <c r="D13" s="31" t="inlineStr">
+      <c r="D13" s="24" t="inlineStr">
         <is>
           <t>add</t>
         </is>
       </c>
-      <c r="E13" s="32" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F13" s="31" t="inlineStr">
+      <c r="E13" s="27" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F13" s="24" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="G13" s="29" t="inlineStr">
+      <c r="G13" s="21" t="inlineStr">
         <is>
           <t>{"memberId":1001, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
         </is>
       </c>
-      <c r="H13" s="29" t="inlineStr">
+      <c r="H13" s="21" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20103", "data":None, "msg":"参数错误:参数不能为空"}</t>
         </is>
       </c>
-      <c r="I13" s="32" t="n"/>
-    </row>
-    <row customFormat="1" r="14" s="26">
-      <c r="A14" s="31" t="n">
+      <c r="I13" s="27" t="n"/>
+    </row>
+    <row customFormat="1" r="14" s="19">
+      <c r="A14" s="24" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="34" t="n"/>
-      <c r="C14" s="32" t="inlineStr">
+      <c r="B14" s="25" t="n"/>
+      <c r="C14" s="27" t="inlineStr">
         <is>
           <t>memberId为0</t>
         </is>
       </c>
-      <c r="D14" s="31" t="inlineStr">
+      <c r="D14" s="24" t="inlineStr">
         <is>
           <t>add</t>
         </is>
       </c>
-      <c r="E14" s="32" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F14" s="31" t="inlineStr">
+      <c r="E14" s="27" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F14" s="24" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="G14" s="29" t="inlineStr">
+      <c r="G14" s="21" t="inlineStr">
         <is>
           <t>{"memberId":0, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
         </is>
       </c>
-      <c r="H14" s="29" t="inlineStr">
+      <c r="H14" s="21" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20104", "data":None, "msg":"参数错误：用户 ID memberId 必须是正整数"}</t>
         </is>
       </c>
-      <c r="I14" s="32" t="n"/>
-    </row>
-    <row customFormat="1" r="15" s="26">
-      <c r="A15" s="31" t="n">
+      <c r="I14" s="27" t="n"/>
+    </row>
+    <row customFormat="1" r="15" s="19">
+      <c r="A15" s="24" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="34" t="n"/>
-      <c r="C15" s="32" t="inlineStr">
+      <c r="B15" s="25" t="n"/>
+      <c r="C15" s="27" t="inlineStr">
         <is>
           <t>memberId为负数</t>
         </is>
       </c>
-      <c r="D15" s="31" t="inlineStr">
+      <c r="D15" s="24" t="inlineStr">
         <is>
           <t>add</t>
         </is>
       </c>
-      <c r="E15" s="32" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F15" s="31" t="inlineStr">
+      <c r="E15" s="27" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F15" s="24" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="G15" s="29" t="inlineStr">
+      <c r="G15" s="21" t="inlineStr">
         <is>
           <t>{"memberId":-1001, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
         </is>
       </c>
-      <c r="H15" s="29" t="inlineStr">
+      <c r="H15" s="21" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20104", "data":None, "msg":"参数错误：用户 ID memberId 必须是正整数"}</t>
         </is>
       </c>
-      <c r="I15" s="32" t="n"/>
-    </row>
-    <row customFormat="1" r="16" s="26">
-      <c r="A16" s="31" t="n">
+      <c r="I15" s="27" t="n"/>
+    </row>
+    <row customFormat="1" r="16" s="19">
+      <c r="A16" s="24" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="34" t="n"/>
-      <c r="C16" s="32" t="inlineStr">
+      <c r="B16" s="25" t="n"/>
+      <c r="C16" s="27" t="inlineStr">
         <is>
           <t>memberId不存在（未注册）</t>
         </is>
       </c>
-      <c r="D16" s="31" t="inlineStr">
+      <c r="D16" s="24" t="inlineStr">
         <is>
           <t>add</t>
         </is>
       </c>
-      <c r="E16" s="32" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F16" s="31" t="inlineStr">
+      <c r="E16" s="27" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F16" s="24" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="G16" s="29" t="inlineStr">
+      <c r="G16" s="21" t="inlineStr">
         <is>
           <t>{"memberId":0001, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
         </is>
       </c>
-      <c r="H16" s="29" t="inlineStr">
+      <c r="H16" s="21" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20105", "data":None, "msg":"不存在该会员"}</t>
         </is>
       </c>
-      <c r="I16" s="32" t="n"/>
-    </row>
-    <row customFormat="1" r="17" s="26">
-      <c r="A17" s="31" t="n">
+      <c r="I16" s="27" t="n"/>
+    </row>
+    <row customFormat="1" r="17" s="19">
+      <c r="A17" s="24" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="34" t="n"/>
-      <c r="C17" s="32" t="inlineStr">
+      <c r="B17" s="25" t="n"/>
+      <c r="C17" s="27" t="inlineStr">
         <is>
           <t>amount低于1000</t>
         </is>
       </c>
-      <c r="D17" s="31" t="inlineStr">
+      <c r="D17" s="24" t="inlineStr">
         <is>
           <t>add</t>
         </is>
       </c>
-      <c r="E17" s="32" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F17" s="31" t="inlineStr">
+      <c r="E17" s="27" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F17" s="24" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="G17" s="29" t="inlineStr">
+      <c r="G17" s="21" t="inlineStr">
         <is>
           <t>{"memberId":1002, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
         </is>
       </c>
-      <c r="H17" s="29" t="inlineStr">
+      <c r="H17" s="21" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20106", "data":None, "msg":"参数错误：借款金额 amount 必须为大于 1000 并能被 100 整除的正整数"}</t>
         </is>
       </c>
-      <c r="I17" s="32" t="n"/>
-    </row>
-    <row customFormat="1" r="18" s="26">
-      <c r="A18" s="31" t="n">
+      <c r="I17" s="27" t="n"/>
+    </row>
+    <row customFormat="1" r="18" s="19">
+      <c r="A18" s="24" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="34" t="n"/>
-      <c r="C18" s="32" t="inlineStr">
+      <c r="B18" s="25" t="n"/>
+      <c r="C18" s="27" t="inlineStr">
         <is>
           <t>amount非100整数</t>
         </is>
       </c>
-      <c r="D18" s="31" t="inlineStr">
+      <c r="D18" s="24" t="inlineStr">
         <is>
           <t>add</t>
         </is>
       </c>
-      <c r="E18" s="32" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F18" s="31" t="inlineStr">
+      <c r="E18" s="27" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F18" s="24" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="G18" s="29" t="inlineStr">
+      <c r="G18" s="21" t="inlineStr">
         <is>
           <t>{"memberId":1003, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
         </is>
       </c>
-      <c r="H18" s="29" t="inlineStr">
+      <c r="H18" s="21" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20106", "data":None, "msg":"参数错误：借款金额 amount 必须为大于 1000 并能被 100 整除的正整数"}</t>
         </is>
       </c>
-      <c r="I18" s="32" t="n"/>
-    </row>
-    <row customFormat="1" r="19" s="26">
-      <c r="A19" s="31" t="n">
+      <c r="I18" s="27" t="n"/>
+    </row>
+    <row customFormat="1" r="19" s="19">
+      <c r="A19" s="24" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="34" t="n"/>
-      <c r="C19" s="32" t="inlineStr">
+      <c r="B19" s="25" t="n"/>
+      <c r="C19" s="27" t="inlineStr">
         <is>
           <t>loanRate为0</t>
         </is>
       </c>
-      <c r="D19" s="31" t="inlineStr">
+      <c r="D19" s="24" t="inlineStr">
         <is>
           <t>add</t>
         </is>
       </c>
-      <c r="E19" s="32" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F19" s="31" t="inlineStr">
+      <c r="E19" s="27" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F19" s="24" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="G19" s="29" t="inlineStr">
+      <c r="G19" s="21" t="inlineStr">
         <is>
           <t>{"memberId":1003, "title":"借款开公司", "amount":200000, "loanRate":0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
         </is>
       </c>
-      <c r="H19" s="29" t="inlineStr">
+      <c r="H19" s="21" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20107", "data":None, "msg":"参数错误：借款利率 loanRate 值必须大于 0 小于或等于 24"}</t>
         </is>
       </c>
-      <c r="I19" s="32" t="n"/>
-    </row>
-    <row customFormat="1" r="20" s="26">
-      <c r="A20" s="31" t="n">
+      <c r="I19" s="27" t="n"/>
+    </row>
+    <row customFormat="1" r="20" s="19">
+      <c r="A20" s="24" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="34" t="n"/>
-      <c r="C20" s="32" t="inlineStr">
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="27" t="inlineStr">
         <is>
           <t>loanRate为负数</t>
         </is>
       </c>
-      <c r="D20" s="31" t="inlineStr">
+      <c r="D20" s="24" t="inlineStr">
         <is>
           <t>add</t>
         </is>
       </c>
-      <c r="E20" s="32" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F20" s="31" t="inlineStr">
+      <c r="E20" s="27" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F20" s="24" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="G20" s="29" t="inlineStr">
+      <c r="G20" s="21" t="inlineStr">
         <is>
           <t>{"memberId":1003, "title":"借款开公司", "amount":200000, "loanRate":-0.1, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
         </is>
       </c>
-      <c r="H20" s="29" t="inlineStr">
+      <c r="H20" s="21" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20107", "data":None, "msg":"参数错误：借款利率 loanRate 值必须大于 0 小于或等于 24"}</t>
         </is>
       </c>
-      <c r="I20" s="32" t="n"/>
-    </row>
-    <row customFormat="1" r="21" s="26">
-      <c r="A21" s="31" t="n">
+      <c r="I20" s="27" t="n"/>
+    </row>
+    <row customFormat="1" r="21" s="19">
+      <c r="A21" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="34" t="n"/>
-      <c r="C21" s="32" t="inlineStr">
+      <c r="B21" s="25" t="n"/>
+      <c r="C21" s="27" t="inlineStr">
         <is>
           <t>loanRate大于24</t>
         </is>
       </c>
-      <c r="D21" s="31" t="inlineStr">
+      <c r="D21" s="24" t="inlineStr">
         <is>
           <t>add</t>
         </is>
       </c>
-      <c r="E21" s="32" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F21" s="31" t="inlineStr">
+      <c r="E21" s="27" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F21" s="24" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="G21" s="29" t="inlineStr">
+      <c r="G21" s="21" t="inlineStr">
         <is>
           <t>{"memberId":1003, "title":"借款开公司", "amount":200000, "loanRate":24.1, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
         </is>
       </c>
-      <c r="H21" s="29" t="inlineStr">
+      <c r="H21" s="21" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20107", "data":None, "msg":"参数错误：借款利率 loanRate 值必须大于 0 小于或等于 24"}</t>
         </is>
       </c>
-      <c r="I21" s="32" t="n"/>
-    </row>
-    <row customFormat="1" r="22" s="26">
-      <c r="A22" s="31" t="n">
+      <c r="I21" s="27" t="n"/>
+    </row>
+    <row customFormat="1" r="22" s="19">
+      <c r="A22" s="24" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="34" t="n"/>
-      <c r="C22" s="32" t="inlineStr">
+      <c r="B22" s="25" t="n"/>
+      <c r="C22" s="27" t="inlineStr">
         <is>
           <t>loanDateType非法</t>
         </is>
       </c>
-      <c r="D22" s="31" t="inlineStr">
+      <c r="D22" s="24" t="inlineStr">
         <is>
           <t>add</t>
         </is>
       </c>
-      <c r="E22" s="32" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F22" s="31" t="inlineStr">
+      <c r="E22" s="27" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F22" s="24" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="G22" s="29" t="inlineStr">
+      <c r="G22" s="21" t="inlineStr">
         <is>
           <t>{"memberId":1001, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":1, "repaymemtWay":4, "biddingDays":5}</t>
         </is>
       </c>
-      <c r="H22" s="29" t="inlineStr">
+      <c r="H22" s="21" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20108", "data":None, "msg":"参 数 错 误 ： 借 款 日 期 类 型loanDateType 只能为 0, 2, 4"}</t>
         </is>
       </c>
-      <c r="I22" s="32" t="n"/>
-    </row>
-    <row customFormat="1" r="23" s="26">
-      <c r="A23" s="31" t="n">
+      <c r="I22" s="27" t="n"/>
+    </row>
+    <row customFormat="1" r="23" s="19">
+      <c r="A23" s="24" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="34" t="n"/>
-      <c r="C23" s="32" t="inlineStr">
+      <c r="B23" s="25" t="n"/>
+      <c r="C23" s="27" t="inlineStr">
         <is>
           <t>memberId数据类型非法</t>
         </is>
       </c>
-      <c r="D23" s="31" t="inlineStr">
+      <c r="D23" s="24" t="inlineStr">
         <is>
           <t>add</t>
         </is>
       </c>
-      <c r="E23" s="32" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F23" s="31" t="inlineStr">
+      <c r="E23" s="27" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F23" s="24" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="G23" s="29" t="inlineStr">
+      <c r="G23" s="21" t="inlineStr">
         <is>
           <t>{"memberId":"1001", "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
         </is>
       </c>
-      <c r="H23" s="29" t="inlineStr">
+      <c r="H23" s="21" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20109", "data":None, "msg":"参数错误：请根据参数类型对应输入, 数值类型只能输入数字"}</t>
         </is>
       </c>
-      <c r="I23" s="32" t="n"/>
-    </row>
-    <row customFormat="1" r="24" s="26">
-      <c r="A24" s="31" t="n">
+      <c r="I23" s="27" t="n"/>
+    </row>
+    <row customFormat="1" r="24" s="19">
+      <c r="A24" s="24" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="34" t="n"/>
-      <c r="C24" s="32" t="inlineStr">
+      <c r="B24" s="25" t="n"/>
+      <c r="C24" s="27" t="inlineStr">
         <is>
           <t>title数据类型非法</t>
         </is>
       </c>
-      <c r="D24" s="31" t="inlineStr">
+      <c r="D24" s="24" t="inlineStr">
         <is>
           <t>add</t>
         </is>
       </c>
-      <c r="E24" s="32" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F24" s="31" t="inlineStr">
+      <c r="E24" s="27" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F24" s="24" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="G24" s="29" t="inlineStr">
+      <c r="G24" s="21" t="inlineStr">
         <is>
           <t>{"memberId":1001, "title":123, "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
         </is>
       </c>
-      <c r="H24" s="29" t="inlineStr">
+      <c r="H24" s="21" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20109", "data":None, "msg":"参数错误：请根据参数类型对应输入, 数值类型只能输入数字"}</t>
         </is>
       </c>
-      <c r="I24" s="32" t="n"/>
-    </row>
-    <row customFormat="1" r="25" s="26">
-      <c r="A25" s="31" t="n">
+      <c r="I24" s="27" t="n"/>
+    </row>
+    <row customFormat="1" r="25" s="19">
+      <c r="A25" s="24" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="34" t="n"/>
-      <c r="C25" s="32" t="inlineStr">
+      <c r="B25" s="25" t="n"/>
+      <c r="C25" s="27" t="inlineStr">
         <is>
           <t>amount数据类型非法</t>
         </is>
       </c>
-      <c r="D25" s="31" t="inlineStr">
+      <c r="D25" s="24" t="inlineStr">
         <is>
           <t>add</t>
         </is>
       </c>
-      <c r="E25" s="32" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F25" s="31" t="inlineStr">
+      <c r="E25" s="27" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F25" s="24" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="G25" s="29" t="inlineStr">
+      <c r="G25" s="21" t="inlineStr">
         <is>
           <t>{"memberId":1001, "title":"借款投资", "amount":"200000", "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
         </is>
       </c>
-      <c r="H25" s="29" t="inlineStr">
+      <c r="H25" s="21" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20109", "data":None, "msg":"参数错误：请根据参数类型对应输入, 数值类型只能输入数字"}</t>
         </is>
       </c>
-      <c r="I25" s="32" t="n"/>
-    </row>
-    <row customFormat="1" r="26" s="26">
-      <c r="A26" s="31" t="n">
+      <c r="I25" s="27" t="n"/>
+    </row>
+    <row customFormat="1" r="26" s="19">
+      <c r="A26" s="24" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="34" t="n"/>
-      <c r="C26" s="32" t="inlineStr">
+      <c r="B26" s="25" t="n"/>
+      <c r="C26" s="27" t="inlineStr">
         <is>
           <t>loanRate数据类型非法</t>
         </is>
       </c>
-      <c r="D26" s="31" t="inlineStr">
+      <c r="D26" s="24" t="inlineStr">
         <is>
           <t>add</t>
         </is>
       </c>
-      <c r="E26" s="32" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F26" s="31" t="inlineStr">
+      <c r="E26" s="27" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F26" s="24" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="G26" s="29" t="inlineStr">
+      <c r="G26" s="21" t="inlineStr">
         <is>
           <t>{"memberId":1001, "title":"借款投资", "amount":200000, "loanRate":"18.0", "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
         </is>
       </c>
-      <c r="H26" s="29" t="inlineStr">
+      <c r="H26" s="21" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20109", "data":None, "msg":"参数错误：请根据参数类型对应输入, 数值类型只能输入数字"}</t>
         </is>
       </c>
-      <c r="I26" s="32" t="n"/>
-    </row>
-    <row customFormat="1" r="27" s="26">
-      <c r="A27" s="31" t="n">
+      <c r="I26" s="27" t="n"/>
+    </row>
+    <row customFormat="1" r="27" s="19">
+      <c r="A27" s="24" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="34" t="n"/>
-      <c r="C27" s="32" t="inlineStr">
+      <c r="B27" s="25" t="n"/>
+      <c r="C27" s="27" t="inlineStr">
         <is>
           <t>loanRTerm数据类型非法</t>
         </is>
       </c>
-      <c r="D27" s="31" t="inlineStr">
+      <c r="D27" s="24" t="inlineStr">
         <is>
           <t>add</t>
         </is>
       </c>
-      <c r="E27" s="32" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F27" s="31" t="inlineStr">
+      <c r="E27" s="27" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F27" s="24" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="G27" s="29" t="inlineStr">
+      <c r="G27" s="21" t="inlineStr">
         <is>
           <t>{"memberId":1001, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":"6", "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
         </is>
       </c>
-      <c r="H27" s="29" t="inlineStr">
+      <c r="H27" s="21" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20109", "data":None, "msg":"参数错误：请根据参数类型对应输入, 数值类型只能输入数字"}</t>
         </is>
       </c>
-      <c r="I27" s="32" t="n"/>
-    </row>
-    <row customFormat="1" r="28" s="26">
-      <c r="A28" s="31" t="n">
+      <c r="I27" s="27" t="n"/>
+    </row>
+    <row customFormat="1" r="28" s="19">
+      <c r="A28" s="24" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="34" t="n"/>
-      <c r="C28" s="32" t="inlineStr">
+      <c r="B28" s="25" t="n"/>
+      <c r="C28" s="27" t="inlineStr">
         <is>
           <t>loanDateType数据类型非法</t>
         </is>
       </c>
-      <c r="D28" s="31" t="inlineStr">
+      <c r="D28" s="24" t="inlineStr">
         <is>
           <t>add</t>
         </is>
       </c>
-      <c r="E28" s="32" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F28" s="31" t="inlineStr">
+      <c r="E28" s="27" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F28" s="24" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="G28" s="29" t="inlineStr">
+      <c r="G28" s="21" t="inlineStr">
         <is>
           <t>{"memberId":1001, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":"0", "repaymemtWay":4, "biddingDays":5}</t>
         </is>
       </c>
-      <c r="H28" s="29" t="inlineStr">
+      <c r="H28" s="21" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20109", "data":None, "msg":"参数错误：请根据参数类型对应输入, 数值类型只能输入数字"}</t>
         </is>
       </c>
-      <c r="I28" s="32" t="n"/>
-    </row>
-    <row customFormat="1" r="29" s="26">
-      <c r="A29" s="31" t="n">
+      <c r="I28" s="27" t="n"/>
+    </row>
+    <row customFormat="1" r="29" s="19">
+      <c r="A29" s="24" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="34" t="n"/>
-      <c r="C29" s="32" t="inlineStr">
+      <c r="B29" s="25" t="n"/>
+      <c r="C29" s="27" t="inlineStr">
         <is>
           <t>repaymemtWay数据类型非法</t>
         </is>
       </c>
-      <c r="D29" s="31" t="inlineStr">
+      <c r="D29" s="24" t="inlineStr">
         <is>
           <t>add</t>
         </is>
       </c>
-      <c r="E29" s="32" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F29" s="31" t="inlineStr">
+      <c r="E29" s="27" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F29" s="24" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="G29" s="29" t="inlineStr">
+      <c r="G29" s="21" t="inlineStr">
         <is>
           <t>{"memberId":1001, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":"4", "biddingDays":5}</t>
         </is>
       </c>
-      <c r="H29" s="29" t="inlineStr">
+      <c r="H29" s="21" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20109", "data":None, "msg":"参数错误：请根据参数类型对应输入, 数值类型只能输入数字"}</t>
         </is>
       </c>
-      <c r="I29" s="32" t="n"/>
-    </row>
-    <row customFormat="1" r="30" s="26">
-      <c r="A30" s="31" t="n">
+      <c r="I29" s="27" t="n"/>
+    </row>
+    <row customFormat="1" r="30" s="19">
+      <c r="A30" s="24" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="35" t="n"/>
-      <c r="C30" s="32" t="inlineStr">
+      <c r="B30" s="26" t="n"/>
+      <c r="C30" s="27" t="inlineStr">
         <is>
           <t>biddingDays数据类型非法</t>
         </is>
       </c>
-      <c r="D30" s="31" t="inlineStr">
+      <c r="D30" s="24" t="inlineStr">
         <is>
           <t>add</t>
         </is>
       </c>
-      <c r="E30" s="32" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F30" s="31" t="inlineStr">
+      <c r="E30" s="27" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F30" s="24" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="G30" s="29" t="inlineStr">
+      <c r="G30" s="21" t="inlineStr">
         <is>
           <t>{"memberId":1001, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":"5"}</t>
         </is>
       </c>
-      <c r="H30" s="29" t="inlineStr">
+      <c r="H30" s="21" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20109", "data":None, "msg":"参数错误：请根据参数类型对应输入, 数值类型只能输入数字"}</t>
         </is>
       </c>
-      <c r="I30" s="32" t="n"/>
+      <c r="I30" s="27" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6316,882 +6475,883 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="17.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="26" width="9.21875"/>
-    <col customWidth="1" max="2" min="2" style="26" width="12.5546875"/>
-    <col customWidth="1" max="3" min="3" style="16" width="34.109375"/>
-    <col customWidth="1" max="4" min="4" style="16" width="11.77734375"/>
-    <col customWidth="1" max="5" min="5" style="16" width="10.21875"/>
-    <col customWidth="1" max="6" min="6" style="26" width="21.33203125"/>
-    <col customWidth="1" max="7" min="7" style="26" width="30.6640625"/>
-    <col customWidth="1" max="8" min="8" style="26" width="131.44140625"/>
-    <col customWidth="1" max="9" min="9" style="26" width="10.33203125"/>
-    <col customWidth="1" max="16384" min="10" style="26" width="8.88671875"/>
+    <col customWidth="1" max="1" min="1" style="19" width="9.21875"/>
+    <col customWidth="1" max="2" min="2" style="19" width="12.5546875"/>
+    <col customWidth="1" max="3" min="3" style="12" width="34.109375"/>
+    <col customWidth="1" max="4" min="4" style="12" width="11.77734375"/>
+    <col customWidth="1" max="5" min="5" style="12" width="10.21875"/>
+    <col customWidth="1" max="6" min="6" style="19" width="21.33203125"/>
+    <col customWidth="1" max="7" min="7" style="19" width="30.6640625"/>
+    <col customWidth="1" max="8" min="8" style="19" width="131.44140625"/>
+    <col customWidth="1" max="9" min="9" style="19" width="10.33203125"/>
+    <col customWidth="1" max="15" min="10" style="19" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="16" style="19" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="inlineStr">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>api_name</t>
         </is>
       </c>
-      <c r="E1" s="12" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="12" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G1" s="12" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>request_data</t>
         </is>
       </c>
-      <c r="H1" s="12" t="inlineStr">
+      <c r="H1" s="11" t="inlineStr">
         <is>
           <t>expected_data</t>
         </is>
       </c>
-      <c r="I1" s="12" t="inlineStr">
+      <c r="I1" s="11" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="31" t="n">
+      <c r="A2" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="inlineStr">
+      <c r="B2" s="24" t="inlineStr">
         <is>
           <t>审核</t>
         </is>
       </c>
-      <c r="C2" s="31" t="inlineStr">
+      <c r="C2" s="24" t="inlineStr">
         <is>
           <t>审核中</t>
         </is>
       </c>
-      <c r="D2" s="31" t="inlineStr">
+      <c r="D2" s="24" t="inlineStr">
         <is>
           <t>audit</t>
         </is>
       </c>
-      <c r="E2" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F2" s="31" t="inlineStr">
+      <c r="E2" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="24" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="G2" s="31" t="inlineStr">
+      <c r="G2" s="24" t="inlineStr">
         <is>
           <t>{"id":2001, "status ":1}</t>
         </is>
       </c>
-      <c r="H2" s="31" t="inlineStr">
+      <c r="H2" s="24" t="inlineStr">
         <is>
           <t>{"status":1,  "code":"10001", "data":None, "msg":"审核成功"}</t>
         </is>
       </c>
-      <c r="I2" s="31" t="n"/>
+      <c r="I2" s="24" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="31" t="n">
+      <c r="A3" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="n"/>
-      <c r="C3" s="31" t="inlineStr">
+      <c r="B3" s="25" t="n"/>
+      <c r="C3" s="24" t="inlineStr">
         <is>
           <t>二审（初审中）</t>
         </is>
       </c>
-      <c r="D3" s="31" t="inlineStr">
+      <c r="D3" s="24" t="inlineStr">
         <is>
           <t>audit</t>
         </is>
       </c>
-      <c r="E3" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F3" s="31" t="inlineStr">
+      <c r="E3" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F3" s="24" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="G3" s="31" t="inlineStr">
+      <c r="G3" s="24" t="inlineStr">
         <is>
           <t>{"id":2001, "status ":2}</t>
         </is>
       </c>
-      <c r="H3" s="31" t="inlineStr">
+      <c r="H3" s="24" t="inlineStr">
         <is>
           <t>{"status":1,  "code":"10001", "data":None, "msg":"审核成功"}</t>
         </is>
       </c>
-      <c r="I3" s="31" t="n"/>
+      <c r="I3" s="24" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="31" t="n">
+      <c r="A4" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="n"/>
-      <c r="C4" s="31" t="inlineStr">
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="24" t="inlineStr">
         <is>
           <t>三审（复审中）</t>
         </is>
       </c>
-      <c r="D4" s="31" t="inlineStr">
+      <c r="D4" s="24" t="inlineStr">
         <is>
           <t>audit</t>
         </is>
       </c>
-      <c r="E4" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F4" s="31" t="inlineStr">
+      <c r="E4" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F4" s="24" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="G4" s="31" t="inlineStr">
+      <c r="G4" s="24" t="inlineStr">
         <is>
           <t>{"id":2001, "status ":3}</t>
         </is>
       </c>
-      <c r="H4" s="31" t="inlineStr">
+      <c r="H4" s="24" t="inlineStr">
         <is>
           <t>{"status":1,  "code":"10001", "data":None, "msg":"审核成功"}</t>
         </is>
       </c>
-      <c r="I4" s="31" t="n"/>
+      <c r="I4" s="24" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="31" t="n">
+      <c r="A5" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="n"/>
-      <c r="C5" s="31" t="inlineStr">
+      <c r="B5" s="25" t="n"/>
+      <c r="C5" s="24" t="inlineStr">
         <is>
           <t>竞标中</t>
         </is>
       </c>
-      <c r="D5" s="31" t="inlineStr">
+      <c r="D5" s="24" t="inlineStr">
         <is>
           <t>audit</t>
         </is>
       </c>
-      <c r="E5" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F5" s="31" t="inlineStr">
+      <c r="E5" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F5" s="24" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="G5" s="31" t="inlineStr">
+      <c r="G5" s="24" t="inlineStr">
         <is>
           <t>{"id":2001, "status ":4}</t>
         </is>
       </c>
-      <c r="H5" s="31" t="inlineStr">
+      <c r="H5" s="24" t="inlineStr">
         <is>
           <t>{"status":1,  "code":"10001", "data":None, "msg":"审核成功"}</t>
         </is>
       </c>
-      <c r="I5" s="31" t="n"/>
+      <c r="I5" s="24" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="31" t="n">
+      <c r="A6" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="n"/>
-      <c r="C6" s="31" t="inlineStr">
+      <c r="B6" s="25" t="n"/>
+      <c r="C6" s="24" t="inlineStr">
         <is>
           <t>核保审批</t>
         </is>
       </c>
-      <c r="D6" s="31" t="inlineStr">
+      <c r="D6" s="24" t="inlineStr">
         <is>
           <t>audit</t>
         </is>
       </c>
-      <c r="E6" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F6" s="31" t="inlineStr">
+      <c r="E6" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F6" s="24" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="G6" s="31" t="inlineStr">
+      <c r="G6" s="24" t="inlineStr">
         <is>
           <t>{"id":2001, "status ":5}</t>
         </is>
       </c>
-      <c r="H6" s="31" t="inlineStr">
+      <c r="H6" s="24" t="inlineStr">
         <is>
           <t>{"status":1,  "code":"10001", "data":None, "msg":"审核成功"}</t>
         </is>
       </c>
-      <c r="I6" s="31" t="n"/>
+      <c r="I6" s="24" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="31" t="n">
+      <c r="A7" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="34" t="n"/>
-      <c r="C7" s="31" t="inlineStr">
+      <c r="B7" s="25" t="n"/>
+      <c r="C7" s="24" t="inlineStr">
         <is>
           <t>平台终审</t>
         </is>
       </c>
-      <c r="D7" s="31" t="inlineStr">
+      <c r="D7" s="24" t="inlineStr">
         <is>
           <t>audit</t>
         </is>
       </c>
-      <c r="E7" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F7" s="31" t="inlineStr">
+      <c r="E7" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F7" s="24" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="G7" s="31" t="inlineStr">
+      <c r="G7" s="24" t="inlineStr">
         <is>
           <t>{"id":2001, "status ":6}</t>
         </is>
       </c>
-      <c r="H7" s="31" t="inlineStr">
+      <c r="H7" s="24" t="inlineStr">
         <is>
           <t>{"status":1,  "code":"10001", "data":None, "msg":"审核成功"}</t>
         </is>
       </c>
-      <c r="I7" s="31" t="n"/>
+      <c r="I7" s="24" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="31" t="n">
+      <c r="A8" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="n"/>
-      <c r="C8" s="31" t="inlineStr">
+      <c r="B8" s="25" t="n"/>
+      <c r="C8" s="24" t="inlineStr">
         <is>
           <t>审核不通过</t>
         </is>
       </c>
-      <c r="D8" s="31" t="inlineStr">
+      <c r="D8" s="24" t="inlineStr">
         <is>
           <t>audit</t>
         </is>
       </c>
-      <c r="E8" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F8" s="31" t="inlineStr">
+      <c r="E8" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F8" s="24" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="G8" s="31" t="inlineStr">
+      <c r="G8" s="24" t="inlineStr">
         <is>
           <t>{"id":2001, "status ":8}</t>
         </is>
       </c>
-      <c r="H8" s="31" t="inlineStr">
+      <c r="H8" s="24" t="inlineStr">
         <is>
           <t>{"status":1,  "code":"10001", "data":None, "msg":"审核成功"}</t>
         </is>
       </c>
-      <c r="I8" s="31" t="n"/>
+      <c r="I8" s="24" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="31" t="n">
+      <c r="A9" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="n"/>
-      <c r="C9" s="31" t="inlineStr">
+      <c r="B9" s="25" t="n"/>
+      <c r="C9" s="24" t="inlineStr">
         <is>
           <t>流标</t>
         </is>
       </c>
-      <c r="D9" s="31" t="inlineStr">
+      <c r="D9" s="24" t="inlineStr">
         <is>
           <t>audit</t>
         </is>
       </c>
-      <c r="E9" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F9" s="31" t="inlineStr">
+      <c r="E9" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F9" s="24" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="G9" s="31" t="inlineStr">
+      <c r="G9" s="24" t="inlineStr">
         <is>
           <t>{"id":2001, "status ":9}</t>
         </is>
       </c>
-      <c r="H9" s="31" t="inlineStr">
+      <c r="H9" s="24" t="inlineStr">
         <is>
           <t>{"status":1,  "code":"10001", "data":None, "msg":"审核成功"}</t>
         </is>
       </c>
-      <c r="I9" s="31" t="n"/>
+      <c r="I9" s="24" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="31" t="n">
+      <c r="A10" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="n"/>
-      <c r="C10" s="31" t="inlineStr">
+      <c r="B10" s="25" t="n"/>
+      <c r="C10" s="24" t="inlineStr">
         <is>
           <t>申请流标</t>
         </is>
       </c>
-      <c r="D10" s="31" t="inlineStr">
+      <c r="D10" s="24" t="inlineStr">
         <is>
           <t>audit</t>
         </is>
       </c>
-      <c r="E10" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F10" s="31" t="inlineStr">
+      <c r="E10" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F10" s="24" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="G10" s="31" t="inlineStr">
+      <c r="G10" s="24" t="inlineStr">
         <is>
           <t>{"id":2001, "status ":11}</t>
         </is>
       </c>
-      <c r="H10" s="31" t="inlineStr">
+      <c r="H10" s="24" t="inlineStr">
         <is>
           <t>{"status":1,  "code":"10001", "data":None, "msg":"审核成功"}</t>
         </is>
       </c>
-      <c r="I10" s="31" t="n"/>
+      <c r="I10" s="24" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="31" t="n">
+      <c r="A11" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="34" t="n"/>
-      <c r="C11" s="31" t="inlineStr">
+      <c r="B11" s="25" t="n"/>
+      <c r="C11" s="24" t="inlineStr">
         <is>
           <t>id为空</t>
         </is>
       </c>
-      <c r="D11" s="31" t="inlineStr">
+      <c r="D11" s="24" t="inlineStr">
         <is>
           <t>audit</t>
         </is>
       </c>
-      <c r="E11" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F11" s="31" t="inlineStr">
+      <c r="E11" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F11" s="24" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="G11" s="31" t="inlineStr">
+      <c r="G11" s="24" t="inlineStr">
         <is>
           <t>{"id":, "status ":11}</t>
         </is>
       </c>
-      <c r="H11" s="31" t="inlineStr">
+      <c r="H11" s="24" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20203", "data":None, "msg":"参数错误:所有参数不能为空"}</t>
         </is>
       </c>
-      <c r="I11" s="32" t="n"/>
+      <c r="I11" s="27" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="31" t="n">
+      <c r="A12" s="24" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="34" t="n"/>
-      <c r="C12" s="31" t="inlineStr">
+      <c r="B12" s="25" t="n"/>
+      <c r="C12" s="24" t="inlineStr">
         <is>
           <t>status为空</t>
         </is>
       </c>
-      <c r="D12" s="31" t="inlineStr">
+      <c r="D12" s="24" t="inlineStr">
         <is>
           <t>audit</t>
         </is>
       </c>
-      <c r="E12" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F12" s="31" t="inlineStr">
+      <c r="E12" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F12" s="24" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="G12" s="31" t="inlineStr">
+      <c r="G12" s="24" t="inlineStr">
         <is>
           <t>{"id":2001, "status ":}</t>
         </is>
       </c>
-      <c r="H12" s="31" t="inlineStr">
+      <c r="H12" s="24" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20203", "data":None, "msg":"参数错误:所有参数不能为空"}</t>
         </is>
       </c>
-      <c r="I12" s="32" t="n"/>
+      <c r="I12" s="27" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="31" t="n">
+      <c r="A13" s="24" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="34" t="n"/>
-      <c r="C13" s="31" t="inlineStr">
+      <c r="B13" s="25" t="n"/>
+      <c r="C13" s="24" t="inlineStr">
         <is>
           <t>status非法</t>
         </is>
       </c>
-      <c r="D13" s="31" t="inlineStr">
+      <c r="D13" s="24" t="inlineStr">
         <is>
           <t>audit</t>
         </is>
       </c>
-      <c r="E13" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F13" s="31" t="inlineStr">
+      <c r="E13" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F13" s="24" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="G13" s="31" t="inlineStr">
+      <c r="G13" s="24" t="inlineStr">
         <is>
           <t>{"id":2001, "status ":0}</t>
         </is>
       </c>
-      <c r="H13" s="31" t="inlineStr">
+      <c r="H13" s="24" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20205", "data":None, "msg":"参数错误：非法 status 参数, 状态值 1-11"}</t>
         </is>
       </c>
-      <c r="I13" s="32" t="n"/>
+      <c r="I13" s="27" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="31" t="n">
+      <c r="A14" s="24" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="34" t="n"/>
-      <c r="C14" s="31" t="inlineStr">
+      <c r="B14" s="25" t="n"/>
+      <c r="C14" s="24" t="inlineStr">
         <is>
           <t>id不存在</t>
         </is>
       </c>
-      <c r="D14" s="31" t="inlineStr">
+      <c r="D14" s="24" t="inlineStr">
         <is>
           <t>audit</t>
         </is>
       </c>
-      <c r="E14" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F14" s="31" t="inlineStr">
+      <c r="E14" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F14" s="24" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="G14" s="31" t="inlineStr">
+      <c r="G14" s="24" t="inlineStr">
         <is>
           <t>{"id":0001, "status ":0}</t>
         </is>
       </c>
-      <c r="H14" s="31" t="inlineStr">
+      <c r="H14" s="24" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20206", "data":None, "msg":"不存在该项目"}</t>
         </is>
       </c>
-      <c r="I14" s="32" t="n"/>
+      <c r="I14" s="27" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="31" t="n">
+      <c r="A15" s="24" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="34" t="n"/>
-      <c r="C15" s="31" t="inlineStr">
+      <c r="B15" s="25" t="n"/>
+      <c r="C15" s="24" t="inlineStr">
         <is>
           <t>状态已存在（3）</t>
         </is>
       </c>
-      <c r="D15" s="31" t="inlineStr">
+      <c r="D15" s="24" t="inlineStr">
         <is>
           <t>audit</t>
         </is>
       </c>
-      <c r="E15" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F15" s="31" t="inlineStr">
+      <c r="E15" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F15" s="24" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="G15" s="31" t="inlineStr">
+      <c r="G15" s="24" t="inlineStr">
         <is>
           <t>{"id":2001, "status ":3}</t>
         </is>
       </c>
-      <c r="H15" s="31" t="inlineStr">
+      <c r="H15" s="24" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20207", "data":None, "msg":"修改失败, 当前标已经是该状态"}</t>
         </is>
       </c>
-      <c r="I15" s="32" t="n"/>
+      <c r="I15" s="27" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="31" t="n">
+      <c r="A16" s="24" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="34" t="n"/>
-      <c r="C16" s="31" t="inlineStr">
+      <c r="B16" s="25" t="n"/>
+      <c r="C16" s="24" t="inlineStr">
         <is>
           <t>审核不通过的标修改状态</t>
         </is>
       </c>
-      <c r="D16" s="31" t="inlineStr">
+      <c r="D16" s="24" t="inlineStr">
         <is>
           <t>audit</t>
         </is>
       </c>
-      <c r="E16" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F16" s="31" t="inlineStr">
+      <c r="E16" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F16" s="24" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="G16" s="31" t="inlineStr">
+      <c r="G16" s="24" t="inlineStr">
         <is>
           <t>{"id":2001, "status ":4}</t>
         </is>
       </c>
-      <c r="H16" s="31" t="inlineStr">
+      <c r="H16" s="24" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20208", "data":None, "msg":"审核不通过、流标、还款完成的标不允许修改状态"}</t>
         </is>
       </c>
-      <c r="I16" s="32" t="n"/>
+      <c r="I16" s="27" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="31" t="n">
+      <c r="A17" s="24" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="34" t="n"/>
-      <c r="C17" s="31" t="inlineStr">
+      <c r="B17" s="25" t="n"/>
+      <c r="C17" s="24" t="inlineStr">
         <is>
           <t>流标的标修改状态</t>
         </is>
       </c>
-      <c r="D17" s="31" t="inlineStr">
+      <c r="D17" s="24" t="inlineStr">
         <is>
           <t>audit</t>
         </is>
       </c>
-      <c r="E17" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F17" s="31" t="inlineStr">
+      <c r="E17" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F17" s="24" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="G17" s="31" t="inlineStr">
+      <c r="G17" s="24" t="inlineStr">
         <is>
           <t>{"id":2001, "status ":5}</t>
         </is>
       </c>
-      <c r="H17" s="31" t="inlineStr">
+      <c r="H17" s="24" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20208", "data":None, "msg":"审核不通过、流标、还款完成的标不允许修改状态"}</t>
         </is>
       </c>
-      <c r="I17" s="32" t="n"/>
+      <c r="I17" s="27" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="31" t="n">
+      <c r="A18" s="24" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="34" t="n"/>
-      <c r="C18" s="31" t="inlineStr">
+      <c r="B18" s="25" t="n"/>
+      <c r="C18" s="24" t="inlineStr">
         <is>
           <t>还款完成的标修改状态</t>
         </is>
       </c>
-      <c r="D18" s="31" t="inlineStr">
+      <c r="D18" s="24" t="inlineStr">
         <is>
           <t>audit</t>
         </is>
       </c>
-      <c r="E18" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F18" s="31" t="inlineStr">
+      <c r="E18" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F18" s="24" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="G18" s="31" t="inlineStr">
+      <c r="G18" s="24" t="inlineStr">
         <is>
           <t>{"id":2001, "status ":6}</t>
         </is>
       </c>
-      <c r="H18" s="31" t="inlineStr">
+      <c r="H18" s="24" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20208", "data":None, "msg":"审核不通过、流标、还款完成的标不允许修改状态"}</t>
         </is>
       </c>
-      <c r="I18" s="32" t="n"/>
+      <c r="I18" s="27" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="31" t="n">
+      <c r="A19" s="24" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="34" t="n"/>
-      <c r="C19" s="31" t="inlineStr">
+      <c r="B19" s="25" t="n"/>
+      <c r="C19" s="24" t="inlineStr">
         <is>
           <t>status不符合审核规范</t>
         </is>
       </c>
-      <c r="D19" s="31" t="inlineStr">
+      <c r="D19" s="24" t="inlineStr">
         <is>
           <t>audit</t>
         </is>
       </c>
-      <c r="E19" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F19" s="31" t="inlineStr">
+      <c r="E19" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F19" s="24" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="G19" s="31" t="inlineStr">
+      <c r="G19" s="24" t="inlineStr">
         <is>
           <t>{"id":2001, "status ":10}</t>
         </is>
       </c>
-      <c r="H19" s="31" t="inlineStr">
+      <c r="H19" s="24" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20209", "data":None, "msg":"当前接口暂未开放该状态值更新"}</t>
         </is>
       </c>
-      <c r="I19" s="32" t="n"/>
+      <c r="I19" s="27" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="31" t="n">
+      <c r="A20" s="24" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="34" t="n"/>
-      <c r="C20" s="31" t="inlineStr">
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="24" t="inlineStr">
         <is>
           <t>未执行回款计划, 更新到还款中</t>
         </is>
       </c>
-      <c r="D20" s="31" t="inlineStr">
+      <c r="D20" s="24" t="inlineStr">
         <is>
           <t>audit</t>
         </is>
       </c>
-      <c r="E20" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F20" s="31" t="inlineStr">
+      <c r="E20" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F20" s="24" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="G20" s="31" t="inlineStr">
+      <c r="G20" s="24" t="inlineStr">
         <is>
           <t>{"id":2001, "status ":7}</t>
         </is>
       </c>
-      <c r="H20" s="31" t="inlineStr">
+      <c r="H20" s="24" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20210", "data":None, "msg":"不允许直接更新项目到还款中状态, 请执行生成回款计划"}</t>
         </is>
       </c>
-      <c r="I20" s="32" t="n"/>
+      <c r="I20" s="27" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="31" t="n">
+      <c r="A21" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="34" t="n"/>
-      <c r="C21" s="31" t="inlineStr">
+      <c r="B21" s="25" t="n"/>
+      <c r="C21" s="24" t="inlineStr">
         <is>
           <t>id数据类型错误</t>
         </is>
       </c>
-      <c r="D21" s="31" t="inlineStr">
+      <c r="D21" s="24" t="inlineStr">
         <is>
           <t>audit</t>
         </is>
       </c>
-      <c r="E21" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F21" s="31" t="inlineStr">
+      <c r="E21" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F21" s="24" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="G21" s="31" t="inlineStr">
+      <c r="G21" s="24" t="inlineStr">
         <is>
           <t>{"id":"2001", "status ":3}</t>
         </is>
       </c>
-      <c r="H21" s="31" t="inlineStr">
+      <c r="H21" s="24" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20212", "data":None, "msg":"请根据参数类型对应输入, 数值类型只能输入数字"}</t>
         </is>
       </c>
-      <c r="I21" s="32" t="n"/>
+      <c r="I21" s="27" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="31" t="n">
+      <c r="A22" s="24" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="34" t="n"/>
-      <c r="C22" s="31" t="inlineStr">
+      <c r="B22" s="25" t="n"/>
+      <c r="C22" s="24" t="inlineStr">
         <is>
           <t>status数据类型错误</t>
         </is>
       </c>
-      <c r="D22" s="31" t="inlineStr">
+      <c r="D22" s="24" t="inlineStr">
         <is>
           <t>audit</t>
         </is>
       </c>
-      <c r="E22" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F22" s="31" t="inlineStr">
+      <c r="E22" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F22" s="24" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="G22" s="31" t="inlineStr">
+      <c r="G22" s="24" t="inlineStr">
         <is>
           <t>{"id":2001, "status ":"3"}</t>
         </is>
       </c>
-      <c r="H22" s="31" t="inlineStr">
+      <c r="H22" s="24" t="inlineStr">
         <is>
           <t>{"status":0,  "code":"20212", "data":None, "msg":"请根据参数类型对应输入, 数值类型只能输入数字"}</t>
         </is>
       </c>
-      <c r="I22" s="32" t="n"/>
+      <c r="I22" s="27" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="31" t="n">
+      <c r="A23" s="24" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="35" t="n"/>
-      <c r="C23" s="28" t="inlineStr">
+      <c r="B23" s="26" t="n"/>
+      <c r="C23" s="20" t="inlineStr">
         <is>
           <t>未满标执行核保审批</t>
         </is>
       </c>
-      <c r="D23" s="31" t="inlineStr">
+      <c r="D23" s="24" t="inlineStr">
         <is>
           <t>audit</t>
         </is>
       </c>
-      <c r="E23" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F23" s="31" t="inlineStr">
+      <c r="E23" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F23" s="24" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="G23" s="31" t="inlineStr">
+      <c r="G23" s="24" t="inlineStr">
         <is>
           <t>{"id":2002, "status ":"5"}</t>
         </is>
       </c>
-      <c r="H23" s="28" t="inlineStr">
+      <c r="H23" s="20" t="inlineStr">
         <is>
           <t>？？？？？</t>
         </is>
       </c>
-      <c r="I23" s="32" t="n"/>
+      <c r="I23" s="27" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7215,105 +7375,106 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="17.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="19" width="13.6640625"/>
-    <col customWidth="1" max="2" min="2" style="19" width="19"/>
-    <col customWidth="1" max="3" min="3" style="16" width="19"/>
-    <col customWidth="1" max="4" min="4" style="16" width="20.77734375"/>
-    <col customWidth="1" max="5" min="5" style="16" width="13.44140625"/>
-    <col customWidth="1" max="6" min="6" style="19" width="31.33203125"/>
-    <col customWidth="1" max="7" min="7" style="19" width="41.88671875"/>
-    <col customWidth="1" max="8" min="8" style="19" width="89.44140625"/>
-    <col customWidth="1" max="9" min="9" style="19" width="10.33203125"/>
-    <col customWidth="1" max="16384" min="10" style="19" width="8.88671875"/>
+    <col customWidth="1" max="1" min="1" style="14" width="13.6640625"/>
+    <col customWidth="1" max="2" min="2" style="14" width="19"/>
+    <col customWidth="1" max="3" min="3" style="12" width="19"/>
+    <col customWidth="1" max="4" min="4" style="12" width="20.77734375"/>
+    <col customWidth="1" max="5" min="5" style="12" width="13.44140625"/>
+    <col customWidth="1" max="6" min="6" style="14" width="31.33203125"/>
+    <col customWidth="1" max="7" min="7" style="14" width="41.88671875"/>
+    <col customWidth="1" max="8" min="8" style="14" width="89.44140625"/>
+    <col customWidth="1" max="9" min="9" style="14" width="10.33203125"/>
+    <col customWidth="1" max="15" min="10" style="14" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="16" style="14" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>api_name</t>
         </is>
       </c>
-      <c r="E1" s="12" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>request_data</t>
         </is>
       </c>
-      <c r="H1" s="11" t="inlineStr">
+      <c r="H1" s="10" t="inlineStr">
         <is>
           <t>expected_data</t>
         </is>
       </c>
-      <c r="I1" s="11" t="inlineStr">
+      <c r="I1" s="10" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="n">
+      <c r="A2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="inlineStr">
+      <c r="B2" s="24" t="inlineStr">
         <is>
           <t>获取标列表</t>
         </is>
       </c>
-      <c r="C2" s="31" t="inlineStr">
+      <c r="C2" s="24" t="inlineStr">
         <is>
           <t>获取标列表</t>
         </is>
       </c>
-      <c r="D2" s="31" t="inlineStr">
+      <c r="D2" s="24" t="inlineStr">
         <is>
           <t>getLoanList</t>
         </is>
       </c>
-      <c r="E2" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F2" s="31" t="inlineStr">
+      <c r="E2" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="24" t="inlineStr">
         <is>
           <t>/loan/getLoanList</t>
         </is>
       </c>
-      <c r="G2" s="18" t="inlineStr">
+      <c r="G2" s="13" t="inlineStr">
         <is>
           <t>{"id":2003, "status ":"5"}</t>
         </is>
       </c>
-      <c r="H2" s="18" t="inlineStr">
+      <c r="H2" s="13" t="inlineStr">
         <is>
           <t>{"status":1,  "code":"10001", "data":省略, "msg":"获取标列表成功"}</t>
         </is>
       </c>
-      <c r="I2" s="29" t="n"/>
+      <c r="I2" s="21" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>

--- a/data/qcd_testcases.xlsx
+++ b/data/qcd_testcases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="775" visibility="visible" windowHeight="15024" windowWidth="0" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="7" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="775" visibility="visible" windowHeight="15024" windowWidth="0" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
@@ -531,8 +531,8 @@
     <col customWidth="1" max="7" min="7" style="14" width="92.109375"/>
     <col customWidth="1" max="8" min="8" style="14" width="83.44140625"/>
     <col customWidth="1" max="9" min="9" style="14" width="10.33203125"/>
-    <col customWidth="1" max="15" min="10" style="14" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="16" style="14" width="8.88671875"/>
+    <col customWidth="1" max="48" min="10" style="14" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="49" style="14" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1151,8 +1151,8 @@
     <col customWidth="1" max="7" min="7" style="14" width="15.88671875"/>
     <col customWidth="1" max="8" min="8" style="14" width="108.21875"/>
     <col customWidth="1" max="9" min="9" style="14" width="10.33203125"/>
-    <col customWidth="1" max="15" min="10" style="14" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="16" style="14" width="8.88671875"/>
+    <col customWidth="1" max="48" min="10" style="14" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="49" style="14" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1385,8 +1385,8 @@
     <col customWidth="1" max="7" min="7" style="1" width="34"/>
     <col customWidth="1" max="8" min="8" style="1" width="128.33203125"/>
     <col customWidth="1" max="9" min="9" style="1" width="10.33203125"/>
-    <col customWidth="1" max="15" min="10" style="1" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="16" style="1" width="8.88671875"/>
+    <col customWidth="1" max="48" min="10" style="1" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="49" style="1" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1582,8 +1582,8 @@
     <col customWidth="1" max="7" min="7" style="2" width="29"/>
     <col customWidth="1" max="8" min="8" style="2" width="128.33203125"/>
     <col customWidth="1" max="9" min="9" style="2" width="10.33203125"/>
-    <col customWidth="1" max="15" min="10" style="2" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="16" style="2" width="8.88671875"/>
+    <col customWidth="1" max="48" min="10" style="2" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="49" style="2" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1779,8 +1779,8 @@
     <col customWidth="1" max="7" min="7" style="2" width="34"/>
     <col customWidth="1" max="8" min="8" style="2" width="128.33203125"/>
     <col customWidth="1" max="9" min="9" style="2" width="10.33203125"/>
-    <col customWidth="1" max="15" min="10" style="2" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="16" style="2" width="8.88671875"/>
+    <col customWidth="1" max="48" min="10" style="2" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="49" style="2" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2037,7 +2037,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="G15" activeCellId="1" sqref="G5 G15"/>
+      <selection activeCell="C2" sqref="C2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="17.4"/>
@@ -2050,8 +2050,8 @@
     <col customWidth="1" max="6" min="6" style="14" width="24.6640625"/>
     <col customWidth="1" max="7" min="7" style="14" width="73.6640625"/>
     <col customWidth="1" max="8" min="8" style="14" width="96.5546875"/>
-    <col customWidth="1" max="14" min="9" style="14" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="15" style="14" width="8.88671875"/>
+    <col customWidth="1" max="47" min="9" style="14" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="48" style="14" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2532,8 +2532,8 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView showGridLines="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="17.4"/>
@@ -2548,8 +2548,8 @@
     <col customWidth="1" max="8" min="8" style="14" width="44.44140625"/>
     <col customWidth="1" max="9" min="9" style="14" width="82.44140625"/>
     <col customWidth="1" max="10" min="10" style="14" width="10.33203125"/>
-    <col customWidth="1" max="16" min="11" style="14" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="17" style="14" width="8.88671875"/>
+    <col customWidth="1" max="49" min="11" style="14" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="50" style="14" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="H3" s="13" t="inlineStr">
         <is>
-          <t>SELECT LeaveAmount FROM member WHERE MobilePhone=${login_phone}</t>
+          <t>SELECT LeaveAmount FROM member WHERE MobilePhone=#login_phone#</t>
         </is>
       </c>
       <c r="I3" s="13" t="inlineStr">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>SELECT LeaveAmount FROM member WHERE MobilePhone=${login_phone}</t>
+          <t>SELECT LeaveAmount FROM member WHERE MobilePhone=#login_phone#</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="H5" s="13" t="inlineStr">
         <is>
-          <t>SELECT LeaveAmount FROM member WHERE MobilePhone=${login_phone}</t>
+          <t>SELECT LeaveAmount FROM member WHERE MobilePhone=#login_phone#</t>
         </is>
       </c>
       <c r="I5" s="13" t="inlineStr">
@@ -3315,7 +3315,7 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="G28" pane="bottomLeft" sqref="G28"/>
+      <selection activeCell="H1" pane="bottomLeft" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="17.4"/>
@@ -3331,8 +3331,8 @@
     <col customWidth="1" max="9" min="9" style="14" width="83.5546875"/>
     <col customWidth="1" max="10" min="10" style="14" width="10.33203125"/>
     <col customWidth="1" max="11" min="11" style="16" width="29.44140625"/>
-    <col customWidth="1" max="17" min="12" style="14" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="18" style="14" width="8.88671875"/>
+    <col customWidth="1" max="50" min="12" style="14" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="51" style="14" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3475,7 +3475,7 @@
       </c>
       <c r="H3" s="13" t="inlineStr">
         <is>
-          <t>SELECT LeaveAmount FROM member WHERE MobilePhone=${login_phone}</t>
+          <t>SELECT LeaveAmount FROM member WHERE MobilePhone=#login_phone#</t>
         </is>
       </c>
       <c r="I3" s="13" t="inlineStr">
@@ -3497,7 +3497,7 @@
       <c r="B4" s="25" t="n"/>
       <c r="C4" s="24" t="inlineStr">
         <is>
-          <t>正常取现200000.3</t>
+          <t>正常取现199999.5</t>
         </is>
       </c>
       <c r="D4" s="24" t="inlineStr">
@@ -3517,12 +3517,12 @@
       </c>
       <c r="G4" s="13" t="inlineStr">
         <is>
-          <t>{"mobilephone":"#login_phone#", "amount":20000.8}</t>
+          <t>{"mobilephone":"#login_phone#", "amount":199999.5}</t>
         </is>
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>SELECT LeaveAmount FROM member WHERE MobilePhone=${login_phone}</t>
+          <t>SELECT LeaveAmount FROM member WHERE MobilePhone=#login_phone#</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="H5" s="13" t="inlineStr">
         <is>
-          <t>SELECT LeaveAmount FROM member WHERE MobilePhone=${login_phone}</t>
+          <t>SELECT LeaveAmount FROM member WHERE MobilePhone=#login_phone#</t>
         </is>
       </c>
       <c r="I5" s="13" t="inlineStr">
@@ -4183,8 +4183,8 @@
     <col customWidth="1" max="7" min="7" style="14" width="31"/>
     <col customWidth="1" max="8" min="8" style="14" width="72.6640625"/>
     <col customWidth="1" max="9" min="9" style="14" width="10.33203125"/>
-    <col customWidth="1" max="15" min="10" style="14" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="16" style="14" width="8.88671875"/>
+    <col customWidth="1" max="48" min="10" style="14" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="49" style="14" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4286,7 +4286,7 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A8" ySplit="1"/>
-      <selection activeCell="G26" pane="bottomLeft" sqref="G26"/>
+      <selection activeCell="I8" pane="bottomLeft" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="8.88671875" defaultRowHeight="21"/>
@@ -4301,8 +4301,8 @@
     <col customWidth="1" max="8" min="8" style="14" width="20.77734375"/>
     <col customWidth="1" max="9" min="9" style="14" width="93.109375"/>
     <col customWidth="1" max="10" min="10" style="14" width="10.33203125"/>
-    <col customWidth="1" max="16" min="11" style="14" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="17" style="14" width="8.88671875"/>
+    <col customWidth="1" max="49" min="11" style="14" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="50" style="14" width="8.88671875"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="21" r="1">
@@ -5307,11 +5307,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="F32" pane="bottomLeft" sqref="F32"/>
+      <selection activeCell="G9" pane="bottomLeft" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="17.4"/>
@@ -5321,11 +5321,13 @@
     <col customWidth="1" max="3" min="3" style="19" width="34.109375"/>
     <col customWidth="1" max="4" min="4" style="12" width="10.109375"/>
     <col customWidth="1" max="5" min="5" style="19" width="9.77734375"/>
-    <col customWidth="1" max="6" min="6" style="14" width="20.5546875"/>
-    <col customWidth="1" max="7" min="7" style="14" width="74"/>
-    <col customWidth="1" max="8" min="8" style="14" width="86.44140625"/>
-    <col customWidth="1" max="14" min="9" style="14" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="15" style="14" width="8.88671875"/>
+    <col customWidth="1" max="6" min="6" style="14" width="17.88671875"/>
+    <col customWidth="1" max="7" min="7" style="14" width="44.33203125"/>
+    <col customWidth="1" max="8" min="8" style="14" width="50.6640625"/>
+    <col customWidth="1" max="9" min="9" style="12" width="33.88671875"/>
+    <col customWidth="1" max="10" min="10" style="12" width="8.88671875"/>
+    <col customWidth="1" max="48" min="11" style="14" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="49" style="14" width="8.88671875"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="12">
@@ -5364,66 +5366,80 @@
           <t>request_data</t>
         </is>
       </c>
-      <c r="H1" s="11" t="inlineStr">
+      <c r="H1" s="10" t="inlineStr">
+        <is>
+          <t>check_mysql</t>
+        </is>
+      </c>
+      <c r="I1" s="11" t="inlineStr">
         <is>
           <t>expected_data</t>
         </is>
       </c>
-      <c r="I1" s="11" t="inlineStr">
+      <c r="J1" s="11" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
-    <row customFormat="1" r="2" s="19">
+    <row customFormat="1" r="2" s="12">
       <c r="A2" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="inlineStr">
-        <is>
-          <t>新增项目</t>
-        </is>
-      </c>
-      <c r="C2" s="27" t="inlineStr">
-        <is>
-          <t>正常新增, 期限类型0, 还款方式4</t>
+      <c r="B2" s="24" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C2" s="24" t="inlineStr">
+        <is>
+          <t>正常登录</t>
         </is>
       </c>
       <c r="D2" s="24" t="inlineStr">
         <is>
-          <t>add</t>
-        </is>
-      </c>
-      <c r="E2" s="27" t="inlineStr">
+          <t>login</t>
+        </is>
+      </c>
+      <c r="E2" s="24" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
       <c r="F2" s="24" t="inlineStr">
         <is>
-          <t>/loan/add</t>
-        </is>
-      </c>
-      <c r="G2" s="21" t="inlineStr">
-        <is>
-          <t>{"memberId":1001, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="H2" s="21" t="inlineStr">
-        <is>
-          <t>{"status":1,  "code":"10001", "data":None, "msg":"加标成功"}</t>
-        </is>
-      </c>
-      <c r="I2" s="27" t="n"/>
+          <t>/member/login</t>
+        </is>
+      </c>
+      <c r="G2" s="13" t="inlineStr">
+        <is>
+          <t>{"mobilephone":"#login_phone#", "pwd":"#pwd#"}</t>
+        </is>
+      </c>
+      <c r="H2" s="13" t="n"/>
+      <c r="I2" s="24" t="inlineStr">
+        <is>
+          <t>{"status":1,  "code":"10001"}</t>
+        </is>
+      </c>
+      <c r="J2" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" r="3" s="19">
       <c r="A3" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="n"/>
+      <c r="B3" s="27" t="inlineStr">
+        <is>
+          <t>新增项目</t>
+        </is>
+      </c>
       <c r="C3" s="27" t="inlineStr">
         <is>
-          <t>正常新增, 期限类型2, 还款方式5</t>
+          <t>正常新增, 期限类型0, 还款方式4</t>
         </is>
       </c>
       <c r="D3" s="24" t="inlineStr">
@@ -5443,15 +5459,24 @@
       </c>
       <c r="G3" s="21" t="inlineStr">
         <is>
-          <t>{"memberId":1001, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":2, "repaymemtWay":5, "biddingDays":5}</t>
+          <t>{"memberId":#memberid#, "Title":"借款投资", "Amount":200000.00, "LoanRate":18.0, "LoanTerm":6, "LoanDateType":0, "RepaymemtWay":4, "BiddingDays":5}</t>
         </is>
       </c>
       <c r="H3" s="21" t="inlineStr">
         <is>
-          <t>{"status":1,  "code":"10001", "data":None, "msg":"加标成功"}</t>
-        </is>
-      </c>
-      <c r="I3" s="27" t="n"/>
+          <t>SELECT * FROM loan WHERE memberid=#memberid#</t>
+        </is>
+      </c>
+      <c r="I3" s="24" t="inlineStr">
+        <is>
+          <t>{"status":1,  "code":"10001"}</t>
+        </is>
+      </c>
+      <c r="J3" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" r="4" s="19">
       <c r="A4" s="24" t="n">
@@ -5460,7 +5485,7 @@
       <c r="B4" s="25" t="n"/>
       <c r="C4" s="27" t="inlineStr">
         <is>
-          <t>正常新增, 期限类型4, 还款方式10</t>
+          <t>正常新增, 期限类型2, 还款方式5</t>
         </is>
       </c>
       <c r="D4" s="24" t="inlineStr">
@@ -5480,15 +5505,24 @@
       </c>
       <c r="G4" s="21" t="inlineStr">
         <is>
-          <t>{"memberId":1001, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":4, "repaymemtWay":10, "biddingDays":5}</t>
+          <t>{"memberId":#memberid#, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":2, "repaymemtWay":5, "biddingDays":5}</t>
         </is>
       </c>
       <c r="H4" s="21" t="inlineStr">
         <is>
-          <t>{"status":1,  "code":"10001", "data":None, "msg":"加标成功"}</t>
-        </is>
-      </c>
-      <c r="I4" s="27" t="n"/>
+          <t>SELECT * FROM loan WHERE memberid=#memberid#</t>
+        </is>
+      </c>
+      <c r="I4" s="24" t="inlineStr">
+        <is>
+          <t>{"status":1,  "code":"10001"}</t>
+        </is>
+      </c>
+      <c r="J4" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" r="5" s="19">
       <c r="A5" s="24" t="n">
@@ -5497,7 +5531,7 @@
       <c r="B5" s="25" t="n"/>
       <c r="C5" s="27" t="inlineStr">
         <is>
-          <t>正常新增, 期限类型0, 还款方式11</t>
+          <t>正常新增, 期限类型4, 还款方式10</t>
         </is>
       </c>
       <c r="D5" s="24" t="inlineStr">
@@ -5517,15 +5551,24 @@
       </c>
       <c r="G5" s="21" t="inlineStr">
         <is>
-          <t>{"memberId":1001, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":11, "biddingDays":5}</t>
+          <t>{"memberId":#memberid#, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":4, "repaymemtWay":10, "biddingDays":5}</t>
         </is>
       </c>
       <c r="H5" s="21" t="inlineStr">
         <is>
-          <t>{"status":1,  "code":"10001", "data":None, "msg":"加标成功"}</t>
-        </is>
-      </c>
-      <c r="I5" s="27" t="n"/>
+          <t>SELECT * FROM loan WHERE memberid=#memberid#</t>
+        </is>
+      </c>
+      <c r="I5" s="24" t="inlineStr">
+        <is>
+          <t>{"status":1,  "code":"10001"}</t>
+        </is>
+      </c>
+      <c r="J5" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" r="6" s="19">
       <c r="A6" s="24" t="n">
@@ -5534,7 +5577,7 @@
       <c r="B6" s="25" t="n"/>
       <c r="C6" s="27" t="inlineStr">
         <is>
-          <t>memberId为空</t>
+          <t>正常新增, 期限类型0, 还款方式11</t>
         </is>
       </c>
       <c r="D6" s="24" t="inlineStr">
@@ -5554,15 +5597,24 @@
       </c>
       <c r="G6" s="21" t="inlineStr">
         <is>
-          <t>{"memberId":, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+          <t>{"memberId":#memberid#, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":11, "biddingDays":5}</t>
         </is>
       </c>
       <c r="H6" s="21" t="inlineStr">
         <is>
-          <t>{"status":0,  "code":"20103", "data":None, "msg":"参数错误:参数不能为空"}</t>
-        </is>
-      </c>
-      <c r="I6" s="27" t="n"/>
+          <t>SELECT * FROM loan WHERE memberid=#memberid#</t>
+        </is>
+      </c>
+      <c r="I6" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20103"}</t>
+        </is>
+      </c>
+      <c r="J6" s="24" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" r="7" s="19">
       <c r="A7" s="24" t="n">
@@ -5571,7 +5623,7 @@
       <c r="B7" s="25" t="n"/>
       <c r="C7" s="27" t="inlineStr">
         <is>
-          <t>title为空</t>
+          <t>memberId为空</t>
         </is>
       </c>
       <c r="D7" s="24" t="inlineStr">
@@ -5591,15 +5643,20 @@
       </c>
       <c r="G7" s="21" t="inlineStr">
         <is>
-          <t>{"memberId":1001, "title":" ", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="H7" s="21" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20103", "data":None, "msg":"参数错误:参数不能为空"}</t>
-        </is>
-      </c>
-      <c r="I7" s="27" t="n"/>
+          <t>{"memberId":None, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="H7" s="21" t="n"/>
+      <c r="I7" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20103"}</t>
+        </is>
+      </c>
+      <c r="J7" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" r="8" s="19">
       <c r="A8" s="24" t="n">
@@ -5608,7 +5665,7 @@
       <c r="B8" s="25" t="n"/>
       <c r="C8" s="27" t="inlineStr">
         <is>
-          <t>amount为空</t>
+          <t>title为空</t>
         </is>
       </c>
       <c r="D8" s="24" t="inlineStr">
@@ -5628,15 +5685,20 @@
       </c>
       <c r="G8" s="21" t="inlineStr">
         <is>
-          <t>{"memberId":1001, "title":"借款开公司", "amount":, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="H8" s="21" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20103", "data":None, "msg":"参数错误:参数不能为空"}</t>
-        </is>
-      </c>
-      <c r="I8" s="27" t="n"/>
+          <t>{"memberId":#memberid#, "title":"", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="H8" s="21" t="n"/>
+      <c r="I8" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20103"}</t>
+        </is>
+      </c>
+      <c r="J8" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" r="9" s="19">
       <c r="A9" s="24" t="n">
@@ -5645,7 +5707,7 @@
       <c r="B9" s="25" t="n"/>
       <c r="C9" s="27" t="inlineStr">
         <is>
-          <t>loanRate为空</t>
+          <t>amount为空</t>
         </is>
       </c>
       <c r="D9" s="24" t="inlineStr">
@@ -5665,15 +5727,20 @@
       </c>
       <c r="G9" s="21" t="inlineStr">
         <is>
-          <t>{"memberId":1001, "title":"借款开公司", "amount":200000, "loanRate":, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="H9" s="21" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20103", "data":None, "msg":"参数错误:参数不能为空"}</t>
-        </is>
-      </c>
-      <c r="I9" s="27" t="n"/>
+          <t>{"memberId":#memberid#, "title":"借款开公司", "amount":None, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="H9" s="21" t="n"/>
+      <c r="I9" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20103"}</t>
+        </is>
+      </c>
+      <c r="J9" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" r="10" s="19">
       <c r="A10" s="24" t="n">
@@ -5682,7 +5749,7 @@
       <c r="B10" s="25" t="n"/>
       <c r="C10" s="27" t="inlineStr">
         <is>
-          <t>loanRTerm为空</t>
+          <t>loanRate为空</t>
         </is>
       </c>
       <c r="D10" s="24" t="inlineStr">
@@ -5702,15 +5769,20 @@
       </c>
       <c r="G10" s="21" t="inlineStr">
         <is>
-          <t>{"memberId":1001, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="H10" s="21" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20103", "data":None, "msg":"参数错误:参数不能为空"}</t>
-        </is>
-      </c>
-      <c r="I10" s="27" t="n"/>
+          <t>{"memberId":#memberid#, "title":"借款开公司", "amount":200000, "loanRate":None, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="H10" s="21" t="n"/>
+      <c r="I10" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20103"}</t>
+        </is>
+      </c>
+      <c r="J10" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" r="11" s="19">
       <c r="A11" s="24" t="n">
@@ -5719,7 +5791,7 @@
       <c r="B11" s="25" t="n"/>
       <c r="C11" s="27" t="inlineStr">
         <is>
-          <t>loanDateType为空</t>
+          <t>loanTerm为空</t>
         </is>
       </c>
       <c r="D11" s="24" t="inlineStr">
@@ -5739,15 +5811,20 @@
       </c>
       <c r="G11" s="21" t="inlineStr">
         <is>
-          <t>{"memberId":1001, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":, "repaymemtWay":4, "biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="H11" s="21" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20103", "data":None, "msg":"参数错误:参数不能为空"}</t>
-        </is>
-      </c>
-      <c r="I11" s="27" t="n"/>
+          <t>{"memberId":#memberid#, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":None, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="H11" s="21" t="n"/>
+      <c r="I11" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20103"}</t>
+        </is>
+      </c>
+      <c r="J11" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" r="12" s="19">
       <c r="A12" s="24" t="n">
@@ -5756,7 +5833,7 @@
       <c r="B12" s="25" t="n"/>
       <c r="C12" s="27" t="inlineStr">
         <is>
-          <t>repaymemtWay为空</t>
+          <t>loanDateType为空</t>
         </is>
       </c>
       <c r="D12" s="24" t="inlineStr">
@@ -5776,15 +5853,20 @@
       </c>
       <c r="G12" s="21" t="inlineStr">
         <is>
-          <t>{"memberId":1001, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":, "biddingDays":}</t>
-        </is>
-      </c>
-      <c r="H12" s="21" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20103", "data":None, "msg":"参数错误:参数不能为空"}</t>
-        </is>
-      </c>
-      <c r="I12" s="27" t="n"/>
+          <t>{"memberId":#memberid#, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":None, "repaymemtWay":4, "biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="H12" s="21" t="n"/>
+      <c r="I12" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20103"}</t>
+        </is>
+      </c>
+      <c r="J12" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" r="13" s="19">
       <c r="A13" s="24" t="n">
@@ -5793,7 +5875,7 @@
       <c r="B13" s="25" t="n"/>
       <c r="C13" s="27" t="inlineStr">
         <is>
-          <t>biddingDays为空</t>
+          <t>repaymemtWay为空</t>
         </is>
       </c>
       <c r="D13" s="24" t="inlineStr">
@@ -5813,15 +5895,20 @@
       </c>
       <c r="G13" s="21" t="inlineStr">
         <is>
-          <t>{"memberId":1001, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="H13" s="21" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20103", "data":None, "msg":"参数错误:参数不能为空"}</t>
-        </is>
-      </c>
-      <c r="I13" s="27" t="n"/>
+          <t>{"memberId":#memberid#, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":None, "biddingDays":10}</t>
+        </is>
+      </c>
+      <c r="H13" s="21" t="n"/>
+      <c r="I13" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20103"}</t>
+        </is>
+      </c>
+      <c r="J13" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" r="14" s="19">
       <c r="A14" s="24" t="n">
@@ -5830,7 +5917,7 @@
       <c r="B14" s="25" t="n"/>
       <c r="C14" s="27" t="inlineStr">
         <is>
-          <t>memberId为0</t>
+          <t>biddingDays为空</t>
         </is>
       </c>
       <c r="D14" s="24" t="inlineStr">
@@ -5850,15 +5937,20 @@
       </c>
       <c r="G14" s="21" t="inlineStr">
         <is>
-          <t>{"memberId":0, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="H14" s="21" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20104", "data":None, "msg":"参数错误：用户 ID memberId 必须是正整数"}</t>
-        </is>
-      </c>
-      <c r="I14" s="27" t="n"/>
+          <t>{"memberId":#memberid#, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":None}</t>
+        </is>
+      </c>
+      <c r="H14" s="21" t="n"/>
+      <c r="I14" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20104"}</t>
+        </is>
+      </c>
+      <c r="J14" s="24" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" r="15" s="19">
       <c r="A15" s="24" t="n">
@@ -5890,12 +5982,17 @@
           <t>{"memberId":-1001, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
         </is>
       </c>
-      <c r="H15" s="21" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20104", "data":None, "msg":"参数错误：用户 ID memberId 必须是正整数"}</t>
-        </is>
-      </c>
-      <c r="I15" s="27" t="n"/>
+      <c r="H15" s="21" t="n"/>
+      <c r="I15" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20104"}</t>
+        </is>
+      </c>
+      <c r="J15" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" r="16" s="19">
       <c r="A16" s="24" t="n">
@@ -5924,15 +6021,20 @@
       </c>
       <c r="G16" s="21" t="inlineStr">
         <is>
-          <t>{"memberId":0001, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="H16" s="21" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20105", "data":None, "msg":"不存在该会员"}</t>
-        </is>
-      </c>
-      <c r="I16" s="27" t="n"/>
+          <t>{"memberId":1000001, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="H16" s="21" t="n"/>
+      <c r="I16" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20105"}</t>
+        </is>
+      </c>
+      <c r="J16" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" r="17" s="19">
       <c r="A17" s="24" t="n">
@@ -5961,15 +6063,20 @@
       </c>
       <c r="G17" s="21" t="inlineStr">
         <is>
-          <t>{"memberId":1002, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="H17" s="21" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20106", "data":None, "msg":"参数错误：借款金额 amount 必须为大于 1000 并能被 100 整除的正整数"}</t>
-        </is>
-      </c>
-      <c r="I17" s="27" t="n"/>
+          <t>{"memberId":#memberid#, "title":"借款开公司", "amount":200, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="H17" s="21" t="n"/>
+      <c r="I17" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20106"}</t>
+        </is>
+      </c>
+      <c r="J17" s="24" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" r="18" s="19">
       <c r="A18" s="24" t="n">
@@ -5998,15 +6105,20 @@
       </c>
       <c r="G18" s="21" t="inlineStr">
         <is>
-          <t>{"memberId":1003, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="H18" s="21" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20106", "data":None, "msg":"参数错误：借款金额 amount 必须为大于 1000 并能被 100 整除的正整数"}</t>
-        </is>
-      </c>
-      <c r="I18" s="27" t="n"/>
+          <t>{"memberId":#memberid#, "title":"借款开公司", "amount":200090, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="H18" s="21" t="n"/>
+      <c r="I18" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20106"}</t>
+        </is>
+      </c>
+      <c r="J18" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" r="19" s="19">
       <c r="A19" s="24" t="n">
@@ -6035,15 +6147,20 @@
       </c>
       <c r="G19" s="21" t="inlineStr">
         <is>
-          <t>{"memberId":1003, "title":"借款开公司", "amount":200000, "loanRate":0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="H19" s="21" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20107", "data":None, "msg":"参数错误：借款利率 loanRate 值必须大于 0 小于或等于 24"}</t>
-        </is>
-      </c>
-      <c r="I19" s="27" t="n"/>
+          <t>{"memberId":#memberid#, "title":"借款开公司", "amount":200000, "loanRate":0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="H19" s="21" t="n"/>
+      <c r="I19" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20107"}</t>
+        </is>
+      </c>
+      <c r="J19" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" r="20" s="19">
       <c r="A20" s="24" t="n">
@@ -6072,15 +6189,20 @@
       </c>
       <c r="G20" s="21" t="inlineStr">
         <is>
-          <t>{"memberId":1003, "title":"借款开公司", "amount":200000, "loanRate":-0.1, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="H20" s="21" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20107", "data":None, "msg":"参数错误：借款利率 loanRate 值必须大于 0 小于或等于 24"}</t>
-        </is>
-      </c>
-      <c r="I20" s="27" t="n"/>
+          <t>{"memberId":#memberid#, "title":"借款开公司", "amount":200000, "loanRate":-0.1, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="H20" s="21" t="n"/>
+      <c r="I20" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20107"}</t>
+        </is>
+      </c>
+      <c r="J20" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" r="21" s="19">
       <c r="A21" s="24" t="n">
@@ -6109,15 +6231,20 @@
       </c>
       <c r="G21" s="21" t="inlineStr">
         <is>
-          <t>{"memberId":1003, "title":"借款开公司", "amount":200000, "loanRate":24.1, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="H21" s="21" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20107", "data":None, "msg":"参数错误：借款利率 loanRate 值必须大于 0 小于或等于 24"}</t>
-        </is>
-      </c>
-      <c r="I21" s="27" t="n"/>
+          <t>{"memberId":#memberid#, "title":"借款开公司", "amount":200000, "loanRate":24.1, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="H21" s="21" t="n"/>
+      <c r="I21" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20107"}</t>
+        </is>
+      </c>
+      <c r="J21" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" r="22" s="19">
       <c r="A22" s="24" t="n">
@@ -6146,15 +6273,20 @@
       </c>
       <c r="G22" s="21" t="inlineStr">
         <is>
-          <t>{"memberId":1001, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":1, "repaymemtWay":4, "biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="H22" s="21" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20108", "data":None, "msg":"参 数 错 误 ： 借 款 日 期 类 型loanDateType 只能为 0, 2, 4"}</t>
-        </is>
-      </c>
-      <c r="I22" s="27" t="n"/>
+          <t>{"memberId":#memberid#, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":1, "repaymemtWay":4, "biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="H22" s="21" t="n"/>
+      <c r="I22" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20108"}</t>
+        </is>
+      </c>
+      <c r="J22" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" r="23" s="19">
       <c r="A23" s="24" t="n">
@@ -6183,15 +6315,20 @@
       </c>
       <c r="G23" s="21" t="inlineStr">
         <is>
-          <t>{"memberId":"1001", "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="H23" s="21" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20109", "data":None, "msg":"参数错误：请根据参数类型对应输入, 数值类型只能输入数字"}</t>
-        </is>
-      </c>
-      <c r="I23" s="27" t="n"/>
+          <t>{"memberId":"abc", "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="H23" s="21" t="n"/>
+      <c r="I23" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20109"}</t>
+        </is>
+      </c>
+      <c r="J23" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" r="24" s="19">
       <c r="A24" s="24" t="n">
@@ -6220,15 +6357,20 @@
       </c>
       <c r="G24" s="21" t="inlineStr">
         <is>
-          <t>{"memberId":1001, "title":123, "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="H24" s="21" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20109", "data":None, "msg":"参数错误：请根据参数类型对应输入, 数值类型只能输入数字"}</t>
-        </is>
-      </c>
-      <c r="I24" s="27" t="n"/>
+          <t>{"memberId":#memberid#, "title":"   ", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="H24" s="21" t="n"/>
+      <c r="I24" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20109"}</t>
+        </is>
+      </c>
+      <c r="J24" s="24" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" r="25" s="19">
       <c r="A25" s="24" t="n">
@@ -6257,15 +6399,20 @@
       </c>
       <c r="G25" s="21" t="inlineStr">
         <is>
-          <t>{"memberId":1001, "title":"借款投资", "amount":"200000", "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="H25" s="21" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20109", "data":None, "msg":"参数错误：请根据参数类型对应输入, 数值类型只能输入数字"}</t>
-        </is>
-      </c>
-      <c r="I25" s="27" t="n"/>
+          <t>{"memberId":#memberid#, "title":"借款投资", "amount":"abc", "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="H25" s="21" t="n"/>
+      <c r="I25" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20109"}</t>
+        </is>
+      </c>
+      <c r="J25" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" r="26" s="19">
       <c r="A26" s="24" t="n">
@@ -6294,15 +6441,20 @@
       </c>
       <c r="G26" s="21" t="inlineStr">
         <is>
-          <t>{"memberId":1001, "title":"借款投资", "amount":200000, "loanRate":"18.0", "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="H26" s="21" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20109", "data":None, "msg":"参数错误：请根据参数类型对应输入, 数值类型只能输入数字"}</t>
-        </is>
-      </c>
-      <c r="I26" s="27" t="n"/>
+          <t>{"memberId":#memberid#, "title":"借款投资", "amount":200000, "loanRate":"aaa", "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="H26" s="21" t="n"/>
+      <c r="I26" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20109"}</t>
+        </is>
+      </c>
+      <c r="J26" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" r="27" s="19">
       <c r="A27" s="24" t="n">
@@ -6331,15 +6483,20 @@
       </c>
       <c r="G27" s="21" t="inlineStr">
         <is>
-          <t>{"memberId":1001, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":"6", "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="H27" s="21" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20109", "data":None, "msg":"参数错误：请根据参数类型对应输入, 数值类型只能输入数字"}</t>
-        </is>
-      </c>
-      <c r="I27" s="27" t="n"/>
+          <t>{"memberId":#memberid#, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":"a", "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="H27" s="21" t="n"/>
+      <c r="I27" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20109"}</t>
+        </is>
+      </c>
+      <c r="J27" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" r="28" s="19">
       <c r="A28" s="24" t="n">
@@ -6368,15 +6525,20 @@
       </c>
       <c r="G28" s="21" t="inlineStr">
         <is>
-          <t>{"memberId":1001, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":"0", "repaymemtWay":4, "biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="H28" s="21" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20109", "data":None, "msg":"参数错误：请根据参数类型对应输入, 数值类型只能输入数字"}</t>
-        </is>
-      </c>
-      <c r="I28" s="27" t="n"/>
+          <t>{"memberId":#memberid#, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":"a", "repaymemtWay":4, "biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="H28" s="21" t="n"/>
+      <c r="I28" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20109"}</t>
+        </is>
+      </c>
+      <c r="J28" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" r="29" s="19">
       <c r="A29" s="24" t="n">
@@ -6405,15 +6567,20 @@
       </c>
       <c r="G29" s="21" t="inlineStr">
         <is>
-          <t>{"memberId":1001, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":"4", "biddingDays":5}</t>
-        </is>
-      </c>
-      <c r="H29" s="21" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20109", "data":None, "msg":"参数错误：请根据参数类型对应输入, 数值类型只能输入数字"}</t>
-        </is>
-      </c>
-      <c r="I29" s="27" t="n"/>
+          <t>{"memberId":#memberid#, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":"a", "biddingDays":5}</t>
+        </is>
+      </c>
+      <c r="H29" s="21" t="n"/>
+      <c r="I29" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20109"}</t>
+        </is>
+      </c>
+      <c r="J29" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" r="30" s="19">
       <c r="A30" s="24" t="n">
@@ -6442,19 +6609,24 @@
       </c>
       <c r="G30" s="21" t="inlineStr">
         <is>
-          <t>{"memberId":1001, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":"5"}</t>
-        </is>
-      </c>
-      <c r="H30" s="21" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20109", "data":None, "msg":"参数错误：请根据参数类型对应输入, 数值类型只能输入数字"}</t>
-        </is>
-      </c>
-      <c r="I30" s="27" t="n"/>
+          <t>{"memberId":#memberid#, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":"a"}</t>
+        </is>
+      </c>
+      <c r="H30" s="21" t="n"/>
+      <c r="I30" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20109"}</t>
+        </is>
+      </c>
+      <c r="J30" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:B30"/>
+    <mergeCell ref="B3:B30"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
 </worksheet>
@@ -6466,11 +6638,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="C1" pane="bottomLeft" sqref="C1"/>
+      <selection activeCell="I29" pane="bottomLeft" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="17.4"/>
@@ -6481,11 +6653,11 @@
     <col customWidth="1" max="4" min="4" style="12" width="11.77734375"/>
     <col customWidth="1" max="5" min="5" style="12" width="10.21875"/>
     <col customWidth="1" max="6" min="6" style="19" width="21.33203125"/>
-    <col customWidth="1" max="7" min="7" style="19" width="30.6640625"/>
-    <col customWidth="1" max="8" min="8" style="19" width="131.44140625"/>
-    <col customWidth="1" max="9" min="9" style="19" width="10.33203125"/>
-    <col customWidth="1" max="15" min="10" style="19" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="16" style="19" width="8.88671875"/>
+    <col customWidth="1" max="8" min="7" style="19" width="30.6640625"/>
+    <col customWidth="1" max="9" min="9" style="19" width="39.5546875"/>
+    <col customWidth="1" max="10" min="10" style="12" width="10.33203125"/>
+    <col customWidth="1" max="49" min="11" style="19" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="50" style="19" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6524,12 +6696,17 @@
           <t>request_data</t>
         </is>
       </c>
-      <c r="H1" s="11" t="inlineStr">
+      <c r="H1" s="10" t="inlineStr">
+        <is>
+          <t>check_mysql</t>
+        </is>
+      </c>
+      <c r="I1" s="11" t="inlineStr">
         <is>
           <t>expected_data</t>
         </is>
       </c>
-      <c r="I1" s="11" t="inlineStr">
+      <c r="J1" s="11" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -6541,17 +6718,17 @@
       </c>
       <c r="B2" s="24" t="inlineStr">
         <is>
-          <t>审核</t>
+          <t>登录</t>
         </is>
       </c>
       <c r="C2" s="24" t="inlineStr">
         <is>
-          <t>审核中</t>
+          <t>正常登录</t>
         </is>
       </c>
       <c r="D2" s="24" t="inlineStr">
         <is>
-          <t>audit</t>
+          <t>login</t>
         </is>
       </c>
       <c r="E2" s="24" t="inlineStr">
@@ -6561,34 +6738,43 @@
       </c>
       <c r="F2" s="24" t="inlineStr">
         <is>
-          <t>/loan/audit</t>
-        </is>
-      </c>
-      <c r="G2" s="24" t="inlineStr">
-        <is>
-          <t>{"id":2001, "status ":1}</t>
-        </is>
-      </c>
-      <c r="H2" s="24" t="inlineStr">
-        <is>
-          <t>{"status":1,  "code":"10001", "data":None, "msg":"审核成功"}</t>
-        </is>
-      </c>
-      <c r="I2" s="24" t="n"/>
+          <t>/member/login</t>
+        </is>
+      </c>
+      <c r="G2" s="13" t="inlineStr">
+        <is>
+          <t>{"mobilephone":"#login_phone#", "pwd":"#pwd#"}</t>
+        </is>
+      </c>
+      <c r="H2" s="13" t="n"/>
+      <c r="I2" s="13" t="inlineStr">
+        <is>
+          <t>{"status":1,  "code":"10001"}</t>
+        </is>
+      </c>
+      <c r="J2" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="n"/>
-      <c r="C3" s="24" t="inlineStr">
-        <is>
-          <t>二审（初审中）</t>
+      <c r="B3" s="24" t="inlineStr">
+        <is>
+          <t>加标</t>
+        </is>
+      </c>
+      <c r="C3" s="27" t="inlineStr">
+        <is>
+          <t>正常新增, 期限类型0, 还款方式4</t>
         </is>
       </c>
       <c r="D3" s="24" t="inlineStr">
         <is>
-          <t>audit</t>
+          <t>add</t>
         </is>
       </c>
       <c r="E3" s="24" t="inlineStr">
@@ -6598,29 +6784,42 @@
       </c>
       <c r="F3" s="24" t="inlineStr">
         <is>
-          <t>/loan/audit</t>
-        </is>
-      </c>
-      <c r="G3" s="24" t="inlineStr">
-        <is>
-          <t>{"id":2001, "status ":2}</t>
-        </is>
-      </c>
-      <c r="H3" s="24" t="inlineStr">
-        <is>
-          <t>{"status":1,  "code":"10001", "data":None, "msg":"审核成功"}</t>
-        </is>
-      </c>
-      <c r="I3" s="24" t="n"/>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="G3" s="21" t="inlineStr">
+        <is>
+          <t>{"memberId":#memberid#, "Title":"借款投资", "Amount":200000.00, "LoanRate":18.0, "LoanTerm":6, "LoanDateType":0, "RepaymemtWay":4, "BiddingDays":5}</t>
+        </is>
+      </c>
+      <c r="H3" s="21" t="inlineStr">
+        <is>
+          <t>SELECT Id FROM loan WHERE MemberId=#memberid# ORDER BY CreateTime DESC LIMIT 1</t>
+        </is>
+      </c>
+      <c r="I3" s="13" t="inlineStr">
+        <is>
+          <t>{"status":1,  "code":"10001"}</t>
+        </is>
+      </c>
+      <c r="J3" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="n"/>
+      <c r="B4" s="24" t="inlineStr">
+        <is>
+          <t>审核</t>
+        </is>
+      </c>
       <c r="C4" s="24" t="inlineStr">
         <is>
-          <t>三审（复审中）</t>
+          <t>审核中</t>
         </is>
       </c>
       <c r="D4" s="24" t="inlineStr">
@@ -6640,15 +6839,20 @@
       </c>
       <c r="G4" s="24" t="inlineStr">
         <is>
-          <t>{"id":2001, "status ":3}</t>
-        </is>
-      </c>
-      <c r="H4" s="24" t="inlineStr">
-        <is>
-          <t>{"status":1,  "code":"10001", "data":None, "msg":"审核成功"}</t>
-        </is>
-      </c>
-      <c r="I4" s="24" t="n"/>
+          <t>{"id":#loanid#, "status":1}</t>
+        </is>
+      </c>
+      <c r="H4" s="24" t="n"/>
+      <c r="I4" s="24" t="inlineStr">
+        <is>
+          <t>{"status":1,  "code":"10001"}</t>
+        </is>
+      </c>
+      <c r="J4" s="24" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="24" t="n">
@@ -6657,7 +6861,7 @@
       <c r="B5" s="25" t="n"/>
       <c r="C5" s="24" t="inlineStr">
         <is>
-          <t>竞标中</t>
+          <t>二审（初审中）</t>
         </is>
       </c>
       <c r="D5" s="24" t="inlineStr">
@@ -6677,15 +6881,20 @@
       </c>
       <c r="G5" s="24" t="inlineStr">
         <is>
-          <t>{"id":2001, "status ":4}</t>
-        </is>
-      </c>
-      <c r="H5" s="24" t="inlineStr">
-        <is>
-          <t>{"status":1,  "code":"10001", "data":None, "msg":"审核成功"}</t>
-        </is>
-      </c>
-      <c r="I5" s="24" t="n"/>
+          <t>{"id":#loanid#, "status":2}</t>
+        </is>
+      </c>
+      <c r="H5" s="24" t="n"/>
+      <c r="I5" s="24" t="inlineStr">
+        <is>
+          <t>{"status":1,  "code":"10001"}</t>
+        </is>
+      </c>
+      <c r="J5" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="24" t="n">
@@ -6694,7 +6903,7 @@
       <c r="B6" s="25" t="n"/>
       <c r="C6" s="24" t="inlineStr">
         <is>
-          <t>核保审批</t>
+          <t>三审（复审中）</t>
         </is>
       </c>
       <c r="D6" s="24" t="inlineStr">
@@ -6714,15 +6923,20 @@
       </c>
       <c r="G6" s="24" t="inlineStr">
         <is>
-          <t>{"id":2001, "status ":5}</t>
-        </is>
-      </c>
-      <c r="H6" s="24" t="inlineStr">
-        <is>
-          <t>{"status":1,  "code":"10001", "data":None, "msg":"审核成功"}</t>
-        </is>
-      </c>
-      <c r="I6" s="24" t="n"/>
+          <t>{"id":#loanid#, "status":3}</t>
+        </is>
+      </c>
+      <c r="H6" s="24" t="n"/>
+      <c r="I6" s="24" t="inlineStr">
+        <is>
+          <t>{"status":1,  "code":"10001"}</t>
+        </is>
+      </c>
+      <c r="J6" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="24" t="n">
@@ -6731,7 +6945,7 @@
       <c r="B7" s="25" t="n"/>
       <c r="C7" s="24" t="inlineStr">
         <is>
-          <t>平台终审</t>
+          <t>竞标中</t>
         </is>
       </c>
       <c r="D7" s="24" t="inlineStr">
@@ -6751,15 +6965,20 @@
       </c>
       <c r="G7" s="24" t="inlineStr">
         <is>
-          <t>{"id":2001, "status ":6}</t>
-        </is>
-      </c>
-      <c r="H7" s="24" t="inlineStr">
-        <is>
-          <t>{"status":1,  "code":"10001", "data":None, "msg":"审核成功"}</t>
-        </is>
-      </c>
-      <c r="I7" s="24" t="n"/>
+          <t>{"id":#loanid#, "status":4}</t>
+        </is>
+      </c>
+      <c r="H7" s="24" t="n"/>
+      <c r="I7" s="24" t="inlineStr">
+        <is>
+          <t>{"status":1,  "code":"10001"}</t>
+        </is>
+      </c>
+      <c r="J7" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="24" t="n">
@@ -6768,7 +6987,7 @@
       <c r="B8" s="25" t="n"/>
       <c r="C8" s="24" t="inlineStr">
         <is>
-          <t>审核不通过</t>
+          <t>核保审批</t>
         </is>
       </c>
       <c r="D8" s="24" t="inlineStr">
@@ -6788,15 +7007,20 @@
       </c>
       <c r="G8" s="24" t="inlineStr">
         <is>
-          <t>{"id":2001, "status ":8}</t>
-        </is>
-      </c>
-      <c r="H8" s="24" t="inlineStr">
-        <is>
-          <t>{"status":1,  "code":"10001", "data":None, "msg":"审核成功"}</t>
-        </is>
-      </c>
-      <c r="I8" s="24" t="n"/>
+          <t>{"id":#loanid#, "status":5}</t>
+        </is>
+      </c>
+      <c r="H8" s="24" t="n"/>
+      <c r="I8" s="24" t="inlineStr">
+        <is>
+          <t>{"status":1,  "code":"10001"}</t>
+        </is>
+      </c>
+      <c r="J8" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="24" t="n">
@@ -6805,7 +7029,7 @@
       <c r="B9" s="25" t="n"/>
       <c r="C9" s="24" t="inlineStr">
         <is>
-          <t>流标</t>
+          <t>平台终审</t>
         </is>
       </c>
       <c r="D9" s="24" t="inlineStr">
@@ -6825,15 +7049,20 @@
       </c>
       <c r="G9" s="24" t="inlineStr">
         <is>
-          <t>{"id":2001, "status ":9}</t>
-        </is>
-      </c>
-      <c r="H9" s="24" t="inlineStr">
-        <is>
-          <t>{"status":1,  "code":"10001", "data":None, "msg":"审核成功"}</t>
-        </is>
-      </c>
-      <c r="I9" s="24" t="n"/>
+          <t>{"id":#loanid#, "status":6}</t>
+        </is>
+      </c>
+      <c r="H9" s="24" t="n"/>
+      <c r="I9" s="24" t="inlineStr">
+        <is>
+          <t>{"status":1,  "code":"10001"}</t>
+        </is>
+      </c>
+      <c r="J9" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="24" t="n">
@@ -6842,7 +7071,7 @@
       <c r="B10" s="25" t="n"/>
       <c r="C10" s="24" t="inlineStr">
         <is>
-          <t>申请流标</t>
+          <t>审核不通过</t>
         </is>
       </c>
       <c r="D10" s="24" t="inlineStr">
@@ -6862,15 +7091,20 @@
       </c>
       <c r="G10" s="24" t="inlineStr">
         <is>
-          <t>{"id":2001, "status ":11}</t>
-        </is>
-      </c>
-      <c r="H10" s="24" t="inlineStr">
-        <is>
-          <t>{"status":1,  "code":"10001", "data":None, "msg":"审核成功"}</t>
-        </is>
-      </c>
-      <c r="I10" s="24" t="n"/>
+          <t>{"id":#loanid#, "status":8}</t>
+        </is>
+      </c>
+      <c r="H10" s="24" t="n"/>
+      <c r="I10" s="24" t="inlineStr">
+        <is>
+          <t>{"status":1,  "code":"10001"}</t>
+        </is>
+      </c>
+      <c r="J10" s="24" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="24" t="n">
@@ -6879,7 +7113,7 @@
       <c r="B11" s="25" t="n"/>
       <c r="C11" s="24" t="inlineStr">
         <is>
-          <t>id为空</t>
+          <t>流标</t>
         </is>
       </c>
       <c r="D11" s="24" t="inlineStr">
@@ -6899,15 +7133,20 @@
       </c>
       <c r="G11" s="24" t="inlineStr">
         <is>
-          <t>{"id":, "status ":11}</t>
-        </is>
-      </c>
-      <c r="H11" s="24" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20203", "data":None, "msg":"参数错误:所有参数不能为空"}</t>
-        </is>
-      </c>
-      <c r="I11" s="27" t="n"/>
+          <t>{"id":#loanid#, "status":9}</t>
+        </is>
+      </c>
+      <c r="H11" s="24" t="n"/>
+      <c r="I11" s="24" t="inlineStr">
+        <is>
+          <t>{"status":1,  "code":"10001"}</t>
+        </is>
+      </c>
+      <c r="J11" s="24" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="24" t="n">
@@ -6916,7 +7155,7 @@
       <c r="B12" s="25" t="n"/>
       <c r="C12" s="24" t="inlineStr">
         <is>
-          <t>status为空</t>
+          <t>申请流标</t>
         </is>
       </c>
       <c r="D12" s="24" t="inlineStr">
@@ -6936,15 +7175,20 @@
       </c>
       <c r="G12" s="24" t="inlineStr">
         <is>
-          <t>{"id":2001, "status ":}</t>
-        </is>
-      </c>
-      <c r="H12" s="24" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20203", "data":None, "msg":"参数错误:所有参数不能为空"}</t>
-        </is>
-      </c>
-      <c r="I12" s="27" t="n"/>
+          <t>{"id":#loanid#, "status":11}</t>
+        </is>
+      </c>
+      <c r="H12" s="24" t="n"/>
+      <c r="I12" s="24" t="inlineStr">
+        <is>
+          <t>{"status":1,  "code":"10001"}</t>
+        </is>
+      </c>
+      <c r="J12" s="24" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="24" t="n">
@@ -6953,7 +7197,7 @@
       <c r="B13" s="25" t="n"/>
       <c r="C13" s="24" t="inlineStr">
         <is>
-          <t>status非法</t>
+          <t>id为空</t>
         </is>
       </c>
       <c r="D13" s="24" t="inlineStr">
@@ -6973,15 +7217,20 @@
       </c>
       <c r="G13" s="24" t="inlineStr">
         <is>
-          <t>{"id":2001, "status ":0}</t>
-        </is>
-      </c>
-      <c r="H13" s="24" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20205", "data":None, "msg":"参数错误：非法 status 参数, 状态值 1-11"}</t>
-        </is>
-      </c>
-      <c r="I13" s="27" t="n"/>
+          <t>{"id":None, "status":11}</t>
+        </is>
+      </c>
+      <c r="H13" s="24" t="n"/>
+      <c r="I13" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20203"}</t>
+        </is>
+      </c>
+      <c r="J13" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="24" t="n">
@@ -6990,7 +7239,7 @@
       <c r="B14" s="25" t="n"/>
       <c r="C14" s="24" t="inlineStr">
         <is>
-          <t>id不存在</t>
+          <t>status为空</t>
         </is>
       </c>
       <c r="D14" s="24" t="inlineStr">
@@ -7010,15 +7259,20 @@
       </c>
       <c r="G14" s="24" t="inlineStr">
         <is>
-          <t>{"id":0001, "status ":0}</t>
-        </is>
-      </c>
-      <c r="H14" s="24" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20206", "data":None, "msg":"不存在该项目"}</t>
-        </is>
-      </c>
-      <c r="I14" s="27" t="n"/>
+          <t>{"id":#loanid#, "status":None}</t>
+        </is>
+      </c>
+      <c r="H14" s="24" t="n"/>
+      <c r="I14" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20203"}</t>
+        </is>
+      </c>
+      <c r="J14" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="24" t="n">
@@ -7027,7 +7281,7 @@
       <c r="B15" s="25" t="n"/>
       <c r="C15" s="24" t="inlineStr">
         <is>
-          <t>状态已存在（3）</t>
+          <t>status非法</t>
         </is>
       </c>
       <c r="D15" s="24" t="inlineStr">
@@ -7047,15 +7301,20 @@
       </c>
       <c r="G15" s="24" t="inlineStr">
         <is>
-          <t>{"id":2001, "status ":3}</t>
-        </is>
-      </c>
-      <c r="H15" s="24" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20207", "data":None, "msg":"修改失败, 当前标已经是该状态"}</t>
-        </is>
-      </c>
-      <c r="I15" s="27" t="n"/>
+          <t>{"id":#loanid#, "status":0}</t>
+        </is>
+      </c>
+      <c r="H15" s="24" t="n"/>
+      <c r="I15" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20205"}</t>
+        </is>
+      </c>
+      <c r="J15" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="24" t="n">
@@ -7064,7 +7323,7 @@
       <c r="B16" s="25" t="n"/>
       <c r="C16" s="24" t="inlineStr">
         <is>
-          <t>审核不通过的标修改状态</t>
+          <t>id不存在</t>
         </is>
       </c>
       <c r="D16" s="24" t="inlineStr">
@@ -7084,15 +7343,20 @@
       </c>
       <c r="G16" s="24" t="inlineStr">
         <is>
-          <t>{"id":2001, "status ":4}</t>
-        </is>
-      </c>
-      <c r="H16" s="24" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20208", "data":None, "msg":"审核不通过、流标、还款完成的标不允许修改状态"}</t>
-        </is>
-      </c>
-      <c r="I16" s="27" t="n"/>
+          <t>{"id":1000001, "status":2}</t>
+        </is>
+      </c>
+      <c r="H16" s="24" t="n"/>
+      <c r="I16" s="24" t="inlineStr">
+        <is>
+          <t>{"status":1,  "code":"20206"}</t>
+        </is>
+      </c>
+      <c r="J16" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="24" t="n">
@@ -7101,7 +7365,7 @@
       <c r="B17" s="25" t="n"/>
       <c r="C17" s="24" t="inlineStr">
         <is>
-          <t>流标的标修改状态</t>
+          <t>状态已存在（3）</t>
         </is>
       </c>
       <c r="D17" s="24" t="inlineStr">
@@ -7121,15 +7385,20 @@
       </c>
       <c r="G17" s="24" t="inlineStr">
         <is>
-          <t>{"id":2001, "status ":5}</t>
-        </is>
-      </c>
-      <c r="H17" s="24" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20208", "data":None, "msg":"审核不通过、流标、还款完成的标不允许修改状态"}</t>
-        </is>
-      </c>
-      <c r="I17" s="27" t="n"/>
+          <t>{"id":#loanid#, "status":3}</t>
+        </is>
+      </c>
+      <c r="H17" s="24" t="n"/>
+      <c r="I17" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20207"}</t>
+        </is>
+      </c>
+      <c r="J17" s="24" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="24" t="n">
@@ -7138,7 +7407,7 @@
       <c r="B18" s="25" t="n"/>
       <c r="C18" s="24" t="inlineStr">
         <is>
-          <t>还款完成的标修改状态</t>
+          <t>审核不通过的标修改状态</t>
         </is>
       </c>
       <c r="D18" s="24" t="inlineStr">
@@ -7158,15 +7427,20 @@
       </c>
       <c r="G18" s="24" t="inlineStr">
         <is>
-          <t>{"id":2001, "status ":6}</t>
-        </is>
-      </c>
-      <c r="H18" s="24" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20208", "data":None, "msg":"审核不通过、流标、还款完成的标不允许修改状态"}</t>
-        </is>
-      </c>
-      <c r="I18" s="27" t="n"/>
+          <t>{"id":#loanid#, "status":4}</t>
+        </is>
+      </c>
+      <c r="H18" s="24" t="n"/>
+      <c r="I18" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20208"}</t>
+        </is>
+      </c>
+      <c r="J18" s="24" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="n">
@@ -7175,7 +7449,7 @@
       <c r="B19" s="25" t="n"/>
       <c r="C19" s="24" t="inlineStr">
         <is>
-          <t>status不符合审核规范</t>
+          <t>流标的标修改状态</t>
         </is>
       </c>
       <c r="D19" s="24" t="inlineStr">
@@ -7195,15 +7469,20 @@
       </c>
       <c r="G19" s="24" t="inlineStr">
         <is>
-          <t>{"id":2001, "status ":10}</t>
-        </is>
-      </c>
-      <c r="H19" s="24" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20209", "data":None, "msg":"当前接口暂未开放该状态值更新"}</t>
-        </is>
-      </c>
-      <c r="I19" s="27" t="n"/>
+          <t>{"id":#loanid#, "status":5}</t>
+        </is>
+      </c>
+      <c r="H19" s="24" t="n"/>
+      <c r="I19" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20208"}</t>
+        </is>
+      </c>
+      <c r="J19" s="24" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="24" t="n">
@@ -7212,7 +7491,7 @@
       <c r="B20" s="25" t="n"/>
       <c r="C20" s="24" t="inlineStr">
         <is>
-          <t>未执行回款计划, 更新到还款中</t>
+          <t>还款完成的标修改状态</t>
         </is>
       </c>
       <c r="D20" s="24" t="inlineStr">
@@ -7232,15 +7511,20 @@
       </c>
       <c r="G20" s="24" t="inlineStr">
         <is>
-          <t>{"id":2001, "status ":7}</t>
-        </is>
-      </c>
-      <c r="H20" s="24" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20210", "data":None, "msg":"不允许直接更新项目到还款中状态, 请执行生成回款计划"}</t>
-        </is>
-      </c>
-      <c r="I20" s="27" t="n"/>
+          <t>{"id":#loanid#, "status":6}</t>
+        </is>
+      </c>
+      <c r="H20" s="24" t="n"/>
+      <c r="I20" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20208"}</t>
+        </is>
+      </c>
+      <c r="J20" s="24" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="24" t="n">
@@ -7249,7 +7533,7 @@
       <c r="B21" s="25" t="n"/>
       <c r="C21" s="24" t="inlineStr">
         <is>
-          <t>id数据类型错误</t>
+          <t>status不符合审核规范</t>
         </is>
       </c>
       <c r="D21" s="24" t="inlineStr">
@@ -7269,15 +7553,20 @@
       </c>
       <c r="G21" s="24" t="inlineStr">
         <is>
-          <t>{"id":"2001", "status ":3}</t>
-        </is>
-      </c>
-      <c r="H21" s="24" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20212", "data":None, "msg":"请根据参数类型对应输入, 数值类型只能输入数字"}</t>
-        </is>
-      </c>
-      <c r="I21" s="27" t="n"/>
+          <t>{"id":#loanid#, "status":1}</t>
+        </is>
+      </c>
+      <c r="H21" s="24" t="n"/>
+      <c r="I21" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20209"}</t>
+        </is>
+      </c>
+      <c r="J21" s="24" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="24" t="n">
@@ -7286,7 +7575,7 @@
       <c r="B22" s="25" t="n"/>
       <c r="C22" s="24" t="inlineStr">
         <is>
-          <t>status数据类型错误</t>
+          <t>未执行回款计划, 更新到还款中</t>
         </is>
       </c>
       <c r="D22" s="24" t="inlineStr">
@@ -7306,56 +7595,150 @@
       </c>
       <c r="G22" s="24" t="inlineStr">
         <is>
-          <t>{"id":2001, "status ":"3"}</t>
-        </is>
-      </c>
-      <c r="H22" s="24" t="inlineStr">
-        <is>
-          <t>{"status":0,  "code":"20212", "data":None, "msg":"请根据参数类型对应输入, 数值类型只能输入数字"}</t>
-        </is>
-      </c>
-      <c r="I22" s="27" t="n"/>
+          <t>{"id":#loanid#, "status":7}</t>
+        </is>
+      </c>
+      <c r="H22" s="24" t="n"/>
+      <c r="I22" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20210"}</t>
+        </is>
+      </c>
+      <c r="J22" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="24" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="26" t="n"/>
-      <c r="C23" s="20" t="inlineStr">
+      <c r="B23" s="25" t="n"/>
+      <c r="C23" s="24" t="inlineStr">
+        <is>
+          <t>id数据类型错误</t>
+        </is>
+      </c>
+      <c r="D23" s="24" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="E23" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F23" s="24" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="G23" s="24" t="inlineStr">
+        <is>
+          <t>{"id":"abc#", "status":3}</t>
+        </is>
+      </c>
+      <c r="H23" s="24" t="n"/>
+      <c r="I23" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20212"}</t>
+        </is>
+      </c>
+      <c r="J23" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="25" t="n"/>
+      <c r="C24" s="24" t="inlineStr">
+        <is>
+          <t>status数据类型错误</t>
+        </is>
+      </c>
+      <c r="D24" s="24" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="E24" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F24" s="24" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="G24" s="24" t="inlineStr">
+        <is>
+          <t>{"id":#loanid#, "status":"a"}</t>
+        </is>
+      </c>
+      <c r="H24" s="24" t="n"/>
+      <c r="I24" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20212"}</t>
+        </is>
+      </c>
+      <c r="J24" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="24" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="26" t="n"/>
+      <c r="C25" s="20" t="inlineStr">
         <is>
           <t>未满标执行核保审批</t>
         </is>
       </c>
-      <c r="D23" s="24" t="inlineStr">
+      <c r="D25" s="24" t="inlineStr">
         <is>
           <t>audit</t>
         </is>
       </c>
-      <c r="E23" s="24" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F23" s="24" t="inlineStr">
+      <c r="E25" s="24" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F25" s="24" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="G23" s="24" t="inlineStr">
-        <is>
-          <t>{"id":2002, "status ":"5"}</t>
-        </is>
-      </c>
-      <c r="H23" s="20" t="inlineStr">
-        <is>
-          <t>？？？？？</t>
-        </is>
-      </c>
-      <c r="I23" s="27" t="n"/>
+      <c r="G25" s="24" t="inlineStr">
+        <is>
+          <t>{"id":2002, "status":"5"}</t>
+        </is>
+      </c>
+      <c r="H25" s="24" t="n"/>
+      <c r="I25" s="24" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20207"}</t>
+        </is>
+      </c>
+      <c r="J25" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:B23"/>
+    <mergeCell ref="B4:B25"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
 </worksheet>
@@ -7384,8 +7767,8 @@
     <col customWidth="1" max="7" min="7" style="14" width="41.88671875"/>
     <col customWidth="1" max="8" min="8" style="14" width="89.44140625"/>
     <col customWidth="1" max="9" min="9" style="14" width="10.33203125"/>
-    <col customWidth="1" max="15" min="10" style="14" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="16" style="14" width="8.88671875"/>
+    <col customWidth="1" max="48" min="10" style="14" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="49" style="14" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/data/qcd_testcases.xlsx
+++ b/data/qcd_testcases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keen\PycharmProjects\qcd_api_test_00\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7BA7CF-30FE-4A62-AEAD-3DFF204A5037}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A19A74-1F23-4768-A9C8-C2E5F98B043F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="15024" tabRatio="775" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="15024" tabRatio="775" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="408">
   <si>
     <t>case_id</t>
   </si>
@@ -104,6 +104,9 @@
     <t>{'mobilephone':'#register_phone#', 'pwd':'abc123456789012300', 'regname':' '}</t>
   </si>
   <si>
+    <t>#exists_phone#是数据库中已存在的手机号，查库获得</t>
+  </si>
+  <si>
     <t>手机号为空</t>
   </si>
   <si>
@@ -206,12 +209,18 @@
     <t>{"status":0,  "code":"20111", "data":None, "msg":"用户名或密码错误"}</t>
   </si>
   <si>
+    <t>#login_phone1# 是已注册好的账号</t>
+  </si>
+  <si>
     <t>{"mobilephone":" ", "pwd":"abc123"}</t>
   </si>
   <si>
     <t>{"status":0,  "code":"20103", "data":None, "msg":"手机号不能为空"}</t>
   </si>
   <si>
+    <t>#exists_phone#是数据库中已存在的手机号，查库获得。</t>
+  </si>
+  <si>
     <t>手机号未注册</t>
   </si>
   <si>
@@ -275,18 +284,27 @@
     <t>{"status":1,  "code":"10001", "msg":"充值成功"}</t>
   </si>
   <si>
+    <t>蓝色填充的为辅助用例</t>
+  </si>
+  <si>
     <t>正常充值200000.5</t>
   </si>
   <si>
     <t>{"mobilephone":"#login_phone1#", "amount":200000.5}</t>
   </si>
   <si>
+    <t>#login_phone1#是已注册好的账号</t>
+  </si>
+  <si>
     <t>正常充值0.01</t>
   </si>
   <si>
     <t>{"mobilephone":"#login_phone1#", "amount":0.01}</t>
   </si>
   <si>
+    <t>#register_phone#是随机生成的手机号，并且数据库中没有改号码</t>
+  </si>
+  <si>
     <t>{"mobilephone":"", "amount":100.99}</t>
   </si>
   <si>
@@ -362,6 +380,21 @@
     <t>note</t>
   </si>
   <si>
+    <t>{"mobilephone":"#login_phone2#", "pwd":"#pwd2#"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"#login_phone2#", "amount":500000}</t>
+  </si>
+  <si>
+    <t>正常充值200000.51</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"#login_phone2#", "amount":200000.51}</t>
+  </si>
+  <si>
+    <t>#login_phone2#是已注册好的账号</t>
+  </si>
+  <si>
     <t>取现</t>
   </si>
   <si>
@@ -374,33 +407,57 @@
     <t>/member/withdraw</t>
   </si>
   <si>
+    <t>SELECT LeaveAmount FROM member WHERE MobilePhone=#login_phone2#</t>
+  </si>
+  <si>
     <t>{"status":1,  "code":"10001", "msg":"取现成功"}</t>
   </si>
   <si>
     <t>正常取现199999.5</t>
   </si>
   <si>
+    <t>{"mobilephone":"#login_phone2#", "amount":199999.5}</t>
+  </si>
+  <si>
     <t>正常取现0.01</t>
   </si>
   <si>
+    <t>{"mobilephone":"#login_phone2#", "amount":0.01}</t>
+  </si>
+  <si>
     <t>取现金额为空</t>
   </si>
   <si>
+    <t>{"mobilephone":"#login_phone2#", "amount":None}</t>
+  </si>
+  <si>
     <t>BUG,返回status:1</t>
   </si>
   <si>
     <t>取现2000.999</t>
   </si>
   <si>
+    <t>{"mobilephone":"#login_phone2#", "amount":2000.999}</t>
+  </si>
+  <si>
     <t>取现0</t>
   </si>
   <si>
+    <t>{"mobilephone":"#login_phone2#", "amount":0}</t>
+  </si>
+  <si>
     <t>取现-1</t>
   </si>
   <si>
+    <t>{"mobilephone":"#login_phone2#", "amount":-1}</t>
+  </si>
+  <si>
     <t>取现500000.01</t>
   </si>
   <si>
+    <t>{"mobilephone":"#login_phone2#", "amount":500000.01}</t>
+  </si>
+  <si>
     <t>取现a1000</t>
   </si>
   <si>
@@ -425,19 +482,16 @@
     <t>{"status":1,  "code":"10001", "msg":"获取用户列表成功"}</t>
   </si>
   <si>
-    <t>{'mobilephone':'#login_phone#', 'pwd':'#pwd#'}</t>
+    <t>{'mobilephone':'#login_phone5#', 'pwd':'#pwd5#'}</t>
   </si>
   <si>
     <t>{'status':1,  'code':'10001'}</t>
   </si>
   <si>
-    <t>表示辅助用例</t>
-  </si>
-  <si>
     <t>正常充值5000</t>
   </si>
   <si>
-    <t>{"mobilephone":"#login_phone#", "amount":6000}</t>
+    <t>{"mobilephone":"#login_phone5#", "amount":5000}</t>
   </si>
   <si>
     <t>{"status":1,  "code":"10001"}</t>
@@ -455,10 +509,13 @@
     <t>/loan/add</t>
   </si>
   <si>
-    <t>{"memberId":#memberid#, "Title":"借款投资", "amount":4000.00, "LoanRate":18.0, "LoanTerm":6, "LoanDateType":0, "RepaymemtWay":4, "BiddingDays":5}</t>
-  </si>
-  <si>
-    <t>SELECT Id FROM loan WHERE memberid=#memberid# ORDER BY CreateTime DESC LIMIT 1</t>
+    <t>{"memberId":#memberid5#, "Title":"借款投资", "amount":3000.00, "LoanRate":18.0, "LoanTerm":6, "LoanDateType":0, "RepaymemtWay":4, "BiddingDays":5}</t>
+  </si>
+  <si>
+    <t>SELECT Id FROM loan WHERE MemberId=#memberid5# ORDER BY CreateTime DESC LIMIT 1</t>
+  </si>
+  <si>
+    <t>#login_phone5#是已注册好的账号</t>
   </si>
   <si>
     <t>审核</t>
@@ -476,12 +533,18 @@
     <t>{"id":#loanid#, "status":2}</t>
   </si>
   <si>
+    <t>#memberid5#是已注册好的用户Id</t>
+  </si>
+  <si>
     <t>三审（复审中）</t>
   </si>
   <si>
     <t>{"id":#loanid#, "status":3}</t>
   </si>
   <si>
+    <t>#loanid#是该用例加标的标id</t>
+  </si>
+  <si>
     <t>竞标</t>
   </si>
   <si>
@@ -494,501 +557,564 @@
     <t>/member/bidLoan</t>
   </si>
   <si>
-    <t>{'memberId':#memberid#, 'password':'#pwd#', 'loanId':'#floanid#', 'amount':2000}</t>
+    <t>{'memberId':#memberid5#, 'password':'#pwd5#', 'loanId':'#floanid#', 'amount':2000}</t>
   </si>
   <si>
     <t>{'status':0,  'code':'11010'}</t>
   </si>
   <si>
+    <t>#nomemberid#查库获取最大的用户id并且+1</t>
+  </si>
+  <si>
     <t>竞标中</t>
   </si>
   <si>
     <t>{"id":#loanid#, "status":4}</t>
   </si>
   <si>
+    <t>#noloanid#查库获取最大的loanid并且+1</t>
+  </si>
+  <si>
     <t>正常投资2000</t>
   </si>
   <si>
-    <t>{'memberId':#memberid#, 'password':'#pwd#', 'loanId':#loanid#, 'amount':2000}</t>
+    <t>{'memberId':#memberid5#, 'password':'#pwd5#', 'loanId':#loanid#, 'amount':2000}</t>
+  </si>
+  <si>
+    <t>SELECT LeaveAmount FROM member WHERE Id=#memberid5#</t>
+  </si>
+  <si>
+    <t>可投余额不足（投3K)</t>
+  </si>
+  <si>
+    <t>{'memberId':'#memberid5#', 'password':'#pwd5#', 'loanId':#loanid#, 'amount':3000}</t>
+  </si>
+  <si>
+    <t>{'status':0,  'code':'11012'}</t>
+  </si>
+  <si>
+    <t>正常取现3000</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"#login_phone5#", "amount":3000}</t>
+  </si>
+  <si>
+    <t>用户余额不足</t>
+  </si>
+  <si>
+    <t>{'memberId':'#memberid5#', 'password':'#pwd5#', 'loanId':#loanid#, 'amount':1000}</t>
+  </si>
+  <si>
+    <t>正常充值1000</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"#login_phone5#", "amount":1000}</t>
+  </si>
+  <si>
+    <t>投资</t>
+  </si>
+  <si>
+    <t>memberId为空</t>
+  </si>
+  <si>
+    <t>{'memberId': None, 'password':'#pwd5#', 'loanId':#loanid#, 'amount':2000}</t>
+  </si>
+  <si>
+    <t>{'status':0,  'code':'11003'}</t>
+  </si>
+  <si>
+    <t>password为空</t>
+  </si>
+  <si>
+    <t>{'memberId':#memberid5#, 'password':'', 'loanId':#loanid#, 'amount':2000}</t>
+  </si>
+  <si>
+    <t>loanId为空</t>
+  </si>
+  <si>
+    <t>{'memberId':#memberid5#, 'password':'#pwd5#', 'loanId':None, 'amount':2000}</t>
+  </si>
+  <si>
+    <t>amount为空</t>
+  </si>
+  <si>
+    <t>{'memberId':#memberid5#, 'password':'#pwd5#', 'loanId':#loanid#, 'amount':None}</t>
+  </si>
+  <si>
+    <t>memberId为0</t>
+  </si>
+  <si>
+    <t>{'memberId':0, 'password':'#pwd5#', 'loanId':#loanid#, 'amount':2000}</t>
+  </si>
+  <si>
+    <t>{'status':0,  'code':'11004'}</t>
+  </si>
+  <si>
+    <t>memberId为负数</t>
+  </si>
+  <si>
+    <t>{'memberId':-1001, 'password':'#pwd5#', 'loanId':#loanid#, 'amount':2000}</t>
+  </si>
+  <si>
+    <t>loanId为0</t>
+  </si>
+  <si>
+    <t>{'memberId':#memberid5#, 'password':'#pwd5#', 'loanId':0, 'amount':2000}</t>
+  </si>
+  <si>
+    <t>{'status':0,  'code':'11009'}</t>
+  </si>
+  <si>
+    <t>loanId为负数</t>
+  </si>
+  <si>
+    <t>{'memberId':#memberid5#, 'password':'#pwd5#', 'loanId':-1001, 'amount':2000}</t>
+  </si>
+  <si>
+    <t>password长度小于6</t>
+  </si>
+  <si>
+    <t>{'memberId':#memberid5#, 'password':'12345', 'loanId':#loanid#, 'amount':2000}</t>
+  </si>
+  <si>
+    <t>{'status':0,  'code':'11006'}</t>
+  </si>
+  <si>
+    <t>password长度大于18</t>
+  </si>
+  <si>
+    <t>{'memberId':#memberid5#, 'password':'1234567890123456789', 'loanId':#loanid#, 'amount':2000}</t>
+  </si>
+  <si>
+    <t>amount非100整数</t>
+  </si>
+  <si>
+    <t>{'memberId':#memberid5#, 'password':'#pwd5#', 'loanId':#loanid#, 'amount':990}</t>
+  </si>
+  <si>
+    <t>{'status':0,  'code':'11007'}</t>
+  </si>
+  <si>
+    <t>memberId不存在（未注册）</t>
+  </si>
+  <si>
+    <t>{'memberId':'#nomemberid#', 'password':'#pwd5#', 'loanId':#loanid#, 'amount':2000}</t>
+  </si>
+  <si>
+    <t>{'status':0,  'code':'11008'}</t>
+  </si>
+  <si>
+    <t>loanId不存在</t>
+  </si>
+  <si>
+    <t>{'memberId':#memberid5#, 'password':'#pwd5#', 'loanId':'#noloanid#', 'amount':2000}</t>
+  </si>
+  <si>
+    <t>正常投资1000</t>
+  </si>
+  <si>
+    <t>{'memberId':#memberid5#, 'password':'#pwd5#', 'loanId':#loanid#, 'amount':1000}</t>
+  </si>
+  <si>
+    <t>已经满标</t>
+  </si>
+  <si>
+    <t>{'status':0,  'code':'11011'}</t>
+  </si>
+  <si>
+    <t>memberId数据类型非法</t>
+  </si>
+  <si>
+    <t>{'memberId':'abc', 'password':'#pwd5#', 'loanId':#loanid#, 'amount':2000}</t>
+  </si>
+  <si>
+    <t>{'status':0,  'code':'11013'}</t>
+  </si>
+  <si>
+    <t>password数据类型非法</t>
+  </si>
+  <si>
+    <t>{'memberId':#memberid5#, 'password':100, 'loanId':#loanid#, 'amount':2000}</t>
+  </si>
+  <si>
+    <t>loanId数据类型非法</t>
+  </si>
+  <si>
+    <t>{'memberId':#memberid5#, 'password':'#pwd5#', 'loanId':'abc', 'amount':2000}</t>
+  </si>
+  <si>
+    <t>amount数据类型非法</t>
+  </si>
+  <si>
+    <t>{'memberId':#memberid5#, 'password':'#pwd5#', 'loanId':#loanid#, 'amount':'abc'}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"#login_phone#", "pwd":"#pwd#"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"#login_phone#", "amount":51997}</t>
+  </si>
+  <si>
+    <t>SELECT LeaveAmount FROM member WHERE MobilePhone=#login_phone#</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"#login_phone3#", "pwd":"#pwd3#"}</t>
+  </si>
+  <si>
+    <t>新增项目</t>
+  </si>
+  <si>
+    <t>正常新增, 期限类型0, 还款方式4</t>
+  </si>
+  <si>
+    <t>{"memberId":#memberid3#, "Title":"借款投资", "Amount":100000.00, "LoanRate":18.0, "LoanTerm":6, "LoanDateType":0, "RepaymemtWay":4, "BiddingDays":5}</t>
+  </si>
+  <si>
+    <t>SELECT * FROM loan WHERE memberid=#memberid3#</t>
+  </si>
+  <si>
+    <t>正常新增, 期限类型2, 还款方式5</t>
+  </si>
+  <si>
+    <t>{"memberId":#memberid3#, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":2, "repaymemtWay":5, "biddingDays":5}</t>
+  </si>
+  <si>
+    <t>#login_phone3#是已注册好的账号</t>
+  </si>
+  <si>
+    <t>正常新增, 期限类型4, 还款方式10</t>
+  </si>
+  <si>
+    <t>{"memberId":#memberid3#, "title":"借款投资", "amount":50000, "loanRate":18.0, "loanTerm":6, "loanDateType":4, "repaymemtWay":10, "biddingDays":5}</t>
+  </si>
+  <si>
+    <t>#memberid3#是已注册好的账号</t>
+  </si>
+  <si>
+    <t>正常新增, 期限类型0, 还款方式11</t>
+  </si>
+  <si>
+    <t>{"memberId":#memberid3#, "title":"借款投资", "amount":20000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":11, "biddingDays":5}</t>
+  </si>
+  <si>
+    <t>{"memberId":None, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+  </si>
+  <si>
+    <t>{"status":0,  "code":"20103"}</t>
+  </si>
+  <si>
+    <t>title为空</t>
+  </si>
+  <si>
+    <t>{"memberId":#memberid3#, "title":"", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+  </si>
+  <si>
+    <t>{"memberId":#memberid3#, "title":"借款开公司", "amount":None, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+  </si>
+  <si>
+    <t>loanRate为空</t>
+  </si>
+  <si>
+    <t>{"memberId":#memberid3#, "title":"借款开公司", "amount":200000, "loanRate":None, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+  </si>
+  <si>
+    <t>loanTerm为空</t>
+  </si>
+  <si>
+    <t>{"memberId":#memberid3#, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":None, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+  </si>
+  <si>
+    <t>loanDateType为空</t>
+  </si>
+  <si>
+    <t>{"memberId":#memberid3#, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":None, "repaymemtWay":4, "biddingDays":5}</t>
+  </si>
+  <si>
+    <t>repaymemtWay为空</t>
+  </si>
+  <si>
+    <t>{"memberId":#memberid3#, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":None, "biddingDays":10}</t>
+  </si>
+  <si>
+    <t>biddingDays为空</t>
+  </si>
+  <si>
+    <t>{"memberId":#memberid3#, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":None}</t>
+  </si>
+  <si>
+    <t>{"memberId":-1001, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+  </si>
+  <si>
+    <t>{"status":0,  "code":"20104"}</t>
+  </si>
+  <si>
+    <t>{"memberId":1000001, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+  </si>
+  <si>
+    <t>{"status":0,  "code":"20105"}</t>
+  </si>
+  <si>
+    <t>amount低于1000</t>
+  </si>
+  <si>
+    <t>{"memberId":#memberid3#, "title":"借款开公司", "amount":200, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+  </si>
+  <si>
+    <t>{"status":0,  "code":"20106"}</t>
+  </si>
+  <si>
+    <t>{"memberId":#memberid3#, "title":"借款开公司", "amount":200090, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+  </si>
+  <si>
+    <t>loanRate为0</t>
+  </si>
+  <si>
+    <t>{"memberId":#memberid3#, "title":"借款开公司", "amount":200000, "loanRate":0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+  </si>
+  <si>
+    <t>{"status":0,  "code":"20107"}</t>
+  </si>
+  <si>
+    <t>loanRate为负数</t>
+  </si>
+  <si>
+    <t>{"memberId":#memberid3#, "title":"借款开公司", "amount":200000, "loanRate":-0.1, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+  </si>
+  <si>
+    <t>loanRate大于24</t>
+  </si>
+  <si>
+    <t>{"memberId":#memberid3#, "title":"借款开公司", "amount":200000, "loanRate":24.1, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+  </si>
+  <si>
+    <t>loanDateType非法</t>
+  </si>
+  <si>
+    <t>{"memberId":#memberid3#, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":1, "repaymemtWay":4, "biddingDays":5}</t>
+  </si>
+  <si>
+    <t>{"status":0,  "code":"20108"}</t>
+  </si>
+  <si>
+    <t>{"memberId":"abc", "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+  </si>
+  <si>
+    <t>{"status":0,  "code":"20109"}</t>
+  </si>
+  <si>
+    <t>title数据类型非法</t>
+  </si>
+  <si>
+    <t>{"memberId":#memberid3#, "title":-0.00, "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+  </si>
+  <si>
+    <t>{"memberId":#memberid3#, "title":"借款投资", "amount":"abc", "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+  </si>
+  <si>
+    <t>loanRate数据类型非法</t>
+  </si>
+  <si>
+    <t>{"memberId":#memberid3#, "title":"借款投资", "amount":200000, "loanRate":"aaa", "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+  </si>
+  <si>
+    <t>loanRTerm数据类型非法</t>
+  </si>
+  <si>
+    <t>{"memberId":#memberid3#, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":"a", "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
+  </si>
+  <si>
+    <t>loanDateType数据类型非法</t>
+  </si>
+  <si>
+    <t>{"memberId":#memberid3#, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":"a", "repaymemtWay":4, "biddingDays":5}</t>
+  </si>
+  <si>
+    <t>repaymemtWay数据类型非法</t>
+  </si>
+  <si>
+    <t>{"memberId":#memberid3#, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":"a", "biddingDays":5}</t>
+  </si>
+  <si>
+    <t>biddingDays数据类型非法</t>
+  </si>
+  <si>
+    <t>{"memberId":#memberid3#, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":"a"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"#login_phone4#", "pwd":"#pwd4#"}</t>
+  </si>
+  <si>
+    <t>{"memberId":#memberid4#, "Title":"借款投资", "Amount":200000.00, "LoanRate":18.0, "LoanTerm":6, "LoanDateType":0, "RepaymemtWay":4, "BiddingDays":5}</t>
+  </si>
+  <si>
+    <t>SELECT Id FROM loan WHERE MemberId=#memberid4# ORDER BY CreateTime DESC LIMIT 1</t>
+  </si>
+  <si>
+    <t>SELECT Status FROM loan WHERE Id=#loanid#</t>
+  </si>
+  <si>
+    <t>#login_phone4#是已注册好的账号</t>
+  </si>
+  <si>
+    <t>#memberid4#是已注册好的账号</t>
+  </si>
+  <si>
+    <t>状态已存在（3）</t>
+  </si>
+  <si>
+    <t>{"status":0,  "code":"20207"}</t>
+  </si>
+  <si>
+    <t>核保审批</t>
+  </si>
+  <si>
+    <t>{"id":#loanid#, "status":5}</t>
+  </si>
+  <si>
+    <t>平台终审</t>
+  </si>
+  <si>
+    <t>{"id":#loanid#, "status":6}</t>
+  </si>
+  <si>
+    <t>审核不通过</t>
+  </si>
+  <si>
+    <t>{"id":#loanid#, "status":8}</t>
+  </si>
+  <si>
+    <t>审核不通过的标修改状态</t>
+  </si>
+  <si>
+    <t>{"status":0,  "code":"20208"}</t>
+  </si>
+  <si>
+    <t>流标</t>
+  </si>
+  <si>
+    <t>{"id":#loanid#, "status":9}</t>
+  </si>
+  <si>
+    <t>申请流标</t>
+  </si>
+  <si>
+    <t>{"id":#loanid#, "status":11}</t>
+  </si>
+  <si>
+    <t>流标的标修改状态</t>
+  </si>
+  <si>
+    <t>id为空</t>
+  </si>
+  <si>
+    <t>{"id":None, "status":11}</t>
+  </si>
+  <si>
+    <t>{"status":0,  "code":"20203"}</t>
+  </si>
+  <si>
+    <t>status为空</t>
+  </si>
+  <si>
+    <t>{"id":#loanid#, "status":None}</t>
+  </si>
+  <si>
+    <t>status非法</t>
+  </si>
+  <si>
+    <t>{"id":#loanid#, "status":12}</t>
+  </si>
+  <si>
+    <t>{"status":0,  "code":"20205"}</t>
+  </si>
+  <si>
+    <t>id不存在</t>
+  </si>
+  <si>
+    <t>{"id":1000001, "status":2}</t>
+  </si>
+  <si>
+    <t>{"status":1,  "code":"20206"}</t>
+  </si>
+  <si>
+    <t>还款完成的标修改状态</t>
+  </si>
+  <si>
+    <t>status不符合审核规范</t>
+  </si>
+  <si>
+    <t>{"id":#loanid#, "status":10}</t>
+  </si>
+  <si>
+    <t>{"status":0,  "code":"20211"}</t>
+  </si>
+  <si>
+    <t>未执行回款计划, 更新到还款中</t>
+  </si>
+  <si>
+    <t>{"id":#loanid#, "status":7}</t>
+  </si>
+  <si>
+    <t>{"status":0,  "code":"20210"}</t>
+  </si>
+  <si>
+    <t>id数据类型错误</t>
+  </si>
+  <si>
+    <t>{"id":"abc#", "status":3}</t>
+  </si>
+  <si>
+    <t>{"status":0,  "code":"20212"}</t>
+  </si>
+  <si>
+    <t>status数据类型错误</t>
+  </si>
+  <si>
+    <t>{"id":#loanid#, "status":"a"}</t>
+  </si>
+  <si>
+    <t>未满标执行核保审批</t>
+  </si>
+  <si>
+    <t>{"id":2002, "status":"5"}</t>
+  </si>
+  <si>
+    <t>正常加标5000</t>
+  </si>
+  <si>
+    <t>{"memberId":#memberid5#, "Title":"借款投资", "amount":5000.00, "LoanRate":18.0, "LoanTerm":6, "LoanDateType":0, "RepaymemtWay":4, "BiddingDays":5}</t>
+  </si>
+  <si>
+    <t>SELECT Id FROM loan WHERE MemberId=#memberid# ORDER BY CreateTime DESC LIMIT 1</t>
+  </si>
+  <si>
+    <t>生成回款计划</t>
+  </si>
+  <si>
+    <t>id状态不是核保审批或终审状态</t>
+  </si>
+  <si>
+    <t>generateRepayments</t>
+  </si>
+  <si>
+    <t>/loan//generateRepayments</t>
+  </si>
+  <si>
+    <t>{"id":#loanid#}</t>
+  </si>
+  <si>
+    <t>{"status":0,  "code":"20405"}</t>
+  </si>
+  <si>
+    <t>正常投资5000</t>
+  </si>
+  <si>
+    <t>{'memberId':#memberid5#, 'password':'#pwd5#', 'loanId':#loanid#, 'amount':5000}</t>
   </si>
   <si>
     <t>SELECT LeaveAmount FROM member WHERE Id=#memberid#</t>
   </si>
   <si>
-    <t>可投余额不足（投3K)</t>
-  </si>
-  <si>
-    <t>{'memberId':'#memberid#', 'password':'#pwd#', 'loanId':#loanid#, 'amount':3000}</t>
-  </si>
-  <si>
-    <t>{'status':0,  'code':'11012'}</t>
-  </si>
-  <si>
-    <t>正常取现3000</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"#login_phone#", "amount":3000}</t>
-  </si>
-  <si>
-    <t>用户余额不足</t>
-  </si>
-  <si>
-    <t>{'memberId':'#memberid#', 'password':'#pwd#', 'loanId':#loanid#, 'amount':1000}</t>
-  </si>
-  <si>
-    <t>正常充值2000</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"#login_phone#", "amount":2000}</t>
-  </si>
-  <si>
-    <t>投资</t>
-  </si>
-  <si>
-    <t>memberId为空</t>
-  </si>
-  <si>
-    <t>{'memberId': None, 'password':'#pwd#', 'loanId':#loanid#, 'amount':2000}</t>
-  </si>
-  <si>
-    <t>{'status':0,  'code':'11003'}</t>
-  </si>
-  <si>
-    <t>password为空</t>
-  </si>
-  <si>
-    <t>{'memberId':#memberid#, 'password':'', 'loanId':#loanid#, 'amount':2000}</t>
-  </si>
-  <si>
-    <t>loanId为空</t>
-  </si>
-  <si>
-    <t>{'memberId':#memberid#, 'password':'#pwd#', 'loanId':None, 'amount':2000}</t>
-  </si>
-  <si>
-    <t>amount为空</t>
-  </si>
-  <si>
-    <t>{'memberId':#memberid#, 'password':'#pwd#', 'loanId':#loanid#, 'amount':None}</t>
-  </si>
-  <si>
-    <t>memberId为0</t>
-  </si>
-  <si>
-    <t>{'memberId':0, 'password':'#pwd#', 'loanId':#loanid#, 'amount':2000}</t>
-  </si>
-  <si>
-    <t>{'status':0,  'code':'11004'}</t>
-  </si>
-  <si>
-    <t>memberId为负数</t>
-  </si>
-  <si>
-    <t>{'memberId':-1001, 'password':'#pwd#', 'loanId':#loanid#, 'amount':2000}</t>
-  </si>
-  <si>
-    <t>loanId为0</t>
-  </si>
-  <si>
-    <t>{'memberId':#memberid#, 'password':'#pwd#', 'loanId':0, 'amount':2000}</t>
-  </si>
-  <si>
-    <t>{'status':0,  'code':'11009'}</t>
-  </si>
-  <si>
-    <t>loanId为负数</t>
-  </si>
-  <si>
-    <t>{'memberId':#memberid#, 'password':'#pwd#', 'loanId':-1001, 'amount':2000}</t>
-  </si>
-  <si>
-    <t>password长度小于6</t>
-  </si>
-  <si>
-    <t>{'memberId':#memberid#, 'password':'12345', 'loanId':#loanid#, 'amount':2000}</t>
-  </si>
-  <si>
-    <t>{'status':0,  'code':'11006'}</t>
-  </si>
-  <si>
-    <t>password长度大于18</t>
-  </si>
-  <si>
-    <t>{'memberId':#memberid#, 'password':'1234567890123456789', 'loanId':#loanid#, 'amount':2000}</t>
-  </si>
-  <si>
-    <t>amount非100整数</t>
-  </si>
-  <si>
-    <t>{'memberId':#memberid#, 'password':'#pwd#', 'loanId':#loanid#, 'amount':990}</t>
-  </si>
-  <si>
-    <t>{'status':0,  'code':'11007'}</t>
-  </si>
-  <si>
-    <t>memberId不存在（未注册）</t>
-  </si>
-  <si>
-    <t>{'memberId':'#nomemberid#', 'password':'#pwd#', 'loanId':#loanid#, 'amount':2000}</t>
-  </si>
-  <si>
-    <t>{'status':0,  'code':'11008'}</t>
-  </si>
-  <si>
-    <t>loanId不存在</t>
-  </si>
-  <si>
-    <t>{'memberId':#memberid#, 'password':'#pwd#', 'loanId':'#noloanid#', 'amount':2000}</t>
-  </si>
-  <si>
-    <t>正常投资1000</t>
-  </si>
-  <si>
-    <t>{'memberId':#memberid#, 'password':'#pwd#', 'loanId':#loanid#, 'amount':1000}</t>
-  </si>
-  <si>
-    <t>已经满标</t>
-  </si>
-  <si>
-    <t>{'status':0,  'code':'11011'}</t>
-  </si>
-  <si>
-    <t>memberId数据类型非法</t>
-  </si>
-  <si>
-    <t>{'memberId':'abc', 'password':'#pwd#', 'loanId':#loanid#, 'amount':2000}</t>
-  </si>
-  <si>
-    <t>{'status':0,  'code':'11013'}</t>
-  </si>
-  <si>
-    <t>password数据类型非法</t>
-  </si>
-  <si>
-    <t>{'memberId':#memberid#, 'password':100, 'loanId':#loanid#, 'amount':2000}</t>
-  </si>
-  <si>
-    <t>loanId数据类型非法</t>
-  </si>
-  <si>
-    <t>{'memberId':#memberid#, 'password':'#pwd#', 'loanId':'abc', 'amount':2000}</t>
-  </si>
-  <si>
-    <t>amount数据类型非法</t>
-  </si>
-  <si>
-    <t>{'memberId':#memberid#, 'password':'#pwd#', 'loanId':#loanid#, 'amount':'abc'}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"#login_phone#", "pwd":"#pwd#"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"#login_phone#", "amount":51997}</t>
-  </si>
-  <si>
-    <t>SELECT LeaveAmount FROM member WHERE MobilePhone=#login_phone#</t>
-  </si>
-  <si>
-    <t>新增项目</t>
-  </si>
-  <si>
-    <t>正常新增, 期限类型0, 还款方式4</t>
-  </si>
-  <si>
-    <t>{"memberId":#memberid#, "Title":"借款投资", "Amount":200000.00, "LoanRate":18.0, "LoanTerm":6, "LoanDateType":0, "RepaymemtWay":4, "BiddingDays":5}</t>
-  </si>
-  <si>
-    <t>SELECT * FROM loan WHERE memberid=#memberid#</t>
-  </si>
-  <si>
-    <t>正常新增, 期限类型2, 还款方式5</t>
-  </si>
-  <si>
-    <t>{"memberId":#memberid#, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":2, "repaymemtWay":5, "biddingDays":5}</t>
-  </si>
-  <si>
-    <t>正常新增, 期限类型4, 还款方式10</t>
-  </si>
-  <si>
-    <t>{"memberId":#memberid#, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":4, "repaymemtWay":10, "biddingDays":5}</t>
-  </si>
-  <si>
-    <t>正常新增, 期限类型0, 还款方式11</t>
-  </si>
-  <si>
-    <t>{"memberId":#memberid#, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":11, "biddingDays":5}</t>
-  </si>
-  <si>
-    <t>{"memberId":None, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-  </si>
-  <si>
-    <t>{"status":0,  "code":"20103"}</t>
-  </si>
-  <si>
-    <t>title为空</t>
-  </si>
-  <si>
-    <t>{"memberId":#memberid#, "title":"", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-  </si>
-  <si>
-    <t>{"memberId":#memberid#, "title":"借款开公司", "amount":None, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-  </si>
-  <si>
-    <t>loanRate为空</t>
-  </si>
-  <si>
-    <t>{"memberId":#memberid#, "title":"借款开公司", "amount":200000, "loanRate":None, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-  </si>
-  <si>
-    <t>loanTerm为空</t>
-  </si>
-  <si>
-    <t>{"memberId":#memberid#, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":None, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-  </si>
-  <si>
-    <t>loanDateType为空</t>
-  </si>
-  <si>
-    <t>{"memberId":#memberid#, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":None, "repaymemtWay":4, "biddingDays":5}</t>
-  </si>
-  <si>
-    <t>repaymemtWay为空</t>
-  </si>
-  <si>
-    <t>{"memberId":#memberid#, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":None, "biddingDays":10}</t>
-  </si>
-  <si>
-    <t>biddingDays为空</t>
-  </si>
-  <si>
-    <t>{"memberId":#memberid#, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":None}</t>
-  </si>
-  <si>
-    <t>{"memberId":-1001, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-  </si>
-  <si>
-    <t>{"status":0,  "code":"20104"}</t>
-  </si>
-  <si>
-    <t>{"memberId":1000001, "title":"借款开公司", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-  </si>
-  <si>
-    <t>{"status":0,  "code":"20105"}</t>
-  </si>
-  <si>
-    <t>amount低于1000</t>
-  </si>
-  <si>
-    <t>{"memberId":#memberid#, "title":"借款开公司", "amount":200, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-  </si>
-  <si>
-    <t>{"status":0,  "code":"20106"}</t>
-  </si>
-  <si>
-    <t>{"memberId":#memberid#, "title":"借款开公司", "amount":200090, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-  </si>
-  <si>
-    <t>loanRate为0</t>
-  </si>
-  <si>
-    <t>{"memberId":#memberid#, "title":"借款开公司", "amount":200000, "loanRate":0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-  </si>
-  <si>
-    <t>{"status":0,  "code":"20107"}</t>
-  </si>
-  <si>
-    <t>loanRate为负数</t>
-  </si>
-  <si>
-    <t>{"memberId":#memberid#, "title":"借款开公司", "amount":200000, "loanRate":-0.1, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-  </si>
-  <si>
-    <t>loanRate大于24</t>
-  </si>
-  <si>
-    <t>{"memberId":#memberid#, "title":"借款开公司", "amount":200000, "loanRate":24.1, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-  </si>
-  <si>
-    <t>loanDateType非法</t>
-  </si>
-  <si>
-    <t>{"memberId":#memberid#, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":1, "repaymemtWay":4, "biddingDays":5}</t>
-  </si>
-  <si>
-    <t>{"status":0,  "code":"20108"}</t>
-  </si>
-  <si>
-    <t>{"memberId":"abc", "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-  </si>
-  <si>
-    <t>{"status":0,  "code":"20109"}</t>
-  </si>
-  <si>
-    <t>title数据类型非法</t>
-  </si>
-  <si>
-    <t>{"memberId":#memberid#, "title":123abc, "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-  </si>
-  <si>
-    <t>{"memberId":#memberid#, "title":"借款投资", "amount":"abc", "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-  </si>
-  <si>
-    <t>loanRate数据类型非法</t>
-  </si>
-  <si>
-    <t>{"memberId":#memberid#, "title":"借款投资", "amount":200000, "loanRate":"aaa", "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-  </si>
-  <si>
-    <t>loanRTerm数据类型非法</t>
-  </si>
-  <si>
-    <t>{"memberId":#memberid#, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":"a", "loanDateType":0, "repaymemtWay":4, "biddingDays":5}</t>
-  </si>
-  <si>
-    <t>loanDateType数据类型非法</t>
-  </si>
-  <si>
-    <t>{"memberId":#memberid#, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":"a", "repaymemtWay":4, "biddingDays":5}</t>
-  </si>
-  <si>
-    <t>repaymemtWay数据类型非法</t>
-  </si>
-  <si>
-    <t>{"memberId":#memberid#, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":"a", "biddingDays":5}</t>
-  </si>
-  <si>
-    <t>biddingDays数据类型非法</t>
-  </si>
-  <si>
-    <t>{"memberId":#memberid#, "title":"借款投资", "amount":200000, "loanRate":18.0, "loanTerm":6, "loanDateType":0, "repaymemtWay":4, "biddingDays":"a"}</t>
-  </si>
-  <si>
-    <t>SELECT Id FROM loan WHERE MemberId=#memberid# ORDER BY CreateTime DESC LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT Status FROM loan WHERE Id=#loanid#</t>
-  </si>
-  <si>
-    <t>状态已存在（3）</t>
-  </si>
-  <si>
-    <t>{"status":0,  "code":"20207"}</t>
-  </si>
-  <si>
-    <t>核保审批</t>
-  </si>
-  <si>
-    <t>{"id":#loanid#, "status":5}</t>
-  </si>
-  <si>
-    <t>平台终审</t>
-  </si>
-  <si>
-    <t>{"id":#loanid#, "status":6}</t>
-  </si>
-  <si>
-    <t>审核不通过</t>
-  </si>
-  <si>
-    <t>{"id":#loanid#, "status":8}</t>
-  </si>
-  <si>
-    <t>审核不通过的标修改状态</t>
-  </si>
-  <si>
-    <t>{"status":0,  "code":"20208"}</t>
-  </si>
-  <si>
-    <t>流标</t>
-  </si>
-  <si>
-    <t>{"id":#loanid#, "status":9}</t>
-  </si>
-  <si>
-    <t>申请流标</t>
-  </si>
-  <si>
-    <t>{"id":#loanid#, "status":11}</t>
-  </si>
-  <si>
-    <t>流标的标修改状态</t>
-  </si>
-  <si>
-    <t>id为空</t>
-  </si>
-  <si>
-    <t>{"id":None, "status":11}</t>
-  </si>
-  <si>
-    <t>{"status":0,  "code":"20203"}</t>
-  </si>
-  <si>
-    <t>status为空</t>
-  </si>
-  <si>
-    <t>{"id":#loanid#, "status":None}</t>
-  </si>
-  <si>
-    <t>status非法</t>
-  </si>
-  <si>
-    <t>{"id":#loanid#, "status":12}</t>
-  </si>
-  <si>
-    <t>{"status":0,  "code":"20205"}</t>
-  </si>
-  <si>
-    <t>id不存在</t>
-  </si>
-  <si>
-    <t>{"id":1000001, "status":2}</t>
-  </si>
-  <si>
-    <t>{"status":1,  "code":"20206"}</t>
-  </si>
-  <si>
-    <t>还款完成的标修改状态</t>
-  </si>
-  <si>
-    <t>status不符合审核规范</t>
-  </si>
-  <si>
-    <t>{"id":#loanid#, "status":10}</t>
-  </si>
-  <si>
-    <t>{"status":0,  "code":"20211"}</t>
-  </si>
-  <si>
-    <t>未执行回款计划, 更新到还款中</t>
-  </si>
-  <si>
-    <t>{"id":#loanid#, "status":7}</t>
-  </si>
-  <si>
-    <t>{"status":0,  "code":"20210"}</t>
-  </si>
-  <si>
-    <t>id数据类型错误</t>
-  </si>
-  <si>
-    <t>{"id":"abc#", "status":3}</t>
-  </si>
-  <si>
-    <t>{"status":0,  "code":"20212"}</t>
-  </si>
-  <si>
-    <t>status数据类型错误</t>
-  </si>
-  <si>
-    <t>{"id":#loanid#, "status":"a"}</t>
-  </si>
-  <si>
-    <t>未满标执行核保审批</t>
-  </si>
-  <si>
-    <t>{"id":2002, "status":"5"}</t>
-  </si>
-  <si>
     <t>获取标列表</t>
   </si>
   <si>
@@ -998,19 +1124,106 @@
     <t>/loan/getLoanList</t>
   </si>
   <si>
-    <t>{"id":2003, "status ":"5"}</t>
-  </si>
-  <si>
-    <t>生成回款计划</t>
-  </si>
-  <si>
     <t>正常生成回款计划</t>
   </si>
   <si>
-    <t>generateRepayments</t>
-  </si>
-  <si>
-    <t>/loan//generateRepayments</t>
+    <t>{"id":#noloanid#}</t>
+  </si>
+  <si>
+    <t>{"status":0,  "code":"20404"}</t>
+  </si>
+  <si>
+    <t>{"id":"abc"}</t>
+  </si>
+  <si>
+    <t>{"status":0,  "code":"20406"}</t>
+  </si>
+  <si>
+    <t>获取用户所有投资记录</t>
+  </si>
+  <si>
+    <t>正常获取用户所有投资记录</t>
+  </si>
+  <si>
+    <t>getInvestsByMemberId</t>
+  </si>
+  <si>
+    <t>//invest/getInvestsByMemberId</t>
+  </si>
+  <si>
+    <t>{"memberId":#memberid5#}</t>
+  </si>
+  <si>
+    <t>{"status":1,  "code":"10001", "data":None, "msg":"获取用户投资列表成功"}</t>
+  </si>
+  <si>
+    <t>{"memberId":None}</t>
+  </si>
+  <si>
+    <t>{"status":0,  "code":"30103", "data":None, "msg":"参数错误：参数不能为空"}</t>
+  </si>
+  <si>
+    <t>{"memberId":"abc"}</t>
+  </si>
+  <si>
+    <t>{"status":0,  "code":"30104", "data":None, "msg":"参数错误, 参数必须是数字"}</t>
+  </si>
+  <si>
+    <t>获取标的所有投资记录</t>
+  </si>
+  <si>
+    <t>正常获取标的所有投资记录</t>
+  </si>
+  <si>
+    <t>getInvestsByLoanId</t>
+  </si>
+  <si>
+    <t>/invest/getInvestsByLoanId</t>
+  </si>
+  <si>
+    <t>{"loanId":#loanid#}</t>
+  </si>
+  <si>
+    <t>{"status":1,  "code":"10001", "data":None, "msg":"获取记录成功"}</t>
+  </si>
+  <si>
+    <t>{"loanId":None}</t>
+  </si>
+  <si>
+    <t>{"loanId":"abc"}</t>
+  </si>
+  <si>
+    <t>获取用户流水记录</t>
+  </si>
+  <si>
+    <t>正常获取用户流水记录</t>
+  </si>
+  <si>
+    <t>getFinanceLogList</t>
+  </si>
+  <si>
+    <t>/financelog/getFinanceLogList</t>
+  </si>
+  <si>
+    <t>{"status":1,  "code":"10001", "data":None, "msg":"获取用户流水记录成功"}</t>
+  </si>
+  <si>
+    <t>{"status":0,  "code":"50103", "data":None, "msg":"参数错误：参数不能为空"}</t>
+  </si>
+  <si>
+    <t>{"status":0,  "code":"50104", "data":None, "msg":"参数错误, 参数必须是数字"}</t>
+  </si>
+  <si>
+    <t>{"memberId":-1001}</t>
+  </si>
+  <si>
+    <t>{"status":0,  "code":"50105", "data":None, "msg":"用户 id 必须大于 0"}</t>
+  </si>
+  <si>
+    <t>{"memberId":#nomemberid#}</t>
+  </si>
+  <si>
+    <t>{"status":0,  "code":"50106", "data":None, "msg":"不存在该用户"}</t>
   </si>
   <si>
     <t>{"id":2002}</t>
@@ -1019,182 +1232,31 @@
     <t>{"id":0002}</t>
   </si>
   <si>
-    <t>{"status":0,  "code":"20404"}</t>
-  </si>
-  <si>
-    <t>id状态不是核保审批或终审状态</t>
-  </si>
-  <si>
     <t>{"id":2003}</t>
   </si>
   <si>
-    <t>{"status":0,  "code":"20405"}</t>
-  </si>
-  <si>
     <t>{"id":"2002"}</t>
   </si>
   <si>
-    <t>{"status":0,  "code":"20406"}</t>
-  </si>
-  <si>
-    <t>获取用户所有投资记录</t>
-  </si>
-  <si>
-    <t>正常获取用户所有投资记录</t>
-  </si>
-  <si>
-    <t>getInvestsByMemberId</t>
-  </si>
-  <si>
-    <t>//invest/getInvestsByMemberId</t>
-  </si>
-  <si>
     <t>{"memberId":1001}</t>
   </si>
   <si>
-    <t>{"status":1,  "code":"10001", "data":None, "msg":"获取用户投资列表成功"}</t>
-  </si>
-  <si>
     <t>{"memberId":}</t>
   </si>
   <si>
-    <t>{"status":0,  "code":"30103", "data":None, "msg":"参数错误：参数不能为空"}</t>
-  </si>
-  <si>
     <t>{"memberId":"1001"}</t>
   </si>
   <si>
-    <t>{"status":0,  "code":"30104", "data":None, "msg":"参数错误, 参数必须是数字"}</t>
-  </si>
-  <si>
-    <t>获取标的所有投资记录</t>
-  </si>
-  <si>
-    <t>正常获取标的所有投资记录</t>
-  </si>
-  <si>
-    <t>getInvestsByLoanId</t>
-  </si>
-  <si>
-    <t>/invest/getInvestsByLoanId</t>
-  </si>
-  <si>
     <t>{"loanId":2002}</t>
   </si>
   <si>
-    <t>{"status":1,  "code":"10001", "data":None, "msg":"获取记录成功"}</t>
-  </si>
-  <si>
     <t>{"loanId":}</t>
   </si>
   <si>
     <t>{"loanId":"2002"}</t>
   </si>
   <si>
-    <t>获取用户流水记录</t>
-  </si>
-  <si>
-    <t>正常获取用户流水记录</t>
-  </si>
-  <si>
-    <t>getFinanceLogList</t>
-  </si>
-  <si>
-    <t>/financelog/getFinanceLogList</t>
-  </si>
-  <si>
-    <t>{"status":1,  "code":"10001", "data":None, "msg":"获取用户流水记录成功"}</t>
-  </si>
-  <si>
-    <t>{"status":0,  "code":"50103", "data":None, "msg":"参数错误：参数不能为空"}</t>
-  </si>
-  <si>
-    <t>{"status":0,  "code":"50104", "data":None, "msg":"参数错误, 参数必须是数字"}</t>
-  </si>
-  <si>
-    <t>{"memberId":-1001}</t>
-  </si>
-  <si>
-    <t>{"status":0,  "code":"50105", "data":None, "msg":"用户 id 必须大于 0"}</t>
-  </si>
-  <si>
     <t>{"memberId":0001}</t>
-  </si>
-  <si>
-    <t>{"status":0,  "code":"50106", "data":None, "msg":"不存在该用户"}</t>
-  </si>
-  <si>
-    <t>充值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#login_phone1# 是已注册好的账号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#exists_phone#是数据库中已存在的手机号，查库获得。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#exists_phone#是数据库中已存在的手机号，查库获得</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#login_phone1#是已注册好的账号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#register_phone#是随机生成的手机号，并且数据库中没有改号码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色填充的为辅助用例</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"#login_phone2#", "amount":500000}</t>
-  </si>
-  <si>
-    <t>SELECT LeaveAmount FROM member WHERE MobilePhone=#login_phone2#</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"#login_phone2#", "amount":200000.5}</t>
-  </si>
-  <si>
-    <t>#login_phone2#是已注册好的账号</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"#login_phone2#", "amount":199999.5}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"#login_phone2#", "amount":0.01}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"#login_phone2#", "amount":None}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"#login_phone2#", "amount":2000.999}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"#login_phone2#", "amount":0}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"#login_phone2#", "amount":-1}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"#login_phone2#", "amount":500000.01}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"#login_phone2#", "pwd":"#pwd2#"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常充值200000.51</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1227,7 +1289,6 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1360,7 +1421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1388,14 +1449,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1405,14 +1459,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1426,6 +1492,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1440,9 +1509,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1730,15 +1796,15 @@
   <cols>
     <col min="1" max="1" width="8.109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27" style="15" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="27" style="12" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="12" customWidth="1"/>
     <col min="6" max="6" width="20.109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="65.33203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.21875" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" style="3" customWidth="1"/>
-    <col min="10" max="87" width="8.88671875" style="3" customWidth="1"/>
-    <col min="88" max="16384" width="8.88671875" style="3"/>
+    <col min="10" max="128" width="8.88671875" style="3" customWidth="1"/>
+    <col min="129" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
@@ -1774,7 +1840,7 @@
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="21" t="s">
@@ -1802,7 +1868,7 @@
         <v>17</v>
       </c>
       <c r="K2" s="19"/>
-      <c r="L2" s="20"/>
+      <c r="L2" s="15"/>
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
@@ -1813,7 +1879,7 @@
       <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="21" t="s">
         <v>18</v>
       </c>
@@ -1839,7 +1905,7 @@
         <v>20</v>
       </c>
       <c r="K3" s="19"/>
-      <c r="L3" s="20"/>
+      <c r="L3" s="15"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
@@ -1850,7 +1916,7 @@
       <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="21" t="s">
         <v>21</v>
       </c>
@@ -1873,10 +1939,10 @@
         <v>16</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>366</v>
+        <v>23</v>
       </c>
       <c r="K4" s="19"/>
-      <c r="L4" s="20"/>
+      <c r="L4" s="15"/>
       <c r="M4" s="19"/>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
@@ -1887,9 +1953,9 @@
       <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>11</v>
@@ -1901,10 +1967,10 @@
         <v>13</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>16</v>
@@ -1914,9 +1980,9 @@
       <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>11</v>
@@ -1928,10 +1994,10 @@
         <v>13</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>16</v>
@@ -1941,9 +2007,9 @@
       <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>11</v>
@@ -1955,10 +2021,10 @@
         <v>13</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>16</v>
@@ -1968,9 +2034,9 @@
       <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>11</v>
@@ -1982,10 +2048,10 @@
         <v>13</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>16</v>
@@ -1995,9 +2061,9 @@
       <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>11</v>
@@ -2009,10 +2075,10 @@
         <v>13</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>16</v>
@@ -2022,9 +2088,9 @@
       <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>11</v>
@@ -2036,10 +2102,10 @@
         <v>13</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>16</v>
@@ -2049,9 +2115,9 @@
       <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>11</v>
@@ -2063,10 +2129,10 @@
         <v>13</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>16</v>
@@ -2076,9 +2142,9 @@
       <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>11</v>
@@ -2090,10 +2156,10 @@
         <v>13</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>16</v>
@@ -2103,9 +2169,9 @@
       <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>11</v>
@@ -2117,10 +2183,10 @@
         <v>13</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13" s="18" t="s">
         <v>16</v>
@@ -2130,9 +2196,9 @@
       <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="26"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>11</v>
@@ -2144,10 +2210,10 @@
         <v>13</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>16</v>
@@ -2165,28 +2231,28 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="12" customWidth="1"/>
     <col min="6" max="6" width="31.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="41.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="89.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="3" customWidth="1"/>
-    <col min="10" max="87" width="8.88671875" style="3" customWidth="1"/>
-    <col min="88" max="16384" width="8.88671875" style="3"/>
+    <col min="7" max="8" width="31.77734375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="89.44140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="3" customWidth="1"/>
+    <col min="11" max="129" width="8.88671875" style="3" customWidth="1"/>
+    <col min="130" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2209,501 +2275,652 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>355</v>
+      </c>
       <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="18">
-        <v>1</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="18">
-        <v>2</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I7" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="18">
-        <v>3</v>
-      </c>
-      <c r="B10" s="25"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>360</v>
+      </c>
       <c r="C10" s="21" t="s">
-        <v>301</v>
+        <v>360</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+        <v>355</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="18">
-        <v>4</v>
-      </c>
-      <c r="B11" s="25"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>351</v>
+      </c>
       <c r="C11" s="21" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+        <v>355</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="18">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="21" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+        <v>364</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="18">
-        <v>6</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>334</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B13" s="27"/>
       <c r="C13" s="21" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="I13" s="21"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+        <v>354</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="18">
-        <v>7</v>
-      </c>
-      <c r="B14" s="25"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>368</v>
+      </c>
       <c r="C14" s="21" t="s">
-        <v>170</v>
+        <v>369</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="I14" s="21"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+        <v>372</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="J14" s="21"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="18">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="21" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="I15" s="21"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+        <v>374</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="18">
-        <v>9</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>344</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B16" s="27"/>
       <c r="C16" s="21" t="s">
-        <v>345</v>
+        <v>229</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="E16" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+        <v>371</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="18">
-        <v>10</v>
-      </c>
-      <c r="B17" s="25"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>378</v>
+      </c>
       <c r="C17" s="21" t="s">
-        <v>175</v>
+        <v>379</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="E17" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+        <v>381</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="18">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="21" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="E18" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+        <v>381</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="18">
-        <v>12</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>352</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B19" s="27"/>
       <c r="C19" s="21" t="s">
-        <v>353</v>
+        <v>234</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="E19" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+        <v>381</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="18">
-        <v>13</v>
-      </c>
-      <c r="B20" s="25"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>386</v>
+      </c>
       <c r="C20" s="21" t="s">
-        <v>170</v>
+        <v>387</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+        <v>372</v>
+      </c>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="18">
-        <v>14</v>
-      </c>
-      <c r="B21" s="25"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="26"/>
       <c r="C21" s="21" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+        <v>374</v>
+      </c>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="18">
-        <v>15</v>
-      </c>
-      <c r="B22" s="25"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="26"/>
       <c r="C22" s="21" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+        <v>376</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="18">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="21" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="I23" s="9"/>
+        <v>393</v>
+      </c>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="18">
+        <v>23</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="J24" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B23"/>
+  <mergeCells count="5">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B24"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2719,15 +2936,15 @@
   <cols>
     <col min="1" max="1" width="9.21875" style="3" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="12" customWidth="1"/>
     <col min="6" max="6" width="34.44140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="15.88671875" style="3" customWidth="1"/>
     <col min="8" max="8" width="108.21875" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" style="3" customWidth="1"/>
-    <col min="10" max="87" width="8.88671875" style="3" customWidth="1"/>
-    <col min="88" max="16384" width="8.88671875" style="3"/>
+    <col min="10" max="128" width="8.88671875" style="3" customWidth="1"/>
+    <col min="129" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
@@ -2763,26 +2980,26 @@
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>322</v>
+      <c r="B2" s="25" t="s">
+        <v>351</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>326</v>
+        <v>397</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -2790,24 +3007,24 @@
       <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="21" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>327</v>
+        <v>398</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="I3" s="9"/>
     </row>
@@ -2815,24 +3032,24 @@
       <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="21" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>330</v>
+        <v>399</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="I4" s="9"/>
     </row>
@@ -2840,24 +3057,24 @@
       <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="21" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>332</v>
+        <v>400</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="I5" s="9"/>
     </row>
@@ -2880,17 +3097,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="44.109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="54.109375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="34" style="15" customWidth="1"/>
-    <col min="8" max="8" width="128.33203125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="15" customWidth="1"/>
-    <col min="10" max="87" width="8.88671875" style="15" customWidth="1"/>
-    <col min="88" max="16384" width="8.88671875" style="15"/>
+    <col min="1" max="1" width="13.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="44.109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="54.109375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="34" style="12" customWidth="1"/>
+    <col min="8" max="8" width="128.33203125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="12" customWidth="1"/>
+    <col min="10" max="128" width="8.88671875" style="12" customWidth="1"/>
+    <col min="129" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2926,26 +3143,26 @@
       <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>334</v>
+      <c r="B2" s="33" t="s">
+        <v>368</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>338</v>
+        <v>401</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="I2" s="21"/>
     </row>
@@ -2953,24 +3170,24 @@
       <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="21" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>340</v>
+        <v>402</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="I3" s="21"/>
     </row>
@@ -2978,24 +3195,24 @@
       <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="21" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>342</v>
+        <v>403</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="I4" s="21"/>
     </row>
@@ -3020,15 +3237,15 @@
   <cols>
     <col min="1" max="1" width="13.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="33.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="44.109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="46.77734375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="44.109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="46.77734375" style="12" customWidth="1"/>
     <col min="7" max="7" width="29" style="3" customWidth="1"/>
     <col min="8" max="8" width="128.33203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" style="3" customWidth="1"/>
-    <col min="10" max="87" width="8.88671875" style="3" customWidth="1"/>
-    <col min="88" max="16384" width="8.88671875" style="3"/>
+    <col min="10" max="128" width="8.88671875" style="3" customWidth="1"/>
+    <col min="129" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
@@ -3064,26 +3281,26 @@
       <c r="A2" s="18">
         <v>135</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>344</v>
+      <c r="B2" s="33" t="s">
+        <v>378</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="E2" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>348</v>
+        <v>381</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -3091,24 +3308,24 @@
       <c r="A3" s="18">
         <v>136</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="21" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="E3" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>350</v>
+        <v>381</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>405</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="I3" s="9"/>
     </row>
@@ -3116,24 +3333,24 @@
       <c r="A4" s="18">
         <v>137</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="21" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="E4" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>351</v>
+        <v>381</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>406</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="I4" s="9"/>
     </row>
@@ -3158,15 +3375,15 @@
   <cols>
     <col min="1" max="1" width="13.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" customWidth="1"/>
-    <col min="3" max="3" width="46.109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="46.109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="12" customWidth="1"/>
     <col min="6" max="6" width="53" style="3" customWidth="1"/>
     <col min="7" max="7" width="34" style="3" customWidth="1"/>
     <col min="8" max="8" width="128.33203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" style="3" customWidth="1"/>
-    <col min="10" max="87" width="8.88671875" style="3" customWidth="1"/>
-    <col min="88" max="16384" width="8.88671875" style="3"/>
+    <col min="10" max="128" width="8.88671875" style="3" customWidth="1"/>
+    <col min="129" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
@@ -3202,26 +3419,26 @@
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>352</v>
+      <c r="B2" s="33" t="s">
+        <v>386</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>338</v>
+        <v>401</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>356</v>
+        <v>390</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -3229,24 +3446,24 @@
       <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="21" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>340</v>
+        <v>402</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>357</v>
+        <v>391</v>
       </c>
       <c r="I3" s="9"/>
     </row>
@@ -3254,24 +3471,24 @@
       <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="21" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>342</v>
+        <v>403</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>358</v>
+        <v>392</v>
       </c>
       <c r="I4" s="9"/>
     </row>
@@ -3279,24 +3496,24 @@
       <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="21" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="I5" s="9"/>
     </row>
@@ -3304,24 +3521,24 @@
       <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="21" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>362</v>
+        <v>396</v>
       </c>
       <c r="I6" s="9"/>
     </row>
@@ -3340,7 +3557,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="D2" sqref="D2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3353,8 +3570,8 @@
     <col min="6" max="6" width="24.6640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="72.6640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="55" style="3" customWidth="1"/>
-    <col min="9" max="86" width="8.88671875" style="3" customWidth="1"/>
-    <col min="87" max="16384" width="8.88671875" style="3"/>
+    <col min="9" max="127" width="8.88671875" style="3" customWidth="1"/>
+    <col min="128" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.4">
@@ -3390,26 +3607,26 @@
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>48</v>
+      <c r="B2" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>16</v>
@@ -3428,30 +3645,30 @@
       <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>364</v>
+        <v>58</v>
       </c>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
@@ -3464,30 +3681,30 @@
       <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>365</v>
+        <v>61</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
@@ -3500,24 +3717,24 @@
       <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>16</v>
@@ -3527,24 +3744,24 @@
       <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="21" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>16</v>
@@ -3554,24 +3771,24 @@
       <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>16</v>
@@ -3581,24 +3798,24 @@
       <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>16</v>
@@ -3608,24 +3825,24 @@
       <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>16</v>
@@ -3635,24 +3852,24 @@
       <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>16</v>
@@ -3662,24 +3879,24 @@
       <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="26"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>16</v>
@@ -3699,24 +3916,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:R5"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.77734375" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14" style="15" customWidth="1"/>
-    <col min="5" max="5" width="10" style="15" customWidth="1"/>
-    <col min="6" max="6" width="23" style="15" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="14" style="12" customWidth="1"/>
+    <col min="5" max="5" width="10" style="12" customWidth="1"/>
+    <col min="6" max="6" width="23" style="12" customWidth="1"/>
     <col min="7" max="7" width="63.6640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="27.44140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="42.88671875" style="3" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" style="3" customWidth="1"/>
-    <col min="11" max="88" width="8.88671875" style="3" customWidth="1"/>
-    <col min="89" max="16384" width="8.88671875" style="3"/>
+    <col min="11" max="129" width="8.88671875" style="3" customWidth="1"/>
+    <col min="130" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.4">
@@ -3742,7 +3959,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -3756,32 +3973,32 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="D2" s="22" t="s">
         <v>51</v>
       </c>
+      <c r="E2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="G2" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>367</v>
+        <v>17</v>
       </c>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
@@ -3795,35 +4012,35 @@
       <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>73</v>
+      <c r="B3" s="25" t="s">
+        <v>76</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>370</v>
+        <v>83</v>
       </c>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
@@ -3837,33 +4054,33 @@
       <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="21" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G4" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>78</v>
-      </c>
       <c r="I4" s="18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>368</v>
+        <v>86</v>
       </c>
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
@@ -3877,33 +4094,33 @@
       <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>79</v>
-      </c>
       <c r="J5" s="18" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>369</v>
+        <v>89</v>
       </c>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
@@ -3917,25 +4134,25 @@
       <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="18" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>16</v>
@@ -3945,25 +4162,25 @@
       <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="21" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J7" s="18" t="s">
         <v>16</v>
@@ -3973,25 +4190,25 @@
       <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>16</v>
@@ -4001,25 +4218,25 @@
       <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>16</v>
@@ -4029,25 +4246,25 @@
       <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J10" s="18" t="s">
         <v>16</v>
@@ -4057,25 +4274,25 @@
       <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>16</v>
@@ -4085,25 +4302,25 @@
       <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>16</v>
@@ -4113,25 +4330,25 @@
       <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="21" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>16</v>
@@ -4141,53 +4358,53 @@
       <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="25"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="21" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="18" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="21" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="J15" s="18" t="s">
         <v>16</v>
@@ -4197,25 +4414,25 @@
       <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="B16" s="25"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="21" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="18" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="J16" s="18" t="s">
         <v>16</v>
@@ -4225,25 +4442,25 @@
       <c r="A17" s="18">
         <v>16</v>
       </c>
-      <c r="B17" s="26"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="21" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="18" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="J17" s="18" t="s">
         <v>16</v>
@@ -4263,26 +4480,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.21875" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" style="12" customWidth="1"/>
     <col min="7" max="7" width="65.21875" style="3" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="34.21875" style="3" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" style="3" customWidth="1"/>
     <col min="11" max="11" width="29.44140625" style="5" customWidth="1"/>
-    <col min="12" max="89" width="8.88671875" style="3" customWidth="1"/>
-    <col min="90" max="16384" width="8.88671875" style="3"/>
+    <col min="12" max="130" width="8.88671875" style="3" customWidth="1"/>
+    <col min="131" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.4">
@@ -4308,7 +4525,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -4317,7 +4534,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
@@ -4325,32 +4542,32 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="D2" s="22" t="s">
         <v>51</v>
       </c>
+      <c r="E2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="G2" s="10" t="s">
-        <v>382</v>
+        <v>115</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>367</v>
+        <v>17</v>
       </c>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
@@ -4365,32 +4582,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="11" t="s">
         <v>76</v>
       </c>
+      <c r="C3" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>79</v>
+      </c>
       <c r="G3" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>372</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="H3" s="10"/>
       <c r="I3" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" s="10"/>
+        <v>82</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="K3" s="19" t="s">
-        <v>370</v>
+        <v>83</v>
       </c>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
@@ -4404,31 +4621,31 @@
       <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>372</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="H4" s="10"/>
       <c r="I4" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="10"/>
+        <v>82</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="K4" s="19" t="s">
-        <v>374</v>
+        <v>119</v>
       </c>
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
@@ -4442,35 +4659,35 @@
       <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>109</v>
+      <c r="B5" s="25" t="s">
+        <v>120</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>371</v>
+        <v>116</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>372</v>
+        <v>124</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>369</v>
+        <v>89</v>
       </c>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
@@ -4484,27 +4701,27 @@
       <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="21" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>375</v>
+        <v>127</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>372</v>
+        <v>124</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>16</v>
@@ -4515,27 +4732,27 @@
       <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="21" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>376</v>
+        <v>129</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>372</v>
+        <v>124</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="J7" s="18" t="s">
         <v>16</v>
@@ -4546,25 +4763,25 @@
       <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>16</v>
@@ -4575,25 +4792,25 @@
       <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="21" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>377</v>
+        <v>131</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>16</v>
@@ -4604,56 +4821,56 @@
       <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>16</v>
@@ -4664,25 +4881,25 @@
       <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>16</v>
@@ -4693,25 +4910,25 @@
       <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>16</v>
@@ -4722,25 +4939,25 @@
       <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="25"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="18" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>16</v>
@@ -4751,25 +4968,25 @@
       <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="21" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>378</v>
+        <v>134</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="J15" s="18" t="s">
         <v>16</v>
@@ -4780,28 +4997,28 @@
       <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="B16" s="25"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="21" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>379</v>
+        <v>136</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="18" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K16" s="18"/>
     </row>
@@ -4809,25 +5026,25 @@
       <c r="A17" s="18">
         <v>16</v>
       </c>
-      <c r="B17" s="25"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="21" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>380</v>
+        <v>138</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="18" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="J17" s="18" t="s">
         <v>16</v>
@@ -4838,25 +5055,25 @@
       <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18" s="25"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="21" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>381</v>
+        <v>140</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="18" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="J18" s="18" t="s">
         <v>16</v>
@@ -4867,59 +5084,59 @@
       <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="B19" s="25"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>111</v>
-      </c>
       <c r="E19" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>381</v>
+        <v>140</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="J19" s="18" t="s">
         <v>16</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="18">
         <v>19</v>
       </c>
-      <c r="B20" s="26"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>112</v>
-      </c>
       <c r="G20" s="18" t="s">
-        <v>371</v>
+        <v>116</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="18" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K20" s="18"/>
     </row>
@@ -4930,7 +5147,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -4939,22 +5156,22 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="34.109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="12" customWidth="1"/>
     <col min="6" max="6" width="41.44140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="31" style="3" customWidth="1"/>
     <col min="8" max="8" width="72.6640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" style="3" customWidth="1"/>
-    <col min="10" max="87" width="8.88671875" style="3" customWidth="1"/>
-    <col min="88" max="16384" width="8.88671875" style="3"/>
+    <col min="10" max="128" width="8.88671875" style="3" customWidth="1"/>
+    <col min="129" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
@@ -4986,28 +5203,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>125</v>
+      <c r="B2" s="24" t="s">
+        <v>144</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="I2" s="21"/>
     </row>
@@ -5019,30 +5236,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12" style="15" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="11" style="15" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12" style="12" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="11" style="12" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="12" customWidth="1"/>
     <col min="6" max="6" width="18.77734375" style="3" customWidth="1"/>
     <col min="7" max="7" width="76.5546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="20.77734375" style="3" customWidth="1"/>
     <col min="9" max="9" width="76" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="3" customWidth="1"/>
-    <col min="11" max="88" width="8.88671875" style="3" customWidth="1"/>
-    <col min="89" max="16384" width="8.88671875" style="3"/>
+    <col min="10" max="10" width="7.33203125" style="3" customWidth="1"/>
+    <col min="11" max="129" width="8.88671875" style="3" customWidth="1"/>
+    <col min="130" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5065,7 +5282,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -5077,899 +5294,965 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="D2" s="22" t="s">
         <v>51</v>
       </c>
+      <c r="E2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="G2" s="10" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+    </row>
+    <row r="3" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="B3" s="22" t="s">
         <v>76</v>
       </c>
+      <c r="C3" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>79</v>
+      </c>
       <c r="G3" s="10" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K3" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+    </row>
+    <row r="4" spans="1:18" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+    </row>
+    <row r="5" spans="1:18" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+    </row>
+    <row r="6" spans="1:18" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="26"/>
+      <c r="C6" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+    </row>
+    <row r="7" spans="1:18" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="18">
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="6" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="J7" s="21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K7" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+    </row>
+    <row r="8" spans="1:18" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+    </row>
+    <row r="9" spans="1:18" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>149</v>
+      <c r="B9" s="25" t="s">
+        <v>170</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="J9" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="26"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="21" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="6" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="J10" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>112</v>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+        <v>153</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="18">
         <v>11</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="6" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="B13" s="22" t="s">
         <v>76</v>
       </c>
+      <c r="C13" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>79</v>
+      </c>
       <c r="G13" s="10" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+        <v>153</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>169</v>
+      <c r="B14" s="29" t="s">
+        <v>192</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="6" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="J14" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>152</v>
-      </c>
       <c r="G15" s="18" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="6" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="J15" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="B16" s="25"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="21" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="18">
+        <v>16</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="J16" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="18">
-        <v>16</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>151</v>
-      </c>
       <c r="E17" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="6" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="J17" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18" s="25"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="21" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="6" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="J18" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="B19" s="25"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="21" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="6" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="J19" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="18">
         <v>19</v>
       </c>
-      <c r="B20" s="25"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="21" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="6" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="J20" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="18">
         <v>20</v>
       </c>
-      <c r="B21" s="25"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="21" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="H21" s="18"/>
       <c r="I21" s="6" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="J21" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="18">
         <v>21</v>
       </c>
-      <c r="B22" s="25"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="21" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="H22" s="18"/>
       <c r="I22" s="6" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="J22" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="18">
         <v>22</v>
       </c>
-      <c r="B23" s="25"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="21" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="H23" s="18"/>
       <c r="I23" s="6" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="J23" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="18">
         <v>23</v>
       </c>
-      <c r="B24" s="25"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="21" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="H24" s="18"/>
       <c r="I24" s="6" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="J24" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="18">
         <v>24</v>
       </c>
-      <c r="B25" s="25"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="21" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="H25" s="18"/>
       <c r="I25" s="6" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="J25" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="18">
         <v>25</v>
       </c>
-      <c r="B26" s="25"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="21" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="H26" s="18"/>
       <c r="I26" s="6" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="J26" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="18">
         <v>26</v>
       </c>
-      <c r="B27" s="25"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="21" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="J27" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="18">
         <v>27</v>
       </c>
-      <c r="B28" s="25"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="21" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="H28" s="18"/>
       <c r="I28" s="6" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="18">
         <v>28</v>
       </c>
-      <c r="B29" s="25"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="21" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="H29" s="18"/>
       <c r="I29" s="6" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="J29" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="18">
         <v>29</v>
       </c>
-      <c r="B30" s="25"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="21" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E30" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="6" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="18">
         <v>30</v>
       </c>
-      <c r="B31" s="25"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="21" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E31" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="H31" s="18"/>
       <c r="I31" s="6" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="18">
         <v>31</v>
       </c>
-      <c r="B32" s="26"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="21" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="H32" s="18"/>
       <c r="I32" s="6" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="J32" s="21" t="s">
         <v>16</v>
@@ -5983,6 +6266,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5991,23 +6275,23 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.77734375" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14" style="15" customWidth="1"/>
-    <col min="5" max="5" width="10" style="15" customWidth="1"/>
-    <col min="6" max="6" width="23" style="15" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="14" style="12" customWidth="1"/>
+    <col min="5" max="5" width="10" style="12" customWidth="1"/>
+    <col min="6" max="6" width="23" style="12" customWidth="1"/>
     <col min="7" max="7" width="63.6640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="82.44140625" style="3" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" style="3" customWidth="1"/>
-    <col min="11" max="24" width="8.88671875" style="3" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="3"/>
+    <col min="11" max="65" width="8.88671875" style="3" customWidth="1"/>
+    <col min="66" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
@@ -6033,7 +6317,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -6047,26 +6331,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>16</v>
@@ -6077,28 +6361,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>16</v>
@@ -6112,30 +6396,30 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="34.109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="12" customWidth="1"/>
     <col min="5" max="5" width="9.77734375" style="7" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" style="3" customWidth="1"/>
     <col min="7" max="7" width="44.33203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="50.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="33.88671875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="15" customWidth="1"/>
-    <col min="11" max="87" width="8.88671875" style="3" customWidth="1"/>
-    <col min="88" max="16384" width="8.88671875" style="3"/>
+    <col min="9" max="9" width="33.88671875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="12" customWidth="1"/>
+    <col min="11" max="128" width="8.88671875" style="3" customWidth="1"/>
+    <col min="129" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6158,7 +6442,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
@@ -6167,433 +6451,469 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="21">
+    <row r="2" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="21" t="s">
+      <c r="D2" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+    </row>
+    <row r="3" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>219</v>
+      <c r="B3" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>243</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="J3" s="21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K3" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+    </row>
+    <row r="4" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="22" t="s">
-        <v>222</v>
+      <c r="B4" s="26"/>
+      <c r="C4" s="23" t="s">
+        <v>246</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="J4" s="21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K4" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+    </row>
+    <row r="5" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="22" t="s">
-        <v>224</v>
+      <c r="B5" s="26"/>
+      <c r="C5" s="23" t="s">
+        <v>249</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="J5" s="21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K5" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+    </row>
+    <row r="6" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="22" t="s">
-        <v>226</v>
+      <c r="B6" s="26"/>
+      <c r="C6" s="23" t="s">
+        <v>252</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="J6" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="22" t="s">
-        <v>170</v>
+      <c r="B7" s="26"/>
+      <c r="C7" s="23" t="s">
+        <v>193</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="21" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="J7" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="22" t="s">
-        <v>230</v>
+      <c r="B8" s="26"/>
+      <c r="C8" s="23" t="s">
+        <v>256</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="21" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="J8" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="22" t="s">
-        <v>177</v>
+      <c r="B9" s="26"/>
+      <c r="C9" s="23" t="s">
+        <v>200</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="21" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="J9" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="21">
         <v>9</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="22" t="s">
-        <v>233</v>
+      <c r="B10" s="26"/>
+      <c r="C10" s="23" t="s">
+        <v>259</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="21" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="J10" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="21">
         <v>10</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="22" t="s">
-        <v>235</v>
+      <c r="B11" s="26"/>
+      <c r="C11" s="23" t="s">
+        <v>261</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="21" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="J11" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="21">
         <v>11</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="22" t="s">
-        <v>237</v>
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
+        <v>263</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="21" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="J12" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="21">
         <v>12</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="22" t="s">
-        <v>239</v>
+      <c r="B13" s="26"/>
+      <c r="C13" s="23" t="s">
+        <v>265</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="21" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="J13" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="21">
         <v>13</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="22" t="s">
-        <v>241</v>
+      <c r="B14" s="26"/>
+      <c r="C14" s="23" t="s">
+        <v>267</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="21" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="J14" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="21">
         <v>14</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="22" t="s">
-        <v>182</v>
+      <c r="B15" s="26"/>
+      <c r="C15" s="23" t="s">
+        <v>205</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="21" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="J15" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="21">
         <v>15</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="22" t="s">
-        <v>197</v>
+      <c r="B16" s="26"/>
+      <c r="C16" s="23" t="s">
+        <v>220</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="21" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="J16" s="21" t="s">
         <v>16</v>
@@ -6603,53 +6923,53 @@
       <c r="A17" s="21">
         <v>16</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="22" t="s">
-        <v>247</v>
+      <c r="B17" s="26"/>
+      <c r="C17" s="23" t="s">
+        <v>273</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="21" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="21">
         <v>17</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="22" t="s">
-        <v>194</v>
+      <c r="B18" s="26"/>
+      <c r="C18" s="23" t="s">
+        <v>217</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="21" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="J18" s="21" t="s">
         <v>16</v>
@@ -6659,25 +6979,25 @@
       <c r="A19" s="21">
         <v>18</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="22" t="s">
-        <v>251</v>
+      <c r="B19" s="26"/>
+      <c r="C19" s="23" t="s">
+        <v>277</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="21" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="J19" s="21" t="s">
         <v>16</v>
@@ -6687,25 +7007,25 @@
       <c r="A20" s="21">
         <v>19</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="22" t="s">
-        <v>254</v>
+      <c r="B20" s="26"/>
+      <c r="C20" s="23" t="s">
+        <v>280</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="21" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="J20" s="21" t="s">
         <v>16</v>
@@ -6715,25 +7035,25 @@
       <c r="A21" s="21">
         <v>20</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="22" t="s">
-        <v>256</v>
+      <c r="B21" s="26"/>
+      <c r="C21" s="23" t="s">
+        <v>282</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="21" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="J21" s="21" t="s">
         <v>16</v>
@@ -6743,25 +7063,25 @@
       <c r="A22" s="21">
         <v>21</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="22" t="s">
-        <v>258</v>
+      <c r="B22" s="26"/>
+      <c r="C22" s="23" t="s">
+        <v>284</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="21" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="J22" s="21" t="s">
         <v>16</v>
@@ -6771,25 +7091,25 @@
       <c r="A23" s="21">
         <v>22</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="22" t="s">
-        <v>206</v>
+      <c r="B23" s="26"/>
+      <c r="C23" s="23" t="s">
+        <v>229</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="21" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="J23" s="21" t="s">
         <v>16</v>
@@ -6799,53 +7119,53 @@
       <c r="A24" s="21">
         <v>23</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="22" t="s">
-        <v>263</v>
+      <c r="B24" s="26"/>
+      <c r="C24" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="21" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="21">
         <v>24</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="22" t="s">
-        <v>213</v>
+      <c r="B25" s="26"/>
+      <c r="C25" s="23" t="s">
+        <v>236</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E25" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="21" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="J25" s="21" t="s">
         <v>16</v>
@@ -6855,25 +7175,25 @@
       <c r="A26" s="21">
         <v>25</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="22" t="s">
-        <v>266</v>
+      <c r="B26" s="26"/>
+      <c r="C26" s="23" t="s">
+        <v>292</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E26" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="21" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="J26" s="21" t="s">
         <v>16</v>
@@ -6883,25 +7203,25 @@
       <c r="A27" s="21">
         <v>26</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="22" t="s">
-        <v>268</v>
+      <c r="B27" s="26"/>
+      <c r="C27" s="23" t="s">
+        <v>294</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E27" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="21" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="J27" s="21" t="s">
         <v>16</v>
@@ -6911,25 +7231,25 @@
       <c r="A28" s="21">
         <v>27</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="22" t="s">
-        <v>270</v>
+      <c r="B28" s="26"/>
+      <c r="C28" s="23" t="s">
+        <v>296</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E28" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="21" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="J28" s="21" t="s">
         <v>16</v>
@@ -6939,25 +7259,25 @@
       <c r="A29" s="21">
         <v>28</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="22" t="s">
-        <v>272</v>
+      <c r="B29" s="26"/>
+      <c r="C29" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E29" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="21" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="J29" s="21" t="s">
         <v>16</v>
@@ -6967,25 +7287,25 @@
       <c r="A30" s="21">
         <v>29</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="22" t="s">
-        <v>274</v>
+      <c r="B30" s="27"/>
+      <c r="C30" s="23" t="s">
+        <v>300</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E30" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="21" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="J30" s="21" t="s">
         <v>16</v>
@@ -6997,34 +7317,35 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.21875" style="7" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="34.109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="34.109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="12" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" style="7" customWidth="1"/>
     <col min="7" max="8" width="30.6640625" style="7" customWidth="1"/>
     <col min="9" max="9" width="39.5546875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="15" customWidth="1"/>
-    <col min="11" max="88" width="8.88671875" style="7" customWidth="1"/>
-    <col min="89" max="16384" width="8.88671875" style="7"/>
+    <col min="10" max="10" width="10.33203125" style="12" customWidth="1"/>
+    <col min="11" max="129" width="8.88671875" style="7" customWidth="1"/>
+    <col min="130" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7047,7 +7368,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
@@ -7056,451 +7377,487 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="21">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="21" t="s">
+      <c r="D2" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="21">
+      <c r="E2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B3" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>142</v>
+      <c r="B4" s="32" t="s">
+        <v>161</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="J4" s="21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K4" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="21" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="J5" s="21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K5" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="21" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="J6" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="21" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="J7" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="21" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="J8" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="21" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="J9" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="21">
         <v>9</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="21" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="21">
         <v>10</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="21" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="21">
         <v>11</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="21" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="21">
         <v>12</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="21" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="21">
         <v>13</v>
       </c>
-      <c r="B14" s="25"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="21" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="21">
         <v>14</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="21" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="21" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="J15" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="21">
         <v>15</v>
       </c>
-      <c r="B16" s="25"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="21" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="21" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="J16" s="21" t="s">
         <v>16</v>
@@ -7510,25 +7867,25 @@
       <c r="A17" s="21">
         <v>16</v>
       </c>
-      <c r="B17" s="25"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="21" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="21" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="J17" s="21" t="s">
         <v>16</v>
@@ -7538,25 +7895,25 @@
       <c r="A18" s="21">
         <v>17</v>
       </c>
-      <c r="B18" s="25"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="21" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="21" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="J18" s="21" t="s">
         <v>16</v>
@@ -7566,57 +7923,57 @@
       <c r="A19" s="21">
         <v>18</v>
       </c>
-      <c r="B19" s="25"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="21" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="21">
         <v>19</v>
       </c>
-      <c r="B20" s="25"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>277</v>
-      </c>
       <c r="I20" s="21" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="J20" s="21" t="s">
         <v>16</v>
@@ -7626,27 +7983,27 @@
       <c r="A21" s="21">
         <v>20</v>
       </c>
-      <c r="B21" s="25"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="21" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="J21" s="21" t="s">
         <v>16</v>
@@ -7656,27 +8013,27 @@
       <c r="A22" s="21">
         <v>21</v>
       </c>
-      <c r="B22" s="25"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="21" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="J22" s="21" t="s">
         <v>16</v>
@@ -7686,27 +8043,27 @@
       <c r="A23" s="21">
         <v>22</v>
       </c>
-      <c r="B23" s="25"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="21" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="J23" s="21" t="s">
         <v>16</v>
@@ -7716,27 +8073,27 @@
       <c r="A24" s="21">
         <v>23</v>
       </c>
-      <c r="B24" s="26"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="8" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="J24" s="21" t="s">
         <v>16</v>
@@ -7748,5 +8105,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/qcd_testcases.xlsx
+++ b/data/qcd_testcases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="9" autoFilterDateGrouping="1" firstSheet="4" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="775" visibility="visible" windowHeight="15024" windowWidth="0" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="775" visibility="visible" windowHeight="15024" windowWidth="0" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
@@ -29,7 +29,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -55,6 +55,13 @@
     <font>
       <name val="等线"/>
       <charset val="134"/>
+      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
       <scheme val="minor"/>
     </font>
@@ -557,9 +564,9 @@
   </sheetPr>
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="J21" pane="bottomLeft" sqref="J21"/>
+      <selection activeCell="C18" pane="bottomLeft" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="17.4"/>
@@ -573,8 +580,8 @@
     <col customWidth="1" max="7" min="7" style="3" width="65.33203125"/>
     <col customWidth="1" max="8" min="8" style="3" width="48.21875"/>
     <col customWidth="1" max="9" min="9" style="3" width="10.33203125"/>
-    <col customWidth="1" max="138" min="10" style="3" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="139" style="3" width="8.88671875"/>
+    <col customWidth="1" max="144" min="10" style="3" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="145" style="3" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -625,7 +632,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="n">
+      <c r="A2" s="25" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="25" t="inlineStr">
@@ -682,7 +689,7 @@
       <c r="Q2" s="19" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="n">
+      <c r="A3" s="25" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="26" t="n"/>
@@ -735,7 +742,7 @@
       <c r="Q3" s="19" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="18" t="n">
+      <c r="A4" s="25" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="26" t="n"/>
@@ -788,7 +795,7 @@
       <c r="Q4" s="19" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="18" t="n">
+      <c r="A5" s="25" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="26" t="n"/>
@@ -829,7 +836,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="18" t="n">
+      <c r="A6" s="25" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="26" t="n"/>
@@ -870,7 +877,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="18" t="n">
+      <c r="A7" s="25" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="26" t="n"/>
@@ -911,7 +918,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="18" t="n">
+      <c r="A8" s="25" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="26" t="n"/>
@@ -952,7 +959,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="18" t="n">
+      <c r="A9" s="25" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="26" t="n"/>
@@ -993,7 +1000,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="18" t="n">
+      <c r="A10" s="25" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="26" t="n"/>
@@ -1034,7 +1041,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="18" t="n">
+      <c r="A11" s="25" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="26" t="n"/>
@@ -1075,7 +1082,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="18" t="n">
+      <c r="A12" s="25" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="26" t="n"/>
@@ -1116,7 +1123,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="18" t="n">
+      <c r="A13" s="25" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="26" t="n"/>
@@ -1157,7 +1164,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="18" t="n">
+      <c r="A14" s="25" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="27" t="n"/>
@@ -1214,8 +1221,8 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView showGridLines="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="17.4"/>
@@ -1229,8 +1236,8 @@
     <col customWidth="1" max="8" min="7" style="3" width="31.77734375"/>
     <col customWidth="1" max="9" min="9" style="3" width="81.88671875"/>
     <col customWidth="1" max="10" min="10" style="12" width="10.33203125"/>
-    <col customWidth="1" max="139" min="11" style="3" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="140" style="3" width="8.88671875"/>
+    <col customWidth="1" max="145" min="11" style="3" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="146" style="3" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1325,7 +1332,7 @@
           <t>{'status':1,  'code':'10001'}</t>
         </is>
       </c>
-      <c r="J2" s="25" t="inlineStr">
+      <c r="J2" s="28" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -1371,7 +1378,7 @@
           <t>{"status":1,  "code":"10001"}</t>
         </is>
       </c>
-      <c r="J3" s="25" t="inlineStr">
+      <c r="J3" s="28" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -1408,7 +1415,7 @@
       </c>
       <c r="G4" s="28" t="inlineStr">
         <is>
-          <t>{"memberId":#memberid6#, "Title":"借款投资", "amount":5000.00, "LoanRate":18.0, "LoanTerm":6, "LoanDateType":0, "RepaymemtWay":4, "BiddingDays":5}</t>
+          <t>{"memberId":#memberid6#, "Title":"借款投资", "amount":5000.00, "LoanRate":18.0, "LoanTerm":6, "LoanDateType":0, "RepaymemtWay":11, "BiddingDays":5}</t>
         </is>
       </c>
       <c r="H4" s="28" t="inlineStr">
@@ -1421,7 +1428,7 @@
           <t>{"status":1,  "code":"10001"}</t>
         </is>
       </c>
-      <c r="J4" s="25" t="inlineStr">
+      <c r="J4" s="28" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -1467,7 +1474,7 @@
           <t>{"status":1,  "code":"10001"}</t>
         </is>
       </c>
-      <c r="J5" s="25" t="inlineStr">
+      <c r="J5" s="28" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -1509,7 +1516,7 @@
           <t>{"status":1,  "code":"10001"}</t>
         </is>
       </c>
-      <c r="J6" s="25" t="inlineStr">
+      <c r="J6" s="28" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -1601,7 +1608,7 @@
           <t>{"status":1,  "code":"10001"}</t>
         </is>
       </c>
-      <c r="J8" s="25" t="inlineStr">
+      <c r="J8" s="28" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -1647,7 +1654,7 @@
           <t>{'status':1,  'code':'10001'}</t>
         </is>
       </c>
-      <c r="J9" s="25" t="inlineStr">
+      <c r="J9" s="28" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -1909,7 +1916,7 @@
       </c>
       <c r="J15" s="25" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2046,7 @@
       </c>
       <c r="J18" s="25" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -2339,8 +2346,8 @@
     <col customWidth="1" max="7" min="7" style="3" width="15.88671875"/>
     <col customWidth="1" max="8" min="8" style="3" width="108.21875"/>
     <col customWidth="1" max="9" min="9" style="3" width="10.33203125"/>
-    <col customWidth="1" max="138" min="10" style="3" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="139" style="3" width="8.88671875"/>
+    <col customWidth="1" max="144" min="10" style="3" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="145" style="3" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2573,8 +2580,8 @@
     <col customWidth="1" max="7" min="7" style="12" width="34"/>
     <col customWidth="1" max="8" min="8" style="12" width="128.33203125"/>
     <col customWidth="1" max="9" min="9" style="12" width="10.33203125"/>
-    <col customWidth="1" max="138" min="10" style="12" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="139" style="12" width="8.88671875"/>
+    <col customWidth="1" max="144" min="10" style="12" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="145" style="12" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2770,8 +2777,8 @@
     <col customWidth="1" max="7" min="7" style="3" width="29"/>
     <col customWidth="1" max="8" min="8" style="3" width="128.33203125"/>
     <col customWidth="1" max="9" min="9" style="3" width="10.33203125"/>
-    <col customWidth="1" max="138" min="10" style="3" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="139" style="3" width="8.88671875"/>
+    <col customWidth="1" max="144" min="10" style="3" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="145" style="3" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2967,8 +2974,8 @@
     <col customWidth="1" max="7" min="7" style="3" width="34"/>
     <col customWidth="1" max="8" min="8" style="3" width="128.33203125"/>
     <col customWidth="1" max="9" min="9" style="3" width="10.33203125"/>
-    <col customWidth="1" max="138" min="10" style="3" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="139" style="3" width="8.88671875"/>
+    <col customWidth="1" max="144" min="10" style="3" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="145" style="3" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3238,8 +3245,8 @@
     <col customWidth="1" max="6" min="6" style="3" width="24.6640625"/>
     <col customWidth="1" max="7" min="7" style="3" width="72.6640625"/>
     <col customWidth="1" max="8" min="8" style="3" width="55"/>
-    <col customWidth="1" max="137" min="9" style="3" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="138" style="3" width="8.88671875"/>
+    <col customWidth="1" max="143" min="9" style="3" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="144" style="3" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3769,8 +3776,8 @@
     <col customWidth="1" max="8" min="8" style="3" width="27.44140625"/>
     <col customWidth="1" max="9" min="9" style="3" width="42.88671875"/>
     <col customWidth="1" max="10" min="10" style="3" width="10.33203125"/>
-    <col customWidth="1" max="139" min="11" style="3" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="140" style="3" width="8.88671875"/>
+    <col customWidth="1" max="145" min="11" style="3" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="146" style="3" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4600,8 +4607,8 @@
     <col customWidth="1" max="9" min="9" style="3" width="34.21875"/>
     <col customWidth="1" max="10" min="10" style="3" width="10.33203125"/>
     <col customWidth="1" max="11" min="11" style="5" width="29.44140625"/>
-    <col customWidth="1" max="140" min="12" style="3" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="141" style="3" width="8.88671875"/>
+    <col customWidth="1" max="146" min="12" style="3" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="147" style="3" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5587,8 +5594,8 @@
     <col customWidth="1" max="7" min="7" style="3" width="31"/>
     <col customWidth="1" max="8" min="8" style="3" width="72.6640625"/>
     <col customWidth="1" max="9" min="9" style="3" width="10.33203125"/>
-    <col customWidth="1" max="138" min="10" style="3" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="139" style="3" width="8.88671875"/>
+    <col customWidth="1" max="144" min="10" style="3" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="145" style="3" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5705,8 +5712,8 @@
     <col customWidth="1" max="8" min="8" style="3" width="20.77734375"/>
     <col customWidth="1" max="9" min="9" style="3" width="76"/>
     <col customWidth="1" max="10" min="10" style="3" width="7.33203125"/>
-    <col customWidth="1" max="139" min="11" style="3" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="140" style="3" width="8.88671875"/>
+    <col customWidth="1" max="145" min="11" style="3" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="146" style="3" width="8.88671875"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="21" r="1">
@@ -7239,8 +7246,8 @@
     <col customWidth="1" max="8" min="8" style="3" width="16.33203125"/>
     <col customWidth="1" max="9" min="9" style="3" width="82.44140625"/>
     <col customWidth="1" max="10" min="10" style="3" width="10.33203125"/>
-    <col customWidth="1" max="75" min="11" style="3" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="76" style="3" width="8.88671875"/>
+    <col customWidth="1" max="81" min="11" style="3" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="82" style="3" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7421,8 +7428,8 @@
     <col customWidth="1" max="8" min="8" style="3" width="50.6640625"/>
     <col customWidth="1" max="9" min="9" style="12" width="33.88671875"/>
     <col customWidth="1" max="10" min="10" style="12" width="8.88671875"/>
-    <col customWidth="1" max="138" min="11" style="3" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="139" style="3" width="8.88671875"/>
+    <col customWidth="1" max="144" min="11" style="3" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="145" style="3" width="8.88671875"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="12">
@@ -8796,8 +8803,8 @@
     <col customWidth="1" max="8" min="7" style="7" width="30.6640625"/>
     <col customWidth="1" max="9" min="9" style="7" width="39.5546875"/>
     <col customWidth="1" max="10" min="10" style="12" width="10.33203125"/>
-    <col customWidth="1" max="139" min="11" style="7" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="140" style="7" width="8.88671875"/>
+    <col customWidth="1" max="145" min="11" style="7" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="146" style="7" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9942,7 +9949,7 @@
       </c>
       <c r="J24" s="25" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>

--- a/data/qcd_testcases.xlsx
+++ b/data/qcd_testcases.xlsx
@@ -1916,7 +1916,7 @@
       </c>
       <c r="J15" s="25" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="J18" s="25" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
